--- a/backlog-sprints.xlsx
+++ b/backlog-sprints.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Intro" sheetId="1" state="visible" r:id="rId2"/>
@@ -15,16 +15,21 @@
     <sheet name="system sheet" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">'Product Backlog'!$B$4:$H$115</definedName>
+    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">'Product Backlog'!$B$4:$H$113</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Area" vbProcedure="false">'Sprint 1'!$A$1:$N$15</definedName>
     <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">'Sprint 1'!$A$6:$E$16</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm.Print_Area" vbProcedure="false">'Sprint 2'!$A$1:$N$16</definedName>
     <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">'Sprint 2'!$A$6:$E$17</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">'Product Backlog'!$B$4:$H$115</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">'Product Backlog'!$B$4:$H$113</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Product Backlog'!$B$4:$H$113</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Area" vbProcedure="false">'Sprint 1'!$A$1:$N$15</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Area_0" vbProcedure="false">'Sprint 1'!$A$1:$N$15</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">'Sprint 1'!$A$6:$E$16</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Sprint 1'!$A$6:$E$16</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm.Print_Area" vbProcedure="false">'Sprint 2'!$A$1:$N$16</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm.Print_Area_0" vbProcedure="false">'Sprint 2'!$A$1:$N$16</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">'Sprint 2'!$A$6:$E$17</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Sprint 2'!$A$6:$E$17</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -481,7 +486,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="89">
   <si>
     <t xml:space="preserve">Scrum Excel sheet</t>
   </si>
@@ -594,25 +599,112 @@
     <t xml:space="preserve">Last edited:</t>
   </si>
   <si>
-    <t xml:space="preserve">Title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As a …</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I Can …</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Domain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Priority</t>
+    <t xml:space="preserve">Titre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En tant que …</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Je peux …</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Domaine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Priorité</t>
   </si>
   <si>
     <t xml:space="preserve">Difficulté</t>
   </si>
   <si>
-    <t xml:space="preserve">Plannified in Sprint</t>
+    <t xml:space="preserve">Plannifié dans le sprint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Visiteur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accéder à la page d’accueil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Home</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Créer un compte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">me connecter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">demander à récupérer mon mot de passe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Visiteur ou Utilisateur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rechercher un trajet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trajet – passager</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saisir un trajet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trajet – conducteur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Voir le profil d’un autre utilisateur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Profils</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Utilisateur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gérer mon compte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Définir mon ou mes véhicules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Réserver un trajet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valider un trajet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Payer mon trajet ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Voir les réservations passager sur mon trajet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accepter ou refuser les réservations sur mon trajet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evaluer un utilisateur avec qui j’ai partagé un trajet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Administrateur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">me connecter au back-office ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Admin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gérer les utilisateurs ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">faire des statistiques ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Définir les prix de base par catégorie de véhicules</t>
   </si>
   <si>
     <t xml:space="preserve">Sprint 1</t>
@@ -714,7 +806,7 @@
     <numFmt numFmtId="171" formatCode="0.00"/>
     <numFmt numFmtId="172" formatCode="0.0"/>
   </numFmts>
-  <fonts count="43">
+  <fonts count="42">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -896,13 +988,6 @@
       <color rgb="FF993300"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FF993300"/>
-      <name val="Arial"/>
-      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
@@ -981,6 +1066,11 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="11.5"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -989,12 +1079,6 @@
     <font>
       <b val="true"/>
       <sz val="11.5"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10.55"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -1023,7 +1107,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1050,18 +1134,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF99"/>
-        <bgColor rgb="FFFFFFCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="22">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -1119,30 +1197,23 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
+      <left style="thin"/>
       <right style="thin"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right style="thin"/>
-      <top/>
-      <bottom/>
+      <top style="thin"/>
+      <bottom style="dotted"/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left style="thin"/>
       <right style="thin"/>
-      <top/>
-      <bottom/>
+      <top style="dotted"/>
+      <bottom style="dotted"/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left style="thin"/>
       <right style="thin"/>
-      <top/>
+      <top style="dotted"/>
       <bottom style="thin"/>
       <diagonal/>
     </border>
@@ -1196,6 +1267,13 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right style="thin"/>
       <top style="thin"/>
@@ -1206,6 +1284,13 @@
       <left style="thin"/>
       <right style="thin"/>
       <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="thin"/>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -1238,7 +1323,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="106">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1323,56 +1408,48 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="15" fillId="2" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="15" fillId="2" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="2" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="5" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="167" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -1407,23 +1484,23 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="6" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="23" fillId="5" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="6" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="23" fillId="5" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="6" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="23" fillId="5" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="24" fillId="6" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="24" fillId="5" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="25" fillId="2" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="25" fillId="2" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1431,103 +1508,95 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="27" fillId="2" borderId="16" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="26" fillId="2" borderId="15" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="28" fillId="2" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="27" fillId="2" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="23" fillId="2" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="28" fillId="2" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="15" fillId="2" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="7" fillId="2" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="15" fillId="2" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="27" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="23" fillId="2" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="27" fillId="2" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="26" fillId="2" borderId="17" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="29" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="169" fontId="23" fillId="2" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="29" fillId="2" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="15" fillId="2" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="7" fillId="2" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="15" fillId="2" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="28" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="23" fillId="2" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="28" fillId="2" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="27" fillId="2" borderId="18" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="30" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="23" fillId="2" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1535,7 +1604,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1551,15 +1620,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="171" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="172" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="172" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1595,7 +1660,7 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1603,19 +1668,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="26" fillId="2" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="26" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="27" fillId="2" borderId="16" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="26" fillId="2" borderId="15" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1627,7 +1684,7 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="40" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="39" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1635,7 +1692,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="29" fillId="2" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="28" fillId="2" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1643,15 +1700,15 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="171" fontId="41" fillId="2" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="171" fontId="40" fillId="2" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="41" fillId="2" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="169" fontId="40" fillId="2" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="42" fillId="2" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="41" fillId="2" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1663,19 +1720,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1683,11 +1740,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="169" fontId="6" fillId="2" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1764,7 +1821,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1811,8 +1868,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.359090054521527"/>
-          <c:y val="0.043628597579579"/>
+          <c:x val="0.359103557193352"/>
+          <c:y val="0.043633034987795"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1824,10 +1881,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.102876480541455"/>
-          <c:y val="0.203701820400692"/>
-          <c:w val="0.721338597480729"/>
-          <c:h val="0.590358995220177"/>
+          <c:x val="0.102880348950891"/>
+          <c:y val="0.203722538649308"/>
+          <c:w val="0.721328119124615"/>
+          <c:h val="0.590317331163548"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -2009,11 +2066,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="20178758"/>
-        <c:axId val="14112425"/>
+        <c:axId val="83232347"/>
+        <c:axId val="80838219"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="20178758"/>
+        <c:axId val="83232347"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2061,8 +2118,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.435194585448393"/>
-              <c:y val="0.88569104037425"/>
+              <c:x val="0.435210949838309"/>
+              <c:y val="0.885679414157852"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -2098,14 +2155,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="14112425"/>
+        <c:crossAx val="80838219"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="14112425"/>
+        <c:axId val="80838219"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2153,8 +2210,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.0300432412107539"/>
-              <c:y val="0.361741075968677"/>
+              <c:x val="0.0300819733774536"/>
+              <c:y val="0.361676159479251"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -2190,7 +2247,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="20178758"/>
+        <c:crossAx val="83232347"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2254,7 +2311,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2301,8 +2358,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.359100526497072"/>
-          <c:y val="0.043633034987795"/>
+          <c:x val="0.359118197027852"/>
+          <c:y val="0.0436374732987489"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2314,10 +2371,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.102888353097476"/>
-          <c:y val="0.203722538649308"/>
-          <c:w val="0.72130098902721"/>
-          <c:h val="0.590419039869813"/>
+          <c:x val="0.102893416002362"/>
+          <c:y val="0.203743261112806"/>
+          <c:w val="0.72128727487452"/>
+          <c:h val="0.59037737768284"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -2499,11 +2556,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="36042681"/>
-        <c:axId val="24413575"/>
+        <c:axId val="54858233"/>
+        <c:axId val="5979050"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="36042681"/>
+        <c:axId val="54858233"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2551,8 +2608,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.435221177975693"/>
-              <c:y val="0.885679414157852"/>
+              <c:x val="0.435242594232851"/>
+              <c:y val="0.885667785576238"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -2588,14 +2645,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="24413575"/>
+        <c:crossAx val="5979050"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="24413575"/>
+        <c:axId val="5979050"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2643,8 +2700,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.0300644589873542"/>
-              <c:y val="0.361676159479251"/>
+              <c:x val="0.0301151461470328"/>
+              <c:y val="0.361611229783338"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -2680,7 +2737,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="36042681"/>
+        <c:crossAx val="54858233"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2755,9 +2812,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>617040</xdr:colOff>
+      <xdr:colOff>616680</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>159840</xdr:rowOff>
+      <xdr:rowOff>159480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2771,7 +2828,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="533520" y="6004440"/>
-          <a:ext cx="836280" cy="298800"/>
+          <a:ext cx="835560" cy="298440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2801,9 +2858,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>456840</xdr:colOff>
+      <xdr:colOff>456480</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>156960</xdr:rowOff>
+      <xdr:rowOff>156600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2812,7 +2869,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="640080" y="4293720"/>
-        <a:ext cx="9573840" cy="3539520"/>
+        <a:ext cx="9573480" cy="3539160"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2836,9 +2893,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>456840</xdr:colOff>
+      <xdr:colOff>456480</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
+      <xdr:rowOff>136800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2847,7 +2904,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="640080" y="4255920"/>
-        <a:ext cx="7315920" cy="3539160"/>
+        <a:ext cx="7315560" cy="3538800"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2867,13 +2924,13 @@
   </sheetPr>
   <dimension ref="A1:Q39"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B25" activeCellId="0" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="10.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="10.66"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3689,23 +3746,23 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D24" activeCellId="0" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="10" width="64.86"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="11" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="10.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="11" width="14.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="10.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="19.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="18.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="10" style="0" width="10.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="18.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="10" style="0" width="10.66"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3717,7 +3774,7 @@
       <c r="G1" s="12"/>
       <c r="H1" s="12"/>
     </row>
-    <row r="2" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="13"/>
       <c r="B2" s="14" t="s">
         <v>4</v>
@@ -3730,7 +3787,7 @@
       <c r="H2" s="14"/>
       <c r="I2" s="14"/>
     </row>
-    <row r="3" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="13"/>
       <c r="B3" s="15"/>
       <c r="C3" s="15"/>
@@ -3755,31 +3812,352 @@
       <c r="D4" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="24" t="s">
+      <c r="E4" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="25" t="s">
+      <c r="F4" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="26" t="s">
+      <c r="G4" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="27" t="s">
+      <c r="H4" s="25" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="20"/>
-      <c r="B5" s="28"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="33"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="27"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="29"/>
+      <c r="C6" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="30"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="29"/>
+      <c r="C7" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="29"/>
+      <c r="C8" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="29"/>
+      <c r="C9" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="29"/>
+      <c r="C10" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="29"/>
+      <c r="C11" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="29"/>
+      <c r="C12" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="29"/>
+      <c r="C13" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="29"/>
+      <c r="C14" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="29"/>
+      <c r="C15" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="29"/>
+      <c r="C16" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="29"/>
+      <c r="C17" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="29"/>
+      <c r="C18" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="29"/>
+      <c r="C19" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="E19" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="29"/>
+      <c r="C20" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="E20" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="29"/>
+      <c r="C21" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="E21" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="29"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="29"/>
+      <c r="C22" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="E22" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="29"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="29"/>
+      <c r="C23" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="D23" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="E23" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="29"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="29"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="29"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="29"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="29"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="29"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="29"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="29"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="29"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="31"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="31"/>
+      <c r="H28" s="31"/>
     </row>
   </sheetData>
-  <autoFilter ref="B4:H115"/>
+  <autoFilter ref="B4:H113"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -3814,42 +4192,42 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="21.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="5" style="0" width="7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="30.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="16" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="16" style="0" width="9.13"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1"/>
-      <c r="B1" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="D1" s="36" t="n">
+      <c r="B1" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="34" t="n">
         <v>39742</v>
       </c>
       <c r="E1" s="1"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
       <c r="O1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1"/>
-      <c r="B2" s="34" t="str">
+      <c r="B2" s="32" t="str">
         <f aca="false">Intro!E5</f>
         <v>My Product</v>
       </c>
-      <c r="C2" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" s="36" t="n">
+      <c r="C2" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="34" t="n">
         <f aca="false">WORKDAY(D1,10)</f>
         <v>39756</v>
       </c>
@@ -3863,26 +4241,26 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
-      <c r="O2" s="38"/>
-      <c r="P2" s="39"/>
-      <c r="Q2" s="39"/>
-      <c r="R2" s="39"/>
-      <c r="S2" s="39"/>
-      <c r="T2" s="39"/>
-      <c r="U2" s="39"/>
-      <c r="V2" s="39"/>
-      <c r="W2" s="39"/>
-      <c r="X2" s="39"/>
-      <c r="Y2" s="39"/>
-      <c r="Z2" s="39"/>
+      <c r="O2" s="36"/>
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="37"/>
+      <c r="S2" s="37"/>
+      <c r="T2" s="37"/>
+      <c r="U2" s="37"/>
+      <c r="V2" s="37"/>
+      <c r="W2" s="37"/>
+      <c r="X2" s="37"/>
+      <c r="Y2" s="37"/>
+      <c r="Z2" s="37"/>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
-      <c r="C3" s="35" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" s="40" t="n">
+      <c r="C3" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" s="38" t="n">
         <f aca="false">D16</f>
         <v>0</v>
       </c>
@@ -3896,56 +4274,56 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
-      <c r="O3" s="38"/>
-      <c r="P3" s="39"/>
-      <c r="Q3" s="39"/>
-      <c r="R3" s="39"/>
-      <c r="S3" s="39"/>
-      <c r="T3" s="39"/>
-      <c r="U3" s="39"/>
-      <c r="V3" s="39"/>
-      <c r="W3" s="39"/>
-      <c r="X3" s="39"/>
-      <c r="Y3" s="39"/>
-      <c r="Z3" s="39"/>
+      <c r="O3" s="36"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="37"/>
+      <c r="R3" s="37"/>
+      <c r="S3" s="37"/>
+      <c r="T3" s="37"/>
+      <c r="U3" s="37"/>
+      <c r="V3" s="37"/>
+      <c r="W3" s="37"/>
+      <c r="X3" s="37"/>
+      <c r="Y3" s="37"/>
+      <c r="Z3" s="37"/>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="41" t="s">
-        <v>37</v>
-      </c>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41"/>
-      <c r="M4" s="41"/>
-      <c r="N4" s="41"/>
-      <c r="O4" s="38"/>
-      <c r="P4" s="39"/>
-      <c r="Q4" s="39"/>
-      <c r="R4" s="39"/>
-      <c r="S4" s="39"/>
-      <c r="T4" s="39"/>
-      <c r="U4" s="39"/>
-      <c r="V4" s="39"/>
-      <c r="W4" s="39"/>
-      <c r="X4" s="39"/>
-      <c r="Y4" s="39"/>
-      <c r="Z4" s="39"/>
+      <c r="C4" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="39"/>
+      <c r="O4" s="36"/>
+      <c r="P4" s="37"/>
+      <c r="Q4" s="37"/>
+      <c r="R4" s="37"/>
+      <c r="S4" s="37"/>
+      <c r="T4" s="37"/>
+      <c r="U4" s="37"/>
+      <c r="V4" s="37"/>
+      <c r="W4" s="37"/>
+      <c r="X4" s="37"/>
+      <c r="Y4" s="37"/>
+      <c r="Z4" s="37"/>
     </row>
     <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="36"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="34"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -3956,2448 +4334,2448 @@
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
-      <c r="O5" s="38"/>
-      <c r="P5" s="39"/>
-      <c r="Q5" s="39"/>
-      <c r="R5" s="39"/>
-      <c r="S5" s="39"/>
-      <c r="T5" s="39"/>
-      <c r="U5" s="39"/>
-      <c r="V5" s="39"/>
-      <c r="W5" s="39"/>
-      <c r="X5" s="39"/>
-      <c r="Y5" s="39"/>
-      <c r="Z5" s="39"/>
+      <c r="O5" s="36"/>
+      <c r="P5" s="37"/>
+      <c r="Q5" s="37"/>
+      <c r="R5" s="37"/>
+      <c r="S5" s="37"/>
+      <c r="T5" s="37"/>
+      <c r="U5" s="37"/>
+      <c r="V5" s="37"/>
+      <c r="W5" s="37"/>
+      <c r="X5" s="37"/>
+      <c r="Y5" s="37"/>
+      <c r="Z5" s="37"/>
     </row>
     <row r="6" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="B6" s="43" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" s="46" t="n">
+      <c r="A6" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" s="44" t="n">
         <v>39650</v>
       </c>
-      <c r="F6" s="46" t="n">
+      <c r="F6" s="44" t="n">
         <v>39651</v>
       </c>
-      <c r="G6" s="46" t="n">
+      <c r="G6" s="44" t="n">
         <v>39652</v>
       </c>
-      <c r="H6" s="46" t="n">
+      <c r="H6" s="44" t="n">
         <v>39653</v>
       </c>
-      <c r="I6" s="46" t="n">
+      <c r="I6" s="44" t="n">
         <v>39654</v>
       </c>
-      <c r="J6" s="46" t="n">
+      <c r="J6" s="44" t="n">
         <v>39657</v>
       </c>
-      <c r="K6" s="46" t="n">
+      <c r="K6" s="44" t="n">
         <v>39658</v>
       </c>
-      <c r="L6" s="46" t="n">
+      <c r="L6" s="44" t="n">
         <v>39659</v>
       </c>
-      <c r="M6" s="46" t="n">
+      <c r="M6" s="44" t="n">
         <v>39660</v>
       </c>
-      <c r="N6" s="47" t="n">
+      <c r="N6" s="45" t="n">
         <v>39661</v>
       </c>
-      <c r="O6" s="38"/>
-      <c r="P6" s="48"/>
-      <c r="Q6" s="48"/>
-      <c r="R6" s="48"/>
-      <c r="S6" s="48"/>
-      <c r="T6" s="48"/>
-      <c r="U6" s="48"/>
-      <c r="V6" s="48"/>
-      <c r="W6" s="48"/>
-      <c r="X6" s="48"/>
-      <c r="Y6" s="48"/>
-      <c r="Z6" s="39"/>
-      <c r="AA6" s="39"/>
-      <c r="AB6" s="39"/>
-      <c r="AC6" s="39"/>
-      <c r="AD6" s="39"/>
-      <c r="AE6" s="39"/>
-      <c r="AF6" s="39"/>
-      <c r="AG6" s="39"/>
-      <c r="AH6" s="39"/>
-      <c r="AI6" s="39"/>
-      <c r="AJ6" s="39"/>
-      <c r="AK6" s="39"/>
-      <c r="AL6" s="39"/>
-      <c r="AM6" s="39"/>
-      <c r="AN6" s="39"/>
-      <c r="AO6" s="39"/>
-      <c r="AP6" s="39"/>
-      <c r="AQ6" s="39"/>
-      <c r="AR6" s="39"/>
-      <c r="AS6" s="39"/>
-      <c r="AT6" s="39"/>
-      <c r="AU6" s="39"/>
-      <c r="AV6" s="39"/>
-      <c r="AW6" s="39"/>
-      <c r="AX6" s="39"/>
-      <c r="AY6" s="39"/>
-      <c r="AZ6" s="39"/>
-      <c r="BA6" s="39"/>
-      <c r="BB6" s="39"/>
-      <c r="BC6" s="39"/>
-      <c r="BD6" s="39"/>
-      <c r="BE6" s="39"/>
-      <c r="BF6" s="39"/>
-      <c r="BG6" s="39"/>
-      <c r="BH6" s="39"/>
-      <c r="BI6" s="39"/>
-      <c r="BJ6" s="39"/>
-      <c r="BK6" s="39"/>
-      <c r="BL6" s="39"/>
-      <c r="BM6" s="39"/>
-      <c r="BN6" s="39"/>
-      <c r="BO6" s="39"/>
-      <c r="BP6" s="39"/>
-      <c r="BQ6" s="39"/>
-      <c r="BR6" s="39"/>
-      <c r="BS6" s="39"/>
-      <c r="BT6" s="39"/>
-      <c r="BU6" s="39"/>
-      <c r="BV6" s="39"/>
-      <c r="BW6" s="39"/>
-      <c r="BX6" s="39"/>
-      <c r="BY6" s="39"/>
-      <c r="BZ6" s="39"/>
-      <c r="CA6" s="39"/>
-      <c r="CB6" s="39"/>
-      <c r="CC6" s="39"/>
-      <c r="CD6" s="39"/>
-      <c r="CE6" s="39"/>
-      <c r="CF6" s="39"/>
-      <c r="CG6" s="39"/>
-      <c r="CH6" s="39"/>
-      <c r="CI6" s="39"/>
-      <c r="CJ6" s="39"/>
-      <c r="CK6" s="39"/>
-      <c r="CL6" s="39"/>
-      <c r="CM6" s="39"/>
-      <c r="CN6" s="39"/>
+      <c r="O6" s="36"/>
+      <c r="P6" s="46"/>
+      <c r="Q6" s="46"/>
+      <c r="R6" s="46"/>
+      <c r="S6" s="46"/>
+      <c r="T6" s="46"/>
+      <c r="U6" s="46"/>
+      <c r="V6" s="46"/>
+      <c r="W6" s="46"/>
+      <c r="X6" s="46"/>
+      <c r="Y6" s="46"/>
+      <c r="Z6" s="37"/>
+      <c r="AA6" s="37"/>
+      <c r="AB6" s="37"/>
+      <c r="AC6" s="37"/>
+      <c r="AD6" s="37"/>
+      <c r="AE6" s="37"/>
+      <c r="AF6" s="37"/>
+      <c r="AG6" s="37"/>
+      <c r="AH6" s="37"/>
+      <c r="AI6" s="37"/>
+      <c r="AJ6" s="37"/>
+      <c r="AK6" s="37"/>
+      <c r="AL6" s="37"/>
+      <c r="AM6" s="37"/>
+      <c r="AN6" s="37"/>
+      <c r="AO6" s="37"/>
+      <c r="AP6" s="37"/>
+      <c r="AQ6" s="37"/>
+      <c r="AR6" s="37"/>
+      <c r="AS6" s="37"/>
+      <c r="AT6" s="37"/>
+      <c r="AU6" s="37"/>
+      <c r="AV6" s="37"/>
+      <c r="AW6" s="37"/>
+      <c r="AX6" s="37"/>
+      <c r="AY6" s="37"/>
+      <c r="AZ6" s="37"/>
+      <c r="BA6" s="37"/>
+      <c r="BB6" s="37"/>
+      <c r="BC6" s="37"/>
+      <c r="BD6" s="37"/>
+      <c r="BE6" s="37"/>
+      <c r="BF6" s="37"/>
+      <c r="BG6" s="37"/>
+      <c r="BH6" s="37"/>
+      <c r="BI6" s="37"/>
+      <c r="BJ6" s="37"/>
+      <c r="BK6" s="37"/>
+      <c r="BL6" s="37"/>
+      <c r="BM6" s="37"/>
+      <c r="BN6" s="37"/>
+      <c r="BO6" s="37"/>
+      <c r="BP6" s="37"/>
+      <c r="BQ6" s="37"/>
+      <c r="BR6" s="37"/>
+      <c r="BS6" s="37"/>
+      <c r="BT6" s="37"/>
+      <c r="BU6" s="37"/>
+      <c r="BV6" s="37"/>
+      <c r="BW6" s="37"/>
+      <c r="BX6" s="37"/>
+      <c r="BY6" s="37"/>
+      <c r="BZ6" s="37"/>
+      <c r="CA6" s="37"/>
+      <c r="CB6" s="37"/>
+      <c r="CC6" s="37"/>
+      <c r="CD6" s="37"/>
+      <c r="CE6" s="37"/>
+      <c r="CF6" s="37"/>
+      <c r="CG6" s="37"/>
+      <c r="CH6" s="37"/>
+      <c r="CI6" s="37"/>
+      <c r="CJ6" s="37"/>
+      <c r="CK6" s="37"/>
+      <c r="CL6" s="37"/>
+      <c r="CM6" s="37"/>
+      <c r="CN6" s="37"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="49"/>
-      <c r="B7" s="50"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="56"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
-      <c r="K7" s="54"/>
-      <c r="L7" s="54"/>
-      <c r="M7" s="54"/>
-      <c r="N7" s="57"/>
-      <c r="O7" s="38"/>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="39"/>
-      <c r="R7" s="39"/>
-      <c r="S7" s="39"/>
-      <c r="T7" s="39"/>
-      <c r="U7" s="39"/>
-      <c r="V7" s="39"/>
-      <c r="W7" s="39"/>
-      <c r="X7" s="39"/>
-      <c r="Y7" s="39"/>
-      <c r="Z7" s="39"/>
+      <c r="A7" s="47"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
+      <c r="K7" s="52"/>
+      <c r="L7" s="52"/>
+      <c r="M7" s="52"/>
+      <c r="N7" s="54"/>
+      <c r="O7" s="36"/>
+      <c r="P7" s="37"/>
+      <c r="Q7" s="37"/>
+      <c r="R7" s="37"/>
+      <c r="S7" s="37"/>
+      <c r="T7" s="37"/>
+      <c r="U7" s="37"/>
+      <c r="V7" s="37"/>
+      <c r="W7" s="37"/>
+      <c r="X7" s="37"/>
+      <c r="Y7" s="37"/>
+      <c r="Z7" s="37"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="49"/>
-      <c r="B8" s="50"/>
-      <c r="C8" s="51"/>
-      <c r="D8" s="58"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="59"/>
-      <c r="G8" s="59"/>
-      <c r="H8" s="59"/>
-      <c r="I8" s="59"/>
-      <c r="J8" s="59"/>
-      <c r="K8" s="60"/>
-      <c r="L8" s="60"/>
-      <c r="M8" s="60"/>
-      <c r="N8" s="60"/>
+      <c r="A8" s="47"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="56"/>
+      <c r="H8" s="56"/>
+      <c r="I8" s="56"/>
+      <c r="J8" s="56"/>
+      <c r="K8" s="57"/>
+      <c r="L8" s="57"/>
+      <c r="M8" s="57"/>
+      <c r="N8" s="57"/>
       <c r="O8" s="1"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="49"/>
-      <c r="B9" s="61"/>
-      <c r="C9" s="62"/>
-      <c r="D9" s="63"/>
-      <c r="E9" s="59"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="60"/>
-      <c r="H9" s="64"/>
-      <c r="I9" s="60"/>
-      <c r="J9" s="60"/>
-      <c r="K9" s="60"/>
-      <c r="L9" s="60"/>
-      <c r="M9" s="60"/>
-      <c r="N9" s="60"/>
+      <c r="A9" s="47"/>
+      <c r="B9" s="58"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="57"/>
+      <c r="I9" s="57"/>
+      <c r="J9" s="57"/>
+      <c r="K9" s="57"/>
+      <c r="L9" s="57"/>
+      <c r="M9" s="57"/>
+      <c r="N9" s="57"/>
       <c r="O9" s="1"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="49"/>
-      <c r="B10" s="65"/>
-      <c r="C10" s="62"/>
-      <c r="D10" s="66"/>
-      <c r="E10" s="59"/>
-      <c r="F10" s="60"/>
-      <c r="G10" s="60"/>
-      <c r="H10" s="64"/>
-      <c r="I10" s="60"/>
-      <c r="J10" s="60"/>
-      <c r="K10" s="60"/>
-      <c r="L10" s="60"/>
-      <c r="M10" s="60"/>
-      <c r="N10" s="60"/>
+      <c r="A10" s="47"/>
+      <c r="B10" s="61"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="57"/>
+      <c r="I10" s="57"/>
+      <c r="J10" s="57"/>
+      <c r="K10" s="57"/>
+      <c r="L10" s="57"/>
+      <c r="M10" s="57"/>
+      <c r="N10" s="57"/>
       <c r="O10" s="1"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="49"/>
-      <c r="B11" s="65"/>
-      <c r="C11" s="62"/>
-      <c r="D11" s="63"/>
-      <c r="E11" s="59"/>
-      <c r="F11" s="60"/>
-      <c r="G11" s="60"/>
-      <c r="H11" s="64"/>
-      <c r="I11" s="60"/>
-      <c r="J11" s="60"/>
-      <c r="K11" s="60"/>
-      <c r="L11" s="60"/>
-      <c r="M11" s="60"/>
-      <c r="N11" s="60"/>
+      <c r="A11" s="47"/>
+      <c r="B11" s="61"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="60"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="57"/>
+      <c r="M11" s="57"/>
+      <c r="N11" s="57"/>
       <c r="O11" s="1"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="49"/>
-      <c r="B12" s="65"/>
-      <c r="C12" s="62"/>
-      <c r="D12" s="52"/>
-      <c r="E12" s="59"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="67"/>
-      <c r="H12" s="64"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="60"/>
-      <c r="K12" s="60"/>
-      <c r="L12" s="60"/>
-      <c r="M12" s="60"/>
-      <c r="N12" s="60"/>
+      <c r="A12" s="47"/>
+      <c r="B12" s="61"/>
+      <c r="C12" s="59"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="63"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="57"/>
+      <c r="J12" s="57"/>
+      <c r="K12" s="57"/>
+      <c r="L12" s="57"/>
+      <c r="M12" s="57"/>
+      <c r="N12" s="57"/>
       <c r="O12" s="1"/>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="68"/>
-      <c r="B13" s="65"/>
-      <c r="C13" s="62"/>
-      <c r="D13" s="52"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="60"/>
-      <c r="G13" s="67"/>
-      <c r="H13" s="64"/>
-      <c r="I13" s="60"/>
-      <c r="J13" s="60"/>
-      <c r="K13" s="60"/>
-      <c r="L13" s="60"/>
-      <c r="M13" s="60"/>
-      <c r="N13" s="60"/>
+      <c r="A13" s="64"/>
+      <c r="B13" s="61"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="57"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="57"/>
+      <c r="I13" s="57"/>
+      <c r="J13" s="57"/>
+      <c r="K13" s="57"/>
+      <c r="L13" s="57"/>
+      <c r="M13" s="57"/>
+      <c r="N13" s="57"/>
       <c r="O13" s="1"/>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="68"/>
-      <c r="B14" s="65"/>
-      <c r="C14" s="62"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="59"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="67"/>
-      <c r="H14" s="64"/>
-      <c r="I14" s="69"/>
-      <c r="J14" s="60"/>
-      <c r="K14" s="60"/>
-      <c r="L14" s="60"/>
-      <c r="M14" s="60"/>
-      <c r="N14" s="60"/>
+      <c r="A14" s="64"/>
+      <c r="B14" s="61"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="57"/>
+      <c r="G14" s="63"/>
+      <c r="H14" s="57"/>
+      <c r="I14" s="65"/>
+      <c r="J14" s="57"/>
+      <c r="K14" s="57"/>
+      <c r="L14" s="57"/>
+      <c r="M14" s="57"/>
+      <c r="N14" s="57"/>
       <c r="O14" s="1"/>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="70"/>
-      <c r="B15" s="61"/>
-      <c r="C15" s="71"/>
-      <c r="D15" s="72"/>
-      <c r="E15" s="64"/>
-      <c r="F15" s="64"/>
-      <c r="G15" s="64"/>
-      <c r="H15" s="64"/>
-      <c r="I15" s="64"/>
-      <c r="J15" s="60"/>
-      <c r="K15" s="60"/>
-      <c r="L15" s="60"/>
-      <c r="M15" s="60"/>
-      <c r="N15" s="60"/>
+      <c r="A15" s="66"/>
+      <c r="B15" s="58"/>
+      <c r="C15" s="67"/>
+      <c r="D15" s="68"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="57"/>
+      <c r="G15" s="57"/>
+      <c r="H15" s="57"/>
+      <c r="I15" s="57"/>
+      <c r="J15" s="57"/>
+      <c r="K15" s="57"/>
+      <c r="L15" s="57"/>
+      <c r="M15" s="57"/>
+      <c r="N15" s="57"/>
       <c r="O15" s="1"/>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="73"/>
-      <c r="B16" s="74"/>
-      <c r="C16" s="75"/>
-      <c r="D16" s="76" t="n">
+      <c r="A16" s="69"/>
+      <c r="B16" s="70"/>
+      <c r="C16" s="71"/>
+      <c r="D16" s="72" t="n">
         <f aca="false">SUM(D7:D15)</f>
         <v>0</v>
       </c>
-      <c r="E16" s="76" t="n">
+      <c r="E16" s="72" t="n">
         <f aca="false">SUM(E7:E15)</f>
         <v>0</v>
       </c>
-      <c r="F16" s="76" t="n">
+      <c r="F16" s="72" t="n">
         <f aca="false">SUM(F7:F15)</f>
         <v>0</v>
       </c>
-      <c r="G16" s="76" t="n">
+      <c r="G16" s="72" t="n">
         <f aca="false">SUM(G7:G15)</f>
         <v>0</v>
       </c>
-      <c r="H16" s="76" t="n">
+      <c r="H16" s="72" t="n">
         <f aca="false">SUM(H7:H15)</f>
         <v>0</v>
       </c>
-      <c r="I16" s="76" t="n">
+      <c r="I16" s="72" t="n">
         <f aca="false">SUM(I7:I15)</f>
         <v>0</v>
       </c>
-      <c r="J16" s="76" t="n">
+      <c r="J16" s="72" t="n">
         <f aca="false">SUM(J7:J15)</f>
         <v>0</v>
       </c>
-      <c r="K16" s="76" t="n">
+      <c r="K16" s="72" t="n">
         <f aca="false">SUM(K7:K15)</f>
         <v>0</v>
       </c>
-      <c r="L16" s="76" t="n">
+      <c r="L16" s="72" t="n">
         <f aca="false">SUM(L7:L15)</f>
         <v>0</v>
       </c>
-      <c r="M16" s="76" t="n">
+      <c r="M16" s="72" t="n">
         <f aca="false">SUM(M7:M15)</f>
         <v>0</v>
       </c>
-      <c r="N16" s="76" t="n">
+      <c r="N16" s="72" t="n">
         <f aca="false">SUM(N7:N15)</f>
         <v>0</v>
       </c>
-      <c r="O16" s="77" t="s">
-        <v>42</v>
-      </c>
-      <c r="P16" s="39"/>
-      <c r="Q16" s="39"/>
-      <c r="R16" s="39"/>
-      <c r="S16" s="39"/>
-      <c r="T16" s="39"/>
-      <c r="U16" s="39"/>
-      <c r="V16" s="39"/>
-      <c r="W16" s="39"/>
-      <c r="X16" s="39"/>
-      <c r="Y16" s="39"/>
-      <c r="Z16" s="39"/>
-      <c r="AA16" s="39"/>
-      <c r="AB16" s="39"/>
-      <c r="AC16" s="39"/>
-      <c r="AD16" s="39"/>
-      <c r="AE16" s="39"/>
-      <c r="AF16" s="39"/>
-      <c r="AG16" s="39"/>
-      <c r="AH16" s="39"/>
-      <c r="AI16" s="39"/>
-      <c r="AJ16" s="39"/>
-      <c r="AK16" s="39"/>
-      <c r="AL16" s="39"/>
-      <c r="AM16" s="39"/>
-      <c r="AN16" s="39"/>
-      <c r="AO16" s="39"/>
-      <c r="AP16" s="39"/>
-      <c r="AQ16" s="39"/>
-      <c r="AR16" s="39"/>
-      <c r="AS16" s="39"/>
-      <c r="AT16" s="39"/>
-      <c r="AU16" s="39"/>
-      <c r="AV16" s="39"/>
-      <c r="AW16" s="39"/>
-      <c r="AX16" s="39"/>
-      <c r="AY16" s="39"/>
-      <c r="AZ16" s="39"/>
-      <c r="BA16" s="39"/>
-      <c r="BB16" s="39"/>
-      <c r="BC16" s="39"/>
-      <c r="BD16" s="39"/>
-      <c r="BE16" s="39"/>
-      <c r="BF16" s="39"/>
-      <c r="BG16" s="39"/>
-      <c r="BH16" s="39"/>
-      <c r="BI16" s="39"/>
-      <c r="BJ16" s="39"/>
-      <c r="BK16" s="39"/>
-      <c r="BL16" s="39"/>
-      <c r="BM16" s="39"/>
-      <c r="BN16" s="39"/>
-      <c r="BO16" s="39"/>
-      <c r="BP16" s="39"/>
-      <c r="BQ16" s="39"/>
-      <c r="BR16" s="39"/>
-      <c r="BS16" s="39"/>
-      <c r="BT16" s="39"/>
-      <c r="BU16" s="39"/>
-      <c r="BV16" s="39"/>
-      <c r="BW16" s="39"/>
-      <c r="BX16" s="39"/>
-      <c r="BY16" s="39"/>
-      <c r="BZ16" s="39"/>
-      <c r="CA16" s="39"/>
-      <c r="CB16" s="39"/>
-      <c r="CC16" s="39"/>
-      <c r="CD16" s="39"/>
-      <c r="CE16" s="39"/>
-      <c r="CF16" s="39"/>
-      <c r="CG16" s="39"/>
-      <c r="CH16" s="39"/>
-      <c r="CI16" s="39"/>
-      <c r="CJ16" s="39"/>
-      <c r="CK16" s="39"/>
-      <c r="CL16" s="39"/>
-      <c r="CM16" s="39"/>
-      <c r="CN16" s="39"/>
+      <c r="O16" s="73" t="s">
+        <v>71</v>
+      </c>
+      <c r="P16" s="37"/>
+      <c r="Q16" s="37"/>
+      <c r="R16" s="37"/>
+      <c r="S16" s="37"/>
+      <c r="T16" s="37"/>
+      <c r="U16" s="37"/>
+      <c r="V16" s="37"/>
+      <c r="W16" s="37"/>
+      <c r="X16" s="37"/>
+      <c r="Y16" s="37"/>
+      <c r="Z16" s="37"/>
+      <c r="AA16" s="37"/>
+      <c r="AB16" s="37"/>
+      <c r="AC16" s="37"/>
+      <c r="AD16" s="37"/>
+      <c r="AE16" s="37"/>
+      <c r="AF16" s="37"/>
+      <c r="AG16" s="37"/>
+      <c r="AH16" s="37"/>
+      <c r="AI16" s="37"/>
+      <c r="AJ16" s="37"/>
+      <c r="AK16" s="37"/>
+      <c r="AL16" s="37"/>
+      <c r="AM16" s="37"/>
+      <c r="AN16" s="37"/>
+      <c r="AO16" s="37"/>
+      <c r="AP16" s="37"/>
+      <c r="AQ16" s="37"/>
+      <c r="AR16" s="37"/>
+      <c r="AS16" s="37"/>
+      <c r="AT16" s="37"/>
+      <c r="AU16" s="37"/>
+      <c r="AV16" s="37"/>
+      <c r="AW16" s="37"/>
+      <c r="AX16" s="37"/>
+      <c r="AY16" s="37"/>
+      <c r="AZ16" s="37"/>
+      <c r="BA16" s="37"/>
+      <c r="BB16" s="37"/>
+      <c r="BC16" s="37"/>
+      <c r="BD16" s="37"/>
+      <c r="BE16" s="37"/>
+      <c r="BF16" s="37"/>
+      <c r="BG16" s="37"/>
+      <c r="BH16" s="37"/>
+      <c r="BI16" s="37"/>
+      <c r="BJ16" s="37"/>
+      <c r="BK16" s="37"/>
+      <c r="BL16" s="37"/>
+      <c r="BM16" s="37"/>
+      <c r="BN16" s="37"/>
+      <c r="BO16" s="37"/>
+      <c r="BP16" s="37"/>
+      <c r="BQ16" s="37"/>
+      <c r="BR16" s="37"/>
+      <c r="BS16" s="37"/>
+      <c r="BT16" s="37"/>
+      <c r="BU16" s="37"/>
+      <c r="BV16" s="37"/>
+      <c r="BW16" s="37"/>
+      <c r="BX16" s="37"/>
+      <c r="BY16" s="37"/>
+      <c r="BZ16" s="37"/>
+      <c r="CA16" s="37"/>
+      <c r="CB16" s="37"/>
+      <c r="CC16" s="37"/>
+      <c r="CD16" s="37"/>
+      <c r="CE16" s="37"/>
+      <c r="CF16" s="37"/>
+      <c r="CG16" s="37"/>
+      <c r="CH16" s="37"/>
+      <c r="CI16" s="37"/>
+      <c r="CJ16" s="37"/>
+      <c r="CK16" s="37"/>
+      <c r="CL16" s="37"/>
+      <c r="CM16" s="37"/>
+      <c r="CN16" s="37"/>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="73"/>
-      <c r="B17" s="74"/>
-      <c r="C17" s="78"/>
-      <c r="D17" s="79" t="s">
-        <v>43</v>
-      </c>
-      <c r="E17" s="80" t="n">
+      <c r="A17" s="69"/>
+      <c r="B17" s="70"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="74" t="s">
+        <v>72</v>
+      </c>
+      <c r="E17" s="75" t="n">
         <f aca="false">'system sheet'!C10</f>
         <v>8</v>
       </c>
-      <c r="F17" s="81" t="n">
+      <c r="F17" s="76" t="n">
         <f aca="false">'system sheet'!D10</f>
         <v>7.11111111111111</v>
       </c>
-      <c r="G17" s="81" t="n">
+      <c r="G17" s="76" t="n">
         <f aca="false">'system sheet'!E10</f>
         <v>6.22222222222222</v>
       </c>
-      <c r="H17" s="81" t="n">
+      <c r="H17" s="76" t="n">
         <f aca="false">'system sheet'!F10</f>
         <v>5.33333333333333</v>
       </c>
-      <c r="I17" s="81" t="n">
+      <c r="I17" s="76" t="n">
         <f aca="false">'system sheet'!G10</f>
         <v>4.44444444444444</v>
       </c>
-      <c r="J17" s="81" t="n">
+      <c r="J17" s="76" t="n">
         <f aca="false">'system sheet'!H10</f>
         <v>3.55555555555556</v>
       </c>
-      <c r="K17" s="81" t="n">
+      <c r="K17" s="76" t="n">
         <f aca="false">'system sheet'!I10</f>
         <v>2.66666666666667</v>
       </c>
-      <c r="L17" s="81" t="n">
+      <c r="L17" s="76" t="n">
         <f aca="false">'system sheet'!J10</f>
         <v>1.77777777777778</v>
       </c>
-      <c r="M17" s="81" t="n">
+      <c r="M17" s="76" t="n">
         <f aca="false">'system sheet'!K10</f>
         <v>0.888888888888889</v>
       </c>
-      <c r="N17" s="81" t="n">
+      <c r="N17" s="76" t="n">
         <f aca="false">'system sheet'!L10</f>
         <v>0</v>
       </c>
-      <c r="O17" s="82" t="n">
+      <c r="O17" s="77" t="n">
         <v>0</v>
       </c>
-      <c r="P17" s="39"/>
-      <c r="Q17" s="39"/>
-      <c r="R17" s="39"/>
-      <c r="S17" s="39"/>
-      <c r="T17" s="39"/>
-      <c r="U17" s="39"/>
-      <c r="V17" s="39"/>
-      <c r="W17" s="39"/>
-      <c r="X17" s="39"/>
-      <c r="Y17" s="39"/>
-      <c r="Z17" s="39"/>
-      <c r="AA17" s="39"/>
-      <c r="AB17" s="39"/>
-      <c r="AC17" s="39"/>
-      <c r="AD17" s="39"/>
-      <c r="AE17" s="39"/>
-      <c r="AF17" s="39"/>
-      <c r="AG17" s="39"/>
-      <c r="AH17" s="39"/>
-      <c r="AI17" s="39"/>
-      <c r="AJ17" s="39"/>
-      <c r="AK17" s="39"/>
-      <c r="AL17" s="39"/>
-      <c r="AM17" s="39"/>
-      <c r="AN17" s="39"/>
-      <c r="AO17" s="39"/>
-      <c r="AP17" s="39"/>
-      <c r="AQ17" s="39"/>
-      <c r="AR17" s="39"/>
-      <c r="AS17" s="39"/>
-      <c r="AT17" s="39"/>
-      <c r="AU17" s="39"/>
-      <c r="AV17" s="39"/>
-      <c r="AW17" s="39"/>
-      <c r="AX17" s="39"/>
-      <c r="AY17" s="39"/>
-      <c r="AZ17" s="39"/>
-      <c r="BA17" s="39"/>
-      <c r="BB17" s="39"/>
-      <c r="BC17" s="39"/>
-      <c r="BD17" s="39"/>
-      <c r="BE17" s="39"/>
-      <c r="BF17" s="39"/>
-      <c r="BG17" s="39"/>
-      <c r="BH17" s="39"/>
-      <c r="BI17" s="39"/>
-      <c r="BJ17" s="39"/>
-      <c r="BK17" s="39"/>
-      <c r="BL17" s="39"/>
-      <c r="BM17" s="39"/>
-      <c r="BN17" s="39"/>
-      <c r="BO17" s="39"/>
-      <c r="BP17" s="39"/>
-      <c r="BQ17" s="39"/>
-      <c r="BR17" s="39"/>
-      <c r="BS17" s="39"/>
-      <c r="BT17" s="39"/>
-      <c r="BU17" s="39"/>
-      <c r="BV17" s="39"/>
-      <c r="BW17" s="39"/>
-      <c r="BX17" s="39"/>
-      <c r="BY17" s="39"/>
-      <c r="BZ17" s="39"/>
-      <c r="CA17" s="39"/>
-      <c r="CB17" s="39"/>
-      <c r="CC17" s="39"/>
-      <c r="CD17" s="39"/>
-      <c r="CE17" s="39"/>
-      <c r="CF17" s="39"/>
-      <c r="CG17" s="39"/>
-      <c r="CH17" s="39"/>
-      <c r="CI17" s="39"/>
-      <c r="CJ17" s="39"/>
-      <c r="CK17" s="39"/>
-      <c r="CL17" s="39"/>
-      <c r="CM17" s="39"/>
-      <c r="CN17" s="39"/>
+      <c r="P17" s="37"/>
+      <c r="Q17" s="37"/>
+      <c r="R17" s="37"/>
+      <c r="S17" s="37"/>
+      <c r="T17" s="37"/>
+      <c r="U17" s="37"/>
+      <c r="V17" s="37"/>
+      <c r="W17" s="37"/>
+      <c r="X17" s="37"/>
+      <c r="Y17" s="37"/>
+      <c r="Z17" s="37"/>
+      <c r="AA17" s="37"/>
+      <c r="AB17" s="37"/>
+      <c r="AC17" s="37"/>
+      <c r="AD17" s="37"/>
+      <c r="AE17" s="37"/>
+      <c r="AF17" s="37"/>
+      <c r="AG17" s="37"/>
+      <c r="AH17" s="37"/>
+      <c r="AI17" s="37"/>
+      <c r="AJ17" s="37"/>
+      <c r="AK17" s="37"/>
+      <c r="AL17" s="37"/>
+      <c r="AM17" s="37"/>
+      <c r="AN17" s="37"/>
+      <c r="AO17" s="37"/>
+      <c r="AP17" s="37"/>
+      <c r="AQ17" s="37"/>
+      <c r="AR17" s="37"/>
+      <c r="AS17" s="37"/>
+      <c r="AT17" s="37"/>
+      <c r="AU17" s="37"/>
+      <c r="AV17" s="37"/>
+      <c r="AW17" s="37"/>
+      <c r="AX17" s="37"/>
+      <c r="AY17" s="37"/>
+      <c r="AZ17" s="37"/>
+      <c r="BA17" s="37"/>
+      <c r="BB17" s="37"/>
+      <c r="BC17" s="37"/>
+      <c r="BD17" s="37"/>
+      <c r="BE17" s="37"/>
+      <c r="BF17" s="37"/>
+      <c r="BG17" s="37"/>
+      <c r="BH17" s="37"/>
+      <c r="BI17" s="37"/>
+      <c r="BJ17" s="37"/>
+      <c r="BK17" s="37"/>
+      <c r="BL17" s="37"/>
+      <c r="BM17" s="37"/>
+      <c r="BN17" s="37"/>
+      <c r="BO17" s="37"/>
+      <c r="BP17" s="37"/>
+      <c r="BQ17" s="37"/>
+      <c r="BR17" s="37"/>
+      <c r="BS17" s="37"/>
+      <c r="BT17" s="37"/>
+      <c r="BU17" s="37"/>
+      <c r="BV17" s="37"/>
+      <c r="BW17" s="37"/>
+      <c r="BX17" s="37"/>
+      <c r="BY17" s="37"/>
+      <c r="BZ17" s="37"/>
+      <c r="CA17" s="37"/>
+      <c r="CB17" s="37"/>
+      <c r="CC17" s="37"/>
+      <c r="CD17" s="37"/>
+      <c r="CE17" s="37"/>
+      <c r="CF17" s="37"/>
+      <c r="CG17" s="37"/>
+      <c r="CH17" s="37"/>
+      <c r="CI17" s="37"/>
+      <c r="CJ17" s="37"/>
+      <c r="CK17" s="37"/>
+      <c r="CL17" s="37"/>
+      <c r="CM17" s="37"/>
+      <c r="CN17" s="37"/>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="73"/>
-      <c r="B18" s="74"/>
-      <c r="C18" s="78"/>
-      <c r="D18" s="83"/>
-      <c r="E18" s="84"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="39"/>
-      <c r="J18" s="39"/>
-      <c r="K18" s="39"/>
-      <c r="L18" s="39"/>
-      <c r="M18" s="39"/>
-      <c r="N18" s="39"/>
-      <c r="O18" s="38"/>
-      <c r="P18" s="39"/>
-      <c r="Q18" s="39"/>
-      <c r="R18" s="39"/>
-      <c r="S18" s="39"/>
-      <c r="T18" s="39"/>
-      <c r="U18" s="39"/>
-      <c r="V18" s="39"/>
-      <c r="W18" s="39"/>
-      <c r="X18" s="39"/>
-      <c r="Y18" s="39"/>
-      <c r="Z18" s="39"/>
-      <c r="AA18" s="39"/>
-      <c r="AB18" s="39"/>
-      <c r="AC18" s="39"/>
-      <c r="AD18" s="39"/>
-      <c r="AE18" s="39"/>
-      <c r="AF18" s="39"/>
-      <c r="AG18" s="39"/>
-      <c r="AH18" s="39"/>
-      <c r="AI18" s="39"/>
-      <c r="AJ18" s="39"/>
-      <c r="AK18" s="39"/>
-      <c r="AL18" s="39"/>
-      <c r="AM18" s="39"/>
-      <c r="AN18" s="39"/>
-      <c r="AO18" s="39"/>
-      <c r="AP18" s="39"/>
-      <c r="AQ18" s="39"/>
-      <c r="AR18" s="39"/>
-      <c r="AS18" s="39"/>
-      <c r="AT18" s="39"/>
-      <c r="AU18" s="39"/>
-      <c r="AV18" s="39"/>
-      <c r="AW18" s="39"/>
-      <c r="AX18" s="39"/>
-      <c r="AY18" s="39"/>
-      <c r="AZ18" s="39"/>
-      <c r="BA18" s="39"/>
-      <c r="BB18" s="39"/>
-      <c r="BC18" s="39"/>
-      <c r="BD18" s="39"/>
-      <c r="BE18" s="39"/>
-      <c r="BF18" s="39"/>
-      <c r="BG18" s="39"/>
-      <c r="BH18" s="39"/>
-      <c r="BI18" s="39"/>
-      <c r="BJ18" s="39"/>
-      <c r="BK18" s="39"/>
-      <c r="BL18" s="39"/>
-      <c r="BM18" s="39"/>
-      <c r="BN18" s="39"/>
-      <c r="BO18" s="39"/>
-      <c r="BP18" s="39"/>
-      <c r="BQ18" s="39"/>
-      <c r="BR18" s="39"/>
-      <c r="BS18" s="39"/>
-      <c r="BT18" s="39"/>
-      <c r="BU18" s="39"/>
-      <c r="BV18" s="39"/>
-      <c r="BW18" s="39"/>
-      <c r="BX18" s="39"/>
-      <c r="BY18" s="39"/>
-      <c r="BZ18" s="39"/>
-      <c r="CA18" s="39"/>
-      <c r="CB18" s="39"/>
-      <c r="CC18" s="39"/>
-      <c r="CD18" s="39"/>
-      <c r="CE18" s="39"/>
-      <c r="CF18" s="39"/>
-      <c r="CG18" s="39"/>
-      <c r="CH18" s="39"/>
-      <c r="CI18" s="39"/>
-      <c r="CJ18" s="39"/>
-      <c r="CK18" s="39"/>
-      <c r="CL18" s="39"/>
-      <c r="CM18" s="39"/>
-      <c r="CN18" s="39"/>
+      <c r="A18" s="69"/>
+      <c r="B18" s="70"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="78"/>
+      <c r="E18" s="79"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="37"/>
+      <c r="K18" s="37"/>
+      <c r="L18" s="37"/>
+      <c r="M18" s="37"/>
+      <c r="N18" s="37"/>
+      <c r="O18" s="36"/>
+      <c r="P18" s="37"/>
+      <c r="Q18" s="37"/>
+      <c r="R18" s="37"/>
+      <c r="S18" s="37"/>
+      <c r="T18" s="37"/>
+      <c r="U18" s="37"/>
+      <c r="V18" s="37"/>
+      <c r="W18" s="37"/>
+      <c r="X18" s="37"/>
+      <c r="Y18" s="37"/>
+      <c r="Z18" s="37"/>
+      <c r="AA18" s="37"/>
+      <c r="AB18" s="37"/>
+      <c r="AC18" s="37"/>
+      <c r="AD18" s="37"/>
+      <c r="AE18" s="37"/>
+      <c r="AF18" s="37"/>
+      <c r="AG18" s="37"/>
+      <c r="AH18" s="37"/>
+      <c r="AI18" s="37"/>
+      <c r="AJ18" s="37"/>
+      <c r="AK18" s="37"/>
+      <c r="AL18" s="37"/>
+      <c r="AM18" s="37"/>
+      <c r="AN18" s="37"/>
+      <c r="AO18" s="37"/>
+      <c r="AP18" s="37"/>
+      <c r="AQ18" s="37"/>
+      <c r="AR18" s="37"/>
+      <c r="AS18" s="37"/>
+      <c r="AT18" s="37"/>
+      <c r="AU18" s="37"/>
+      <c r="AV18" s="37"/>
+      <c r="AW18" s="37"/>
+      <c r="AX18" s="37"/>
+      <c r="AY18" s="37"/>
+      <c r="AZ18" s="37"/>
+      <c r="BA18" s="37"/>
+      <c r="BB18" s="37"/>
+      <c r="BC18" s="37"/>
+      <c r="BD18" s="37"/>
+      <c r="BE18" s="37"/>
+      <c r="BF18" s="37"/>
+      <c r="BG18" s="37"/>
+      <c r="BH18" s="37"/>
+      <c r="BI18" s="37"/>
+      <c r="BJ18" s="37"/>
+      <c r="BK18" s="37"/>
+      <c r="BL18" s="37"/>
+      <c r="BM18" s="37"/>
+      <c r="BN18" s="37"/>
+      <c r="BO18" s="37"/>
+      <c r="BP18" s="37"/>
+      <c r="BQ18" s="37"/>
+      <c r="BR18" s="37"/>
+      <c r="BS18" s="37"/>
+      <c r="BT18" s="37"/>
+      <c r="BU18" s="37"/>
+      <c r="BV18" s="37"/>
+      <c r="BW18" s="37"/>
+      <c r="BX18" s="37"/>
+      <c r="BY18" s="37"/>
+      <c r="BZ18" s="37"/>
+      <c r="CA18" s="37"/>
+      <c r="CB18" s="37"/>
+      <c r="CC18" s="37"/>
+      <c r="CD18" s="37"/>
+      <c r="CE18" s="37"/>
+      <c r="CF18" s="37"/>
+      <c r="CG18" s="37"/>
+      <c r="CH18" s="37"/>
+      <c r="CI18" s="37"/>
+      <c r="CJ18" s="37"/>
+      <c r="CK18" s="37"/>
+      <c r="CL18" s="37"/>
+      <c r="CM18" s="37"/>
+      <c r="CN18" s="37"/>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="85"/>
-      <c r="B19" s="86"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="87"/>
-      <c r="E19" s="88"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="38"/>
-      <c r="I19" s="38"/>
-      <c r="J19" s="38"/>
-      <c r="K19" s="38"/>
-      <c r="L19" s="38"/>
-      <c r="M19" s="38"/>
-      <c r="N19" s="38"/>
-      <c r="O19" s="38"/>
-      <c r="P19" s="39"/>
-      <c r="Q19" s="39"/>
-      <c r="R19" s="39"/>
-      <c r="S19" s="39"/>
-      <c r="T19" s="39"/>
-      <c r="U19" s="39"/>
-      <c r="V19" s="39"/>
-      <c r="W19" s="39"/>
-      <c r="X19" s="39"/>
-      <c r="Y19" s="39"/>
-      <c r="Z19" s="39"/>
-      <c r="AA19" s="39"/>
-      <c r="AB19" s="39"/>
-      <c r="AC19" s="39"/>
-      <c r="AD19" s="39"/>
-      <c r="AE19" s="39"/>
-      <c r="AF19" s="39"/>
-      <c r="AG19" s="39"/>
-      <c r="AH19" s="39"/>
-      <c r="AI19" s="39"/>
-      <c r="AJ19" s="39"/>
-      <c r="AK19" s="39"/>
-      <c r="AL19" s="39"/>
-      <c r="AM19" s="39"/>
-      <c r="AN19" s="39"/>
-      <c r="AO19" s="39"/>
-      <c r="AP19" s="39"/>
-      <c r="AQ19" s="39"/>
-      <c r="AR19" s="39"/>
-      <c r="AS19" s="39"/>
-      <c r="AT19" s="39"/>
-      <c r="AU19" s="39"/>
-      <c r="AV19" s="39"/>
-      <c r="AW19" s="39"/>
-      <c r="AX19" s="39"/>
-      <c r="AY19" s="39"/>
-      <c r="AZ19" s="39"/>
-      <c r="BA19" s="39"/>
-      <c r="BB19" s="39"/>
-      <c r="BC19" s="39"/>
-      <c r="BD19" s="39"/>
-      <c r="BE19" s="39"/>
-      <c r="BF19" s="39"/>
-      <c r="BG19" s="39"/>
-      <c r="BH19" s="39"/>
-      <c r="BI19" s="39"/>
-      <c r="BJ19" s="39"/>
-      <c r="BK19" s="39"/>
-      <c r="BL19" s="39"/>
-      <c r="BM19" s="39"/>
-      <c r="BN19" s="39"/>
-      <c r="BO19" s="39"/>
-      <c r="BP19" s="39"/>
-      <c r="BQ19" s="39"/>
-      <c r="BR19" s="39"/>
-      <c r="BS19" s="39"/>
-      <c r="BT19" s="39"/>
-      <c r="BU19" s="39"/>
-      <c r="BV19" s="39"/>
-      <c r="BW19" s="39"/>
-      <c r="BX19" s="39"/>
-      <c r="BY19" s="39"/>
-      <c r="BZ19" s="39"/>
-      <c r="CA19" s="39"/>
-      <c r="CB19" s="39"/>
-      <c r="CC19" s="39"/>
-      <c r="CD19" s="39"/>
-      <c r="CE19" s="39"/>
-      <c r="CF19" s="39"/>
-      <c r="CG19" s="39"/>
-      <c r="CH19" s="39"/>
-      <c r="CI19" s="39"/>
-      <c r="CJ19" s="39"/>
-      <c r="CK19" s="39"/>
-      <c r="CL19" s="39"/>
-      <c r="CM19" s="39"/>
-      <c r="CN19" s="39"/>
+      <c r="A19" s="80"/>
+      <c r="B19" s="81"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="82"/>
+      <c r="E19" s="83"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="36"/>
+      <c r="L19" s="36"/>
+      <c r="M19" s="36"/>
+      <c r="N19" s="36"/>
+      <c r="O19" s="36"/>
+      <c r="P19" s="37"/>
+      <c r="Q19" s="37"/>
+      <c r="R19" s="37"/>
+      <c r="S19" s="37"/>
+      <c r="T19" s="37"/>
+      <c r="U19" s="37"/>
+      <c r="V19" s="37"/>
+      <c r="W19" s="37"/>
+      <c r="X19" s="37"/>
+      <c r="Y19" s="37"/>
+      <c r="Z19" s="37"/>
+      <c r="AA19" s="37"/>
+      <c r="AB19" s="37"/>
+      <c r="AC19" s="37"/>
+      <c r="AD19" s="37"/>
+      <c r="AE19" s="37"/>
+      <c r="AF19" s="37"/>
+      <c r="AG19" s="37"/>
+      <c r="AH19" s="37"/>
+      <c r="AI19" s="37"/>
+      <c r="AJ19" s="37"/>
+      <c r="AK19" s="37"/>
+      <c r="AL19" s="37"/>
+      <c r="AM19" s="37"/>
+      <c r="AN19" s="37"/>
+      <c r="AO19" s="37"/>
+      <c r="AP19" s="37"/>
+      <c r="AQ19" s="37"/>
+      <c r="AR19" s="37"/>
+      <c r="AS19" s="37"/>
+      <c r="AT19" s="37"/>
+      <c r="AU19" s="37"/>
+      <c r="AV19" s="37"/>
+      <c r="AW19" s="37"/>
+      <c r="AX19" s="37"/>
+      <c r="AY19" s="37"/>
+      <c r="AZ19" s="37"/>
+      <c r="BA19" s="37"/>
+      <c r="BB19" s="37"/>
+      <c r="BC19" s="37"/>
+      <c r="BD19" s="37"/>
+      <c r="BE19" s="37"/>
+      <c r="BF19" s="37"/>
+      <c r="BG19" s="37"/>
+      <c r="BH19" s="37"/>
+      <c r="BI19" s="37"/>
+      <c r="BJ19" s="37"/>
+      <c r="BK19" s="37"/>
+      <c r="BL19" s="37"/>
+      <c r="BM19" s="37"/>
+      <c r="BN19" s="37"/>
+      <c r="BO19" s="37"/>
+      <c r="BP19" s="37"/>
+      <c r="BQ19" s="37"/>
+      <c r="BR19" s="37"/>
+      <c r="BS19" s="37"/>
+      <c r="BT19" s="37"/>
+      <c r="BU19" s="37"/>
+      <c r="BV19" s="37"/>
+      <c r="BW19" s="37"/>
+      <c r="BX19" s="37"/>
+      <c r="BY19" s="37"/>
+      <c r="BZ19" s="37"/>
+      <c r="CA19" s="37"/>
+      <c r="CB19" s="37"/>
+      <c r="CC19" s="37"/>
+      <c r="CD19" s="37"/>
+      <c r="CE19" s="37"/>
+      <c r="CF19" s="37"/>
+      <c r="CG19" s="37"/>
+      <c r="CH19" s="37"/>
+      <c r="CI19" s="37"/>
+      <c r="CJ19" s="37"/>
+      <c r="CK19" s="37"/>
+      <c r="CL19" s="37"/>
+      <c r="CM19" s="37"/>
+      <c r="CN19" s="37"/>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="85"/>
-      <c r="B20" s="89"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="87"/>
-      <c r="E20" s="88"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="38"/>
-      <c r="I20" s="38"/>
-      <c r="J20" s="38"/>
-      <c r="K20" s="38"/>
-      <c r="L20" s="38"/>
-      <c r="M20" s="38"/>
-      <c r="N20" s="38"/>
-      <c r="O20" s="38"/>
-      <c r="P20" s="39"/>
-      <c r="Q20" s="39"/>
-      <c r="R20" s="39"/>
-      <c r="S20" s="39"/>
-      <c r="T20" s="39"/>
-      <c r="U20" s="39"/>
-      <c r="V20" s="39"/>
-      <c r="W20" s="39"/>
-      <c r="X20" s="39"/>
-      <c r="Y20" s="39"/>
-      <c r="Z20" s="39"/>
-      <c r="AA20" s="39"/>
-      <c r="AB20" s="39"/>
-      <c r="AC20" s="39"/>
-      <c r="AD20" s="39"/>
-      <c r="AE20" s="39"/>
-      <c r="AF20" s="39"/>
-      <c r="AG20" s="39"/>
-      <c r="AH20" s="39"/>
-      <c r="AI20" s="39"/>
-      <c r="AJ20" s="39"/>
-      <c r="AK20" s="39"/>
-      <c r="AL20" s="39"/>
-      <c r="AM20" s="39"/>
-      <c r="AN20" s="39"/>
-      <c r="AO20" s="39"/>
-      <c r="AP20" s="39"/>
-      <c r="AQ20" s="39"/>
-      <c r="AR20" s="39"/>
-      <c r="AS20" s="39"/>
-      <c r="AT20" s="39"/>
-      <c r="AU20" s="39"/>
-      <c r="AV20" s="39"/>
-      <c r="AW20" s="39"/>
-      <c r="AX20" s="39"/>
-      <c r="AY20" s="39"/>
-      <c r="AZ20" s="39"/>
-      <c r="BA20" s="39"/>
-      <c r="BB20" s="39"/>
-      <c r="BC20" s="39"/>
-      <c r="BD20" s="39"/>
-      <c r="BE20" s="39"/>
-      <c r="BF20" s="39"/>
-      <c r="BG20" s="39"/>
-      <c r="BH20" s="39"/>
-      <c r="BI20" s="39"/>
-      <c r="BJ20" s="39"/>
-      <c r="BK20" s="39"/>
-      <c r="BL20" s="39"/>
-      <c r="BM20" s="39"/>
-      <c r="BN20" s="39"/>
-      <c r="BO20" s="39"/>
-      <c r="BP20" s="39"/>
-      <c r="BQ20" s="39"/>
-      <c r="BR20" s="39"/>
-      <c r="BS20" s="39"/>
-      <c r="BT20" s="39"/>
-      <c r="BU20" s="39"/>
-      <c r="BV20" s="39"/>
-      <c r="BW20" s="39"/>
-      <c r="BX20" s="39"/>
-      <c r="BY20" s="39"/>
-      <c r="BZ20" s="39"/>
-      <c r="CA20" s="39"/>
-      <c r="CB20" s="39"/>
-      <c r="CC20" s="39"/>
-      <c r="CD20" s="39"/>
-      <c r="CE20" s="39"/>
-      <c r="CF20" s="39"/>
-      <c r="CG20" s="39"/>
-      <c r="CH20" s="39"/>
-      <c r="CI20" s="39"/>
-      <c r="CJ20" s="39"/>
-      <c r="CK20" s="39"/>
-      <c r="CL20" s="39"/>
-      <c r="CM20" s="39"/>
-      <c r="CN20" s="39"/>
+      <c r="A20" s="80"/>
+      <c r="B20" s="84"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="82"/>
+      <c r="E20" s="83"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="36"/>
+      <c r="K20" s="36"/>
+      <c r="L20" s="36"/>
+      <c r="M20" s="36"/>
+      <c r="N20" s="36"/>
+      <c r="O20" s="36"/>
+      <c r="P20" s="37"/>
+      <c r="Q20" s="37"/>
+      <c r="R20" s="37"/>
+      <c r="S20" s="37"/>
+      <c r="T20" s="37"/>
+      <c r="U20" s="37"/>
+      <c r="V20" s="37"/>
+      <c r="W20" s="37"/>
+      <c r="X20" s="37"/>
+      <c r="Y20" s="37"/>
+      <c r="Z20" s="37"/>
+      <c r="AA20" s="37"/>
+      <c r="AB20" s="37"/>
+      <c r="AC20" s="37"/>
+      <c r="AD20" s="37"/>
+      <c r="AE20" s="37"/>
+      <c r="AF20" s="37"/>
+      <c r="AG20" s="37"/>
+      <c r="AH20" s="37"/>
+      <c r="AI20" s="37"/>
+      <c r="AJ20" s="37"/>
+      <c r="AK20" s="37"/>
+      <c r="AL20" s="37"/>
+      <c r="AM20" s="37"/>
+      <c r="AN20" s="37"/>
+      <c r="AO20" s="37"/>
+      <c r="AP20" s="37"/>
+      <c r="AQ20" s="37"/>
+      <c r="AR20" s="37"/>
+      <c r="AS20" s="37"/>
+      <c r="AT20" s="37"/>
+      <c r="AU20" s="37"/>
+      <c r="AV20" s="37"/>
+      <c r="AW20" s="37"/>
+      <c r="AX20" s="37"/>
+      <c r="AY20" s="37"/>
+      <c r="AZ20" s="37"/>
+      <c r="BA20" s="37"/>
+      <c r="BB20" s="37"/>
+      <c r="BC20" s="37"/>
+      <c r="BD20" s="37"/>
+      <c r="BE20" s="37"/>
+      <c r="BF20" s="37"/>
+      <c r="BG20" s="37"/>
+      <c r="BH20" s="37"/>
+      <c r="BI20" s="37"/>
+      <c r="BJ20" s="37"/>
+      <c r="BK20" s="37"/>
+      <c r="BL20" s="37"/>
+      <c r="BM20" s="37"/>
+      <c r="BN20" s="37"/>
+      <c r="BO20" s="37"/>
+      <c r="BP20" s="37"/>
+      <c r="BQ20" s="37"/>
+      <c r="BR20" s="37"/>
+      <c r="BS20" s="37"/>
+      <c r="BT20" s="37"/>
+      <c r="BU20" s="37"/>
+      <c r="BV20" s="37"/>
+      <c r="BW20" s="37"/>
+      <c r="BX20" s="37"/>
+      <c r="BY20" s="37"/>
+      <c r="BZ20" s="37"/>
+      <c r="CA20" s="37"/>
+      <c r="CB20" s="37"/>
+      <c r="CC20" s="37"/>
+      <c r="CD20" s="37"/>
+      <c r="CE20" s="37"/>
+      <c r="CF20" s="37"/>
+      <c r="CG20" s="37"/>
+      <c r="CH20" s="37"/>
+      <c r="CI20" s="37"/>
+      <c r="CJ20" s="37"/>
+      <c r="CK20" s="37"/>
+      <c r="CL20" s="37"/>
+      <c r="CM20" s="37"/>
+      <c r="CN20" s="37"/>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="85"/>
-      <c r="B21" s="89"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="87"/>
-      <c r="E21" s="88"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="38"/>
-      <c r="H21" s="38"/>
-      <c r="I21" s="38"/>
-      <c r="J21" s="38"/>
-      <c r="K21" s="38"/>
-      <c r="L21" s="38"/>
-      <c r="M21" s="38"/>
-      <c r="N21" s="38"/>
-      <c r="O21" s="38"/>
-      <c r="P21" s="39"/>
-      <c r="Q21" s="39"/>
-      <c r="R21" s="39"/>
-      <c r="S21" s="39"/>
-      <c r="T21" s="39"/>
-      <c r="U21" s="39"/>
-      <c r="V21" s="39"/>
-      <c r="W21" s="39"/>
-      <c r="X21" s="39"/>
-      <c r="Y21" s="39"/>
-      <c r="Z21" s="39"/>
-      <c r="AA21" s="39"/>
-      <c r="AB21" s="39"/>
-      <c r="AC21" s="39"/>
-      <c r="AD21" s="39"/>
-      <c r="AE21" s="39"/>
-      <c r="AF21" s="39"/>
-      <c r="AG21" s="39"/>
-      <c r="AH21" s="39"/>
-      <c r="AI21" s="39"/>
-      <c r="AJ21" s="39"/>
-      <c r="AK21" s="39"/>
-      <c r="AL21" s="39"/>
-      <c r="AM21" s="39"/>
-      <c r="AN21" s="39"/>
-      <c r="AO21" s="39"/>
-      <c r="AP21" s="39"/>
-      <c r="AQ21" s="39"/>
-      <c r="AR21" s="39"/>
-      <c r="AS21" s="39"/>
-      <c r="AT21" s="39"/>
-      <c r="AU21" s="39"/>
-      <c r="AV21" s="39"/>
-      <c r="AW21" s="39"/>
-      <c r="AX21" s="39"/>
-      <c r="AY21" s="39"/>
-      <c r="AZ21" s="39"/>
-      <c r="BA21" s="39"/>
-      <c r="BB21" s="39"/>
-      <c r="BC21" s="39"/>
-      <c r="BD21" s="39"/>
-      <c r="BE21" s="39"/>
-      <c r="BF21" s="39"/>
-      <c r="BG21" s="39"/>
-      <c r="BH21" s="39"/>
-      <c r="BI21" s="39"/>
-      <c r="BJ21" s="39"/>
-      <c r="BK21" s="39"/>
-      <c r="BL21" s="39"/>
-      <c r="BM21" s="39"/>
-      <c r="BN21" s="39"/>
-      <c r="BO21" s="39"/>
-      <c r="BP21" s="39"/>
-      <c r="BQ21" s="39"/>
-      <c r="BR21" s="39"/>
-      <c r="BS21" s="39"/>
-      <c r="BT21" s="39"/>
-      <c r="BU21" s="39"/>
-      <c r="BV21" s="39"/>
-      <c r="BW21" s="39"/>
-      <c r="BX21" s="39"/>
-      <c r="BY21" s="39"/>
-      <c r="BZ21" s="39"/>
-      <c r="CA21" s="39"/>
-      <c r="CB21" s="39"/>
-      <c r="CC21" s="39"/>
-      <c r="CD21" s="39"/>
-      <c r="CE21" s="39"/>
-      <c r="CF21" s="39"/>
-      <c r="CG21" s="39"/>
-      <c r="CH21" s="39"/>
-      <c r="CI21" s="39"/>
-      <c r="CJ21" s="39"/>
-      <c r="CK21" s="39"/>
-      <c r="CL21" s="39"/>
-      <c r="CM21" s="39"/>
-      <c r="CN21" s="39"/>
+      <c r="A21" s="80"/>
+      <c r="B21" s="84"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="82"/>
+      <c r="E21" s="83"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="36"/>
+      <c r="K21" s="36"/>
+      <c r="L21" s="36"/>
+      <c r="M21" s="36"/>
+      <c r="N21" s="36"/>
+      <c r="O21" s="36"/>
+      <c r="P21" s="37"/>
+      <c r="Q21" s="37"/>
+      <c r="R21" s="37"/>
+      <c r="S21" s="37"/>
+      <c r="T21" s="37"/>
+      <c r="U21" s="37"/>
+      <c r="V21" s="37"/>
+      <c r="W21" s="37"/>
+      <c r="X21" s="37"/>
+      <c r="Y21" s="37"/>
+      <c r="Z21" s="37"/>
+      <c r="AA21" s="37"/>
+      <c r="AB21" s="37"/>
+      <c r="AC21" s="37"/>
+      <c r="AD21" s="37"/>
+      <c r="AE21" s="37"/>
+      <c r="AF21" s="37"/>
+      <c r="AG21" s="37"/>
+      <c r="AH21" s="37"/>
+      <c r="AI21" s="37"/>
+      <c r="AJ21" s="37"/>
+      <c r="AK21" s="37"/>
+      <c r="AL21" s="37"/>
+      <c r="AM21" s="37"/>
+      <c r="AN21" s="37"/>
+      <c r="AO21" s="37"/>
+      <c r="AP21" s="37"/>
+      <c r="AQ21" s="37"/>
+      <c r="AR21" s="37"/>
+      <c r="AS21" s="37"/>
+      <c r="AT21" s="37"/>
+      <c r="AU21" s="37"/>
+      <c r="AV21" s="37"/>
+      <c r="AW21" s="37"/>
+      <c r="AX21" s="37"/>
+      <c r="AY21" s="37"/>
+      <c r="AZ21" s="37"/>
+      <c r="BA21" s="37"/>
+      <c r="BB21" s="37"/>
+      <c r="BC21" s="37"/>
+      <c r="BD21" s="37"/>
+      <c r="BE21" s="37"/>
+      <c r="BF21" s="37"/>
+      <c r="BG21" s="37"/>
+      <c r="BH21" s="37"/>
+      <c r="BI21" s="37"/>
+      <c r="BJ21" s="37"/>
+      <c r="BK21" s="37"/>
+      <c r="BL21" s="37"/>
+      <c r="BM21" s="37"/>
+      <c r="BN21" s="37"/>
+      <c r="BO21" s="37"/>
+      <c r="BP21" s="37"/>
+      <c r="BQ21" s="37"/>
+      <c r="BR21" s="37"/>
+      <c r="BS21" s="37"/>
+      <c r="BT21" s="37"/>
+      <c r="BU21" s="37"/>
+      <c r="BV21" s="37"/>
+      <c r="BW21" s="37"/>
+      <c r="BX21" s="37"/>
+      <c r="BY21" s="37"/>
+      <c r="BZ21" s="37"/>
+      <c r="CA21" s="37"/>
+      <c r="CB21" s="37"/>
+      <c r="CC21" s="37"/>
+      <c r="CD21" s="37"/>
+      <c r="CE21" s="37"/>
+      <c r="CF21" s="37"/>
+      <c r="CG21" s="37"/>
+      <c r="CH21" s="37"/>
+      <c r="CI21" s="37"/>
+      <c r="CJ21" s="37"/>
+      <c r="CK21" s="37"/>
+      <c r="CL21" s="37"/>
+      <c r="CM21" s="37"/>
+      <c r="CN21" s="37"/>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="85"/>
-      <c r="B22" s="89"/>
-      <c r="C22" s="38"/>
-      <c r="D22" s="87"/>
-      <c r="E22" s="88"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="38"/>
-      <c r="H22" s="38"/>
-      <c r="I22" s="38"/>
-      <c r="J22" s="38"/>
-      <c r="K22" s="38"/>
-      <c r="L22" s="38"/>
-      <c r="M22" s="38"/>
-      <c r="N22" s="38"/>
-      <c r="O22" s="38"/>
-      <c r="P22" s="39"/>
-      <c r="Q22" s="39"/>
-      <c r="R22" s="39"/>
-      <c r="S22" s="39"/>
-      <c r="T22" s="39"/>
-      <c r="U22" s="39"/>
-      <c r="V22" s="39"/>
-      <c r="W22" s="39"/>
-      <c r="X22" s="39"/>
-      <c r="Y22" s="39"/>
-      <c r="Z22" s="39"/>
-      <c r="AA22" s="39"/>
-      <c r="AB22" s="39"/>
-      <c r="AC22" s="39"/>
-      <c r="AD22" s="39"/>
-      <c r="AE22" s="39"/>
-      <c r="AF22" s="39"/>
-      <c r="AG22" s="39"/>
-      <c r="AH22" s="39"/>
-      <c r="AI22" s="39"/>
-      <c r="AJ22" s="39"/>
-      <c r="AK22" s="39"/>
-      <c r="AL22" s="39"/>
-      <c r="AM22" s="39"/>
-      <c r="AN22" s="39"/>
-      <c r="AO22" s="39"/>
-      <c r="AP22" s="39"/>
-      <c r="AQ22" s="39"/>
-      <c r="AR22" s="39"/>
-      <c r="AS22" s="39"/>
-      <c r="AT22" s="39"/>
-      <c r="AU22" s="39"/>
-      <c r="AV22" s="39"/>
-      <c r="AW22" s="39"/>
-      <c r="AX22" s="39"/>
-      <c r="AY22" s="39"/>
-      <c r="AZ22" s="39"/>
-      <c r="BA22" s="39"/>
-      <c r="BB22" s="39"/>
-      <c r="BC22" s="39"/>
-      <c r="BD22" s="39"/>
-      <c r="BE22" s="39"/>
-      <c r="BF22" s="39"/>
-      <c r="BG22" s="39"/>
-      <c r="BH22" s="39"/>
-      <c r="BI22" s="39"/>
-      <c r="BJ22" s="39"/>
-      <c r="BK22" s="39"/>
-      <c r="BL22" s="39"/>
-      <c r="BM22" s="39"/>
-      <c r="BN22" s="39"/>
-      <c r="BO22" s="39"/>
-      <c r="BP22" s="39"/>
-      <c r="BQ22" s="39"/>
-      <c r="BR22" s="39"/>
-      <c r="BS22" s="39"/>
-      <c r="BT22" s="39"/>
-      <c r="BU22" s="39"/>
-      <c r="BV22" s="39"/>
-      <c r="BW22" s="39"/>
-      <c r="BX22" s="39"/>
-      <c r="BY22" s="39"/>
-      <c r="BZ22" s="39"/>
-      <c r="CA22" s="39"/>
-      <c r="CB22" s="39"/>
-      <c r="CC22" s="39"/>
-      <c r="CD22" s="39"/>
-      <c r="CE22" s="39"/>
-      <c r="CF22" s="39"/>
-      <c r="CG22" s="39"/>
-      <c r="CH22" s="39"/>
-      <c r="CI22" s="39"/>
-      <c r="CJ22" s="39"/>
-      <c r="CK22" s="39"/>
-      <c r="CL22" s="39"/>
-      <c r="CM22" s="39"/>
-      <c r="CN22" s="39"/>
+      <c r="A22" s="80"/>
+      <c r="B22" s="84"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="82"/>
+      <c r="E22" s="83"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="36"/>
+      <c r="J22" s="36"/>
+      <c r="K22" s="36"/>
+      <c r="L22" s="36"/>
+      <c r="M22" s="36"/>
+      <c r="N22" s="36"/>
+      <c r="O22" s="36"/>
+      <c r="P22" s="37"/>
+      <c r="Q22" s="37"/>
+      <c r="R22" s="37"/>
+      <c r="S22" s="37"/>
+      <c r="T22" s="37"/>
+      <c r="U22" s="37"/>
+      <c r="V22" s="37"/>
+      <c r="W22" s="37"/>
+      <c r="X22" s="37"/>
+      <c r="Y22" s="37"/>
+      <c r="Z22" s="37"/>
+      <c r="AA22" s="37"/>
+      <c r="AB22" s="37"/>
+      <c r="AC22" s="37"/>
+      <c r="AD22" s="37"/>
+      <c r="AE22" s="37"/>
+      <c r="AF22" s="37"/>
+      <c r="AG22" s="37"/>
+      <c r="AH22" s="37"/>
+      <c r="AI22" s="37"/>
+      <c r="AJ22" s="37"/>
+      <c r="AK22" s="37"/>
+      <c r="AL22" s="37"/>
+      <c r="AM22" s="37"/>
+      <c r="AN22" s="37"/>
+      <c r="AO22" s="37"/>
+      <c r="AP22" s="37"/>
+      <c r="AQ22" s="37"/>
+      <c r="AR22" s="37"/>
+      <c r="AS22" s="37"/>
+      <c r="AT22" s="37"/>
+      <c r="AU22" s="37"/>
+      <c r="AV22" s="37"/>
+      <c r="AW22" s="37"/>
+      <c r="AX22" s="37"/>
+      <c r="AY22" s="37"/>
+      <c r="AZ22" s="37"/>
+      <c r="BA22" s="37"/>
+      <c r="BB22" s="37"/>
+      <c r="BC22" s="37"/>
+      <c r="BD22" s="37"/>
+      <c r="BE22" s="37"/>
+      <c r="BF22" s="37"/>
+      <c r="BG22" s="37"/>
+      <c r="BH22" s="37"/>
+      <c r="BI22" s="37"/>
+      <c r="BJ22" s="37"/>
+      <c r="BK22" s="37"/>
+      <c r="BL22" s="37"/>
+      <c r="BM22" s="37"/>
+      <c r="BN22" s="37"/>
+      <c r="BO22" s="37"/>
+      <c r="BP22" s="37"/>
+      <c r="BQ22" s="37"/>
+      <c r="BR22" s="37"/>
+      <c r="BS22" s="37"/>
+      <c r="BT22" s="37"/>
+      <c r="BU22" s="37"/>
+      <c r="BV22" s="37"/>
+      <c r="BW22" s="37"/>
+      <c r="BX22" s="37"/>
+      <c r="BY22" s="37"/>
+      <c r="BZ22" s="37"/>
+      <c r="CA22" s="37"/>
+      <c r="CB22" s="37"/>
+      <c r="CC22" s="37"/>
+      <c r="CD22" s="37"/>
+      <c r="CE22" s="37"/>
+      <c r="CF22" s="37"/>
+      <c r="CG22" s="37"/>
+      <c r="CH22" s="37"/>
+      <c r="CI22" s="37"/>
+      <c r="CJ22" s="37"/>
+      <c r="CK22" s="37"/>
+      <c r="CL22" s="37"/>
+      <c r="CM22" s="37"/>
+      <c r="CN22" s="37"/>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="85"/>
-      <c r="B23" s="89"/>
-      <c r="C23" s="38"/>
-      <c r="D23" s="87"/>
-      <c r="E23" s="88"/>
-      <c r="F23" s="38"/>
-      <c r="G23" s="38"/>
-      <c r="H23" s="38"/>
-      <c r="I23" s="38"/>
-      <c r="J23" s="38"/>
-      <c r="K23" s="38"/>
-      <c r="L23" s="38"/>
-      <c r="M23" s="38"/>
-      <c r="N23" s="38"/>
-      <c r="O23" s="38"/>
-      <c r="P23" s="39"/>
-      <c r="Q23" s="39"/>
-      <c r="R23" s="39"/>
-      <c r="S23" s="39"/>
-      <c r="T23" s="39"/>
-      <c r="U23" s="39"/>
-      <c r="V23" s="39"/>
-      <c r="W23" s="39"/>
-      <c r="X23" s="39"/>
-      <c r="Y23" s="39"/>
-      <c r="Z23" s="39"/>
-      <c r="AA23" s="39"/>
-      <c r="AB23" s="39"/>
-      <c r="AC23" s="39"/>
-      <c r="AD23" s="39"/>
-      <c r="AE23" s="39"/>
-      <c r="AF23" s="39"/>
-      <c r="AG23" s="39"/>
-      <c r="AH23" s="39"/>
-      <c r="AI23" s="39"/>
-      <c r="AJ23" s="39"/>
-      <c r="AK23" s="39"/>
-      <c r="AL23" s="39"/>
-      <c r="AM23" s="39"/>
-      <c r="AN23" s="39"/>
-      <c r="AO23" s="39"/>
-      <c r="AP23" s="39"/>
-      <c r="AQ23" s="39"/>
-      <c r="AR23" s="39"/>
-      <c r="AS23" s="39"/>
-      <c r="AT23" s="39"/>
-      <c r="AU23" s="39"/>
-      <c r="AV23" s="39"/>
-      <c r="AW23" s="39"/>
-      <c r="AX23" s="39"/>
-      <c r="AY23" s="39"/>
-      <c r="AZ23" s="39"/>
-      <c r="BA23" s="39"/>
-      <c r="BB23" s="39"/>
-      <c r="BC23" s="39"/>
-      <c r="BD23" s="39"/>
-      <c r="BE23" s="39"/>
-      <c r="BF23" s="39"/>
-      <c r="BG23" s="39"/>
-      <c r="BH23" s="39"/>
-      <c r="BI23" s="39"/>
-      <c r="BJ23" s="39"/>
-      <c r="BK23" s="39"/>
-      <c r="BL23" s="39"/>
-      <c r="BM23" s="39"/>
-      <c r="BN23" s="39"/>
-      <c r="BO23" s="39"/>
-      <c r="BP23" s="39"/>
-      <c r="BQ23" s="39"/>
-      <c r="BR23" s="39"/>
-      <c r="BS23" s="39"/>
-      <c r="BT23" s="39"/>
-      <c r="BU23" s="39"/>
-      <c r="BV23" s="39"/>
-      <c r="BW23" s="39"/>
-      <c r="BX23" s="39"/>
-      <c r="BY23" s="39"/>
-      <c r="BZ23" s="39"/>
-      <c r="CA23" s="39"/>
-      <c r="CB23" s="39"/>
-      <c r="CC23" s="39"/>
-      <c r="CD23" s="39"/>
-      <c r="CE23" s="39"/>
-      <c r="CF23" s="39"/>
-      <c r="CG23" s="39"/>
-      <c r="CH23" s="39"/>
-      <c r="CI23" s="39"/>
-      <c r="CJ23" s="39"/>
-      <c r="CK23" s="39"/>
-      <c r="CL23" s="39"/>
-      <c r="CM23" s="39"/>
-      <c r="CN23" s="39"/>
+      <c r="A23" s="80"/>
+      <c r="B23" s="84"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="82"/>
+      <c r="E23" s="83"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="36"/>
+      <c r="K23" s="36"/>
+      <c r="L23" s="36"/>
+      <c r="M23" s="36"/>
+      <c r="N23" s="36"/>
+      <c r="O23" s="36"/>
+      <c r="P23" s="37"/>
+      <c r="Q23" s="37"/>
+      <c r="R23" s="37"/>
+      <c r="S23" s="37"/>
+      <c r="T23" s="37"/>
+      <c r="U23" s="37"/>
+      <c r="V23" s="37"/>
+      <c r="W23" s="37"/>
+      <c r="X23" s="37"/>
+      <c r="Y23" s="37"/>
+      <c r="Z23" s="37"/>
+      <c r="AA23" s="37"/>
+      <c r="AB23" s="37"/>
+      <c r="AC23" s="37"/>
+      <c r="AD23" s="37"/>
+      <c r="AE23" s="37"/>
+      <c r="AF23" s="37"/>
+      <c r="AG23" s="37"/>
+      <c r="AH23" s="37"/>
+      <c r="AI23" s="37"/>
+      <c r="AJ23" s="37"/>
+      <c r="AK23" s="37"/>
+      <c r="AL23" s="37"/>
+      <c r="AM23" s="37"/>
+      <c r="AN23" s="37"/>
+      <c r="AO23" s="37"/>
+      <c r="AP23" s="37"/>
+      <c r="AQ23" s="37"/>
+      <c r="AR23" s="37"/>
+      <c r="AS23" s="37"/>
+      <c r="AT23" s="37"/>
+      <c r="AU23" s="37"/>
+      <c r="AV23" s="37"/>
+      <c r="AW23" s="37"/>
+      <c r="AX23" s="37"/>
+      <c r="AY23" s="37"/>
+      <c r="AZ23" s="37"/>
+      <c r="BA23" s="37"/>
+      <c r="BB23" s="37"/>
+      <c r="BC23" s="37"/>
+      <c r="BD23" s="37"/>
+      <c r="BE23" s="37"/>
+      <c r="BF23" s="37"/>
+      <c r="BG23" s="37"/>
+      <c r="BH23" s="37"/>
+      <c r="BI23" s="37"/>
+      <c r="BJ23" s="37"/>
+      <c r="BK23" s="37"/>
+      <c r="BL23" s="37"/>
+      <c r="BM23" s="37"/>
+      <c r="BN23" s="37"/>
+      <c r="BO23" s="37"/>
+      <c r="BP23" s="37"/>
+      <c r="BQ23" s="37"/>
+      <c r="BR23" s="37"/>
+      <c r="BS23" s="37"/>
+      <c r="BT23" s="37"/>
+      <c r="BU23" s="37"/>
+      <c r="BV23" s="37"/>
+      <c r="BW23" s="37"/>
+      <c r="BX23" s="37"/>
+      <c r="BY23" s="37"/>
+      <c r="BZ23" s="37"/>
+      <c r="CA23" s="37"/>
+      <c r="CB23" s="37"/>
+      <c r="CC23" s="37"/>
+      <c r="CD23" s="37"/>
+      <c r="CE23" s="37"/>
+      <c r="CF23" s="37"/>
+      <c r="CG23" s="37"/>
+      <c r="CH23" s="37"/>
+      <c r="CI23" s="37"/>
+      <c r="CJ23" s="37"/>
+      <c r="CK23" s="37"/>
+      <c r="CL23" s="37"/>
+      <c r="CM23" s="37"/>
+      <c r="CN23" s="37"/>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="85"/>
-      <c r="B24" s="89"/>
-      <c r="C24" s="38"/>
-      <c r="D24" s="87"/>
-      <c r="E24" s="88"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="38"/>
-      <c r="H24" s="38"/>
-      <c r="I24" s="38"/>
-      <c r="J24" s="38"/>
-      <c r="K24" s="38"/>
-      <c r="L24" s="38"/>
-      <c r="M24" s="38"/>
-      <c r="N24" s="38"/>
-      <c r="O24" s="38"/>
-      <c r="P24" s="39"/>
-      <c r="Q24" s="39"/>
-      <c r="R24" s="39"/>
-      <c r="S24" s="39"/>
-      <c r="T24" s="39"/>
-      <c r="U24" s="39"/>
-      <c r="V24" s="39"/>
-      <c r="W24" s="39"/>
-      <c r="X24" s="39"/>
-      <c r="Y24" s="39"/>
-      <c r="Z24" s="39"/>
-      <c r="AA24" s="39"/>
-      <c r="AB24" s="39"/>
-      <c r="AC24" s="39"/>
-      <c r="AD24" s="39"/>
-      <c r="AE24" s="39"/>
-      <c r="AF24" s="39"/>
-      <c r="AG24" s="39"/>
-      <c r="AH24" s="39"/>
-      <c r="AI24" s="39"/>
-      <c r="AJ24" s="39"/>
-      <c r="AK24" s="39"/>
-      <c r="AL24" s="39"/>
-      <c r="AM24" s="39"/>
-      <c r="AN24" s="39"/>
-      <c r="AO24" s="39"/>
-      <c r="AP24" s="39"/>
-      <c r="AQ24" s="39"/>
-      <c r="AR24" s="39"/>
-      <c r="AS24" s="39"/>
-      <c r="AT24" s="39"/>
-      <c r="AU24" s="39"/>
-      <c r="AV24" s="39"/>
-      <c r="AW24" s="39"/>
-      <c r="AX24" s="39"/>
-      <c r="AY24" s="39"/>
-      <c r="AZ24" s="39"/>
-      <c r="BA24" s="39"/>
-      <c r="BB24" s="39"/>
-      <c r="BC24" s="39"/>
-      <c r="BD24" s="39"/>
-      <c r="BE24" s="39"/>
-      <c r="BF24" s="39"/>
-      <c r="BG24" s="39"/>
-      <c r="BH24" s="39"/>
-      <c r="BI24" s="39"/>
-      <c r="BJ24" s="39"/>
-      <c r="BK24" s="39"/>
-      <c r="BL24" s="39"/>
-      <c r="BM24" s="39"/>
-      <c r="BN24" s="39"/>
-      <c r="BO24" s="39"/>
-      <c r="BP24" s="39"/>
-      <c r="BQ24" s="39"/>
-      <c r="BR24" s="39"/>
-      <c r="BS24" s="39"/>
-      <c r="BT24" s="39"/>
-      <c r="BU24" s="39"/>
-      <c r="BV24" s="39"/>
-      <c r="BW24" s="39"/>
-      <c r="BX24" s="39"/>
-      <c r="BY24" s="39"/>
-      <c r="BZ24" s="39"/>
-      <c r="CA24" s="39"/>
-      <c r="CB24" s="39"/>
-      <c r="CC24" s="39"/>
-      <c r="CD24" s="39"/>
-      <c r="CE24" s="39"/>
-      <c r="CF24" s="39"/>
-      <c r="CG24" s="39"/>
-      <c r="CH24" s="39"/>
-      <c r="CI24" s="39"/>
-      <c r="CJ24" s="39"/>
-      <c r="CK24" s="39"/>
-      <c r="CL24" s="39"/>
-      <c r="CM24" s="39"/>
-      <c r="CN24" s="39"/>
+      <c r="A24" s="80"/>
+      <c r="B24" s="84"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="82"/>
+      <c r="E24" s="83"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="36"/>
+      <c r="K24" s="36"/>
+      <c r="L24" s="36"/>
+      <c r="M24" s="36"/>
+      <c r="N24" s="36"/>
+      <c r="O24" s="36"/>
+      <c r="P24" s="37"/>
+      <c r="Q24" s="37"/>
+      <c r="R24" s="37"/>
+      <c r="S24" s="37"/>
+      <c r="T24" s="37"/>
+      <c r="U24" s="37"/>
+      <c r="V24" s="37"/>
+      <c r="W24" s="37"/>
+      <c r="X24" s="37"/>
+      <c r="Y24" s="37"/>
+      <c r="Z24" s="37"/>
+      <c r="AA24" s="37"/>
+      <c r="AB24" s="37"/>
+      <c r="AC24" s="37"/>
+      <c r="AD24" s="37"/>
+      <c r="AE24" s="37"/>
+      <c r="AF24" s="37"/>
+      <c r="AG24" s="37"/>
+      <c r="AH24" s="37"/>
+      <c r="AI24" s="37"/>
+      <c r="AJ24" s="37"/>
+      <c r="AK24" s="37"/>
+      <c r="AL24" s="37"/>
+      <c r="AM24" s="37"/>
+      <c r="AN24" s="37"/>
+      <c r="AO24" s="37"/>
+      <c r="AP24" s="37"/>
+      <c r="AQ24" s="37"/>
+      <c r="AR24" s="37"/>
+      <c r="AS24" s="37"/>
+      <c r="AT24" s="37"/>
+      <c r="AU24" s="37"/>
+      <c r="AV24" s="37"/>
+      <c r="AW24" s="37"/>
+      <c r="AX24" s="37"/>
+      <c r="AY24" s="37"/>
+      <c r="AZ24" s="37"/>
+      <c r="BA24" s="37"/>
+      <c r="BB24" s="37"/>
+      <c r="BC24" s="37"/>
+      <c r="BD24" s="37"/>
+      <c r="BE24" s="37"/>
+      <c r="BF24" s="37"/>
+      <c r="BG24" s="37"/>
+      <c r="BH24" s="37"/>
+      <c r="BI24" s="37"/>
+      <c r="BJ24" s="37"/>
+      <c r="BK24" s="37"/>
+      <c r="BL24" s="37"/>
+      <c r="BM24" s="37"/>
+      <c r="BN24" s="37"/>
+      <c r="BO24" s="37"/>
+      <c r="BP24" s="37"/>
+      <c r="BQ24" s="37"/>
+      <c r="BR24" s="37"/>
+      <c r="BS24" s="37"/>
+      <c r="BT24" s="37"/>
+      <c r="BU24" s="37"/>
+      <c r="BV24" s="37"/>
+      <c r="BW24" s="37"/>
+      <c r="BX24" s="37"/>
+      <c r="BY24" s="37"/>
+      <c r="BZ24" s="37"/>
+      <c r="CA24" s="37"/>
+      <c r="CB24" s="37"/>
+      <c r="CC24" s="37"/>
+      <c r="CD24" s="37"/>
+      <c r="CE24" s="37"/>
+      <c r="CF24" s="37"/>
+      <c r="CG24" s="37"/>
+      <c r="CH24" s="37"/>
+      <c r="CI24" s="37"/>
+      <c r="CJ24" s="37"/>
+      <c r="CK24" s="37"/>
+      <c r="CL24" s="37"/>
+      <c r="CM24" s="37"/>
+      <c r="CN24" s="37"/>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="85"/>
-      <c r="B25" s="89"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="87"/>
-      <c r="E25" s="88"/>
-      <c r="F25" s="38"/>
-      <c r="G25" s="38"/>
-      <c r="H25" s="38"/>
-      <c r="I25" s="38"/>
-      <c r="J25" s="38"/>
-      <c r="K25" s="38"/>
-      <c r="L25" s="38"/>
-      <c r="M25" s="38"/>
-      <c r="N25" s="38"/>
-      <c r="O25" s="38"/>
-      <c r="P25" s="39"/>
-      <c r="Q25" s="39"/>
-      <c r="R25" s="39"/>
-      <c r="S25" s="39"/>
-      <c r="T25" s="39"/>
-      <c r="U25" s="39"/>
-      <c r="V25" s="39"/>
-      <c r="W25" s="39"/>
-      <c r="X25" s="39"/>
-      <c r="Y25" s="39"/>
-      <c r="Z25" s="39"/>
-      <c r="AA25" s="39"/>
-      <c r="AB25" s="39"/>
-      <c r="AC25" s="39"/>
-      <c r="AD25" s="39"/>
-      <c r="AE25" s="39"/>
-      <c r="AF25" s="39"/>
-      <c r="AG25" s="39"/>
-      <c r="AH25" s="39"/>
-      <c r="AI25" s="39"/>
-      <c r="AJ25" s="39"/>
-      <c r="AK25" s="39"/>
-      <c r="AL25" s="39"/>
-      <c r="AM25" s="39"/>
-      <c r="AN25" s="39"/>
-      <c r="AO25" s="39"/>
-      <c r="AP25" s="39"/>
-      <c r="AQ25" s="39"/>
-      <c r="AR25" s="39"/>
-      <c r="AS25" s="39"/>
-      <c r="AT25" s="39"/>
-      <c r="AU25" s="39"/>
-      <c r="AV25" s="39"/>
-      <c r="AW25" s="39"/>
-      <c r="AX25" s="39"/>
-      <c r="AY25" s="39"/>
-      <c r="AZ25" s="39"/>
-      <c r="BA25" s="39"/>
-      <c r="BB25" s="39"/>
-      <c r="BC25" s="39"/>
-      <c r="BD25" s="39"/>
-      <c r="BE25" s="39"/>
-      <c r="BF25" s="39"/>
-      <c r="BG25" s="39"/>
-      <c r="BH25" s="39"/>
-      <c r="BI25" s="39"/>
-      <c r="BJ25" s="39"/>
-      <c r="BK25" s="39"/>
-      <c r="BL25" s="39"/>
-      <c r="BM25" s="39"/>
-      <c r="BN25" s="39"/>
-      <c r="BO25" s="39"/>
-      <c r="BP25" s="39"/>
-      <c r="BQ25" s="39"/>
-      <c r="BR25" s="39"/>
-      <c r="BS25" s="39"/>
-      <c r="BT25" s="39"/>
-      <c r="BU25" s="39"/>
-      <c r="BV25" s="39"/>
-      <c r="BW25" s="39"/>
-      <c r="BX25" s="39"/>
-      <c r="BY25" s="39"/>
-      <c r="BZ25" s="39"/>
-      <c r="CA25" s="39"/>
-      <c r="CB25" s="39"/>
-      <c r="CC25" s="39"/>
-      <c r="CD25" s="39"/>
-      <c r="CE25" s="39"/>
-      <c r="CF25" s="39"/>
-      <c r="CG25" s="39"/>
-      <c r="CH25" s="39"/>
-      <c r="CI25" s="39"/>
-      <c r="CJ25" s="39"/>
-      <c r="CK25" s="39"/>
-      <c r="CL25" s="39"/>
-      <c r="CM25" s="39"/>
-      <c r="CN25" s="39"/>
+      <c r="A25" s="80"/>
+      <c r="B25" s="84"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="82"/>
+      <c r="E25" s="83"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="36"/>
+      <c r="I25" s="36"/>
+      <c r="J25" s="36"/>
+      <c r="K25" s="36"/>
+      <c r="L25" s="36"/>
+      <c r="M25" s="36"/>
+      <c r="N25" s="36"/>
+      <c r="O25" s="36"/>
+      <c r="P25" s="37"/>
+      <c r="Q25" s="37"/>
+      <c r="R25" s="37"/>
+      <c r="S25" s="37"/>
+      <c r="T25" s="37"/>
+      <c r="U25" s="37"/>
+      <c r="V25" s="37"/>
+      <c r="W25" s="37"/>
+      <c r="X25" s="37"/>
+      <c r="Y25" s="37"/>
+      <c r="Z25" s="37"/>
+      <c r="AA25" s="37"/>
+      <c r="AB25" s="37"/>
+      <c r="AC25" s="37"/>
+      <c r="AD25" s="37"/>
+      <c r="AE25" s="37"/>
+      <c r="AF25" s="37"/>
+      <c r="AG25" s="37"/>
+      <c r="AH25" s="37"/>
+      <c r="AI25" s="37"/>
+      <c r="AJ25" s="37"/>
+      <c r="AK25" s="37"/>
+      <c r="AL25" s="37"/>
+      <c r="AM25" s="37"/>
+      <c r="AN25" s="37"/>
+      <c r="AO25" s="37"/>
+      <c r="AP25" s="37"/>
+      <c r="AQ25" s="37"/>
+      <c r="AR25" s="37"/>
+      <c r="AS25" s="37"/>
+      <c r="AT25" s="37"/>
+      <c r="AU25" s="37"/>
+      <c r="AV25" s="37"/>
+      <c r="AW25" s="37"/>
+      <c r="AX25" s="37"/>
+      <c r="AY25" s="37"/>
+      <c r="AZ25" s="37"/>
+      <c r="BA25" s="37"/>
+      <c r="BB25" s="37"/>
+      <c r="BC25" s="37"/>
+      <c r="BD25" s="37"/>
+      <c r="BE25" s="37"/>
+      <c r="BF25" s="37"/>
+      <c r="BG25" s="37"/>
+      <c r="BH25" s="37"/>
+      <c r="BI25" s="37"/>
+      <c r="BJ25" s="37"/>
+      <c r="BK25" s="37"/>
+      <c r="BL25" s="37"/>
+      <c r="BM25" s="37"/>
+      <c r="BN25" s="37"/>
+      <c r="BO25" s="37"/>
+      <c r="BP25" s="37"/>
+      <c r="BQ25" s="37"/>
+      <c r="BR25" s="37"/>
+      <c r="BS25" s="37"/>
+      <c r="BT25" s="37"/>
+      <c r="BU25" s="37"/>
+      <c r="BV25" s="37"/>
+      <c r="BW25" s="37"/>
+      <c r="BX25" s="37"/>
+      <c r="BY25" s="37"/>
+      <c r="BZ25" s="37"/>
+      <c r="CA25" s="37"/>
+      <c r="CB25" s="37"/>
+      <c r="CC25" s="37"/>
+      <c r="CD25" s="37"/>
+      <c r="CE25" s="37"/>
+      <c r="CF25" s="37"/>
+      <c r="CG25" s="37"/>
+      <c r="CH25" s="37"/>
+      <c r="CI25" s="37"/>
+      <c r="CJ25" s="37"/>
+      <c r="CK25" s="37"/>
+      <c r="CL25" s="37"/>
+      <c r="CM25" s="37"/>
+      <c r="CN25" s="37"/>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="85"/>
-      <c r="B26" s="89"/>
-      <c r="C26" s="38"/>
-      <c r="D26" s="87"/>
-      <c r="E26" s="88"/>
-      <c r="F26" s="38"/>
-      <c r="G26" s="38"/>
-      <c r="H26" s="38"/>
-      <c r="I26" s="38"/>
-      <c r="J26" s="38"/>
-      <c r="K26" s="38"/>
-      <c r="L26" s="38"/>
-      <c r="M26" s="38"/>
-      <c r="N26" s="38"/>
-      <c r="O26" s="38"/>
-      <c r="P26" s="39"/>
-      <c r="Q26" s="39"/>
-      <c r="R26" s="39"/>
-      <c r="S26" s="39"/>
-      <c r="T26" s="39"/>
-      <c r="U26" s="39"/>
-      <c r="V26" s="39"/>
-      <c r="W26" s="39"/>
-      <c r="X26" s="39"/>
-      <c r="Y26" s="39"/>
-      <c r="Z26" s="39"/>
-      <c r="AA26" s="39"/>
-      <c r="AB26" s="39"/>
-      <c r="AC26" s="39"/>
-      <c r="AD26" s="39"/>
-      <c r="AE26" s="39"/>
-      <c r="AF26" s="39"/>
-      <c r="AG26" s="39"/>
-      <c r="AH26" s="39"/>
-      <c r="AI26" s="39"/>
-      <c r="AJ26" s="39"/>
-      <c r="AK26" s="39"/>
-      <c r="AL26" s="39"/>
-      <c r="AM26" s="39"/>
-      <c r="AN26" s="39"/>
-      <c r="AO26" s="39"/>
-      <c r="AP26" s="39"/>
-      <c r="AQ26" s="39"/>
-      <c r="AR26" s="39"/>
-      <c r="AS26" s="39"/>
-      <c r="AT26" s="39"/>
-      <c r="AU26" s="39"/>
-      <c r="AV26" s="39"/>
-      <c r="AW26" s="39"/>
-      <c r="AX26" s="39"/>
-      <c r="AY26" s="39"/>
-      <c r="AZ26" s="39"/>
-      <c r="BA26" s="39"/>
-      <c r="BB26" s="39"/>
-      <c r="BC26" s="39"/>
-      <c r="BD26" s="39"/>
-      <c r="BE26" s="39"/>
-      <c r="BF26" s="39"/>
-      <c r="BG26" s="39"/>
-      <c r="BH26" s="39"/>
-      <c r="BI26" s="39"/>
-      <c r="BJ26" s="39"/>
-      <c r="BK26" s="39"/>
-      <c r="BL26" s="39"/>
-      <c r="BM26" s="39"/>
-      <c r="BN26" s="39"/>
-      <c r="BO26" s="39"/>
-      <c r="BP26" s="39"/>
-      <c r="BQ26" s="39"/>
-      <c r="BR26" s="39"/>
-      <c r="BS26" s="39"/>
-      <c r="BT26" s="39"/>
-      <c r="BU26" s="39"/>
-      <c r="BV26" s="39"/>
-      <c r="BW26" s="39"/>
-      <c r="BX26" s="39"/>
-      <c r="BY26" s="39"/>
-      <c r="BZ26" s="39"/>
-      <c r="CA26" s="39"/>
-      <c r="CB26" s="39"/>
-      <c r="CC26" s="39"/>
-      <c r="CD26" s="39"/>
-      <c r="CE26" s="39"/>
-      <c r="CF26" s="39"/>
-      <c r="CG26" s="39"/>
-      <c r="CH26" s="39"/>
-      <c r="CI26" s="39"/>
-      <c r="CJ26" s="39"/>
-      <c r="CK26" s="39"/>
-      <c r="CL26" s="39"/>
-      <c r="CM26" s="39"/>
-      <c r="CN26" s="39"/>
+      <c r="A26" s="80"/>
+      <c r="B26" s="84"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="82"/>
+      <c r="E26" s="83"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="36"/>
+      <c r="I26" s="36"/>
+      <c r="J26" s="36"/>
+      <c r="K26" s="36"/>
+      <c r="L26" s="36"/>
+      <c r="M26" s="36"/>
+      <c r="N26" s="36"/>
+      <c r="O26" s="36"/>
+      <c r="P26" s="37"/>
+      <c r="Q26" s="37"/>
+      <c r="R26" s="37"/>
+      <c r="S26" s="37"/>
+      <c r="T26" s="37"/>
+      <c r="U26" s="37"/>
+      <c r="V26" s="37"/>
+      <c r="W26" s="37"/>
+      <c r="X26" s="37"/>
+      <c r="Y26" s="37"/>
+      <c r="Z26" s="37"/>
+      <c r="AA26" s="37"/>
+      <c r="AB26" s="37"/>
+      <c r="AC26" s="37"/>
+      <c r="AD26" s="37"/>
+      <c r="AE26" s="37"/>
+      <c r="AF26" s="37"/>
+      <c r="AG26" s="37"/>
+      <c r="AH26" s="37"/>
+      <c r="AI26" s="37"/>
+      <c r="AJ26" s="37"/>
+      <c r="AK26" s="37"/>
+      <c r="AL26" s="37"/>
+      <c r="AM26" s="37"/>
+      <c r="AN26" s="37"/>
+      <c r="AO26" s="37"/>
+      <c r="AP26" s="37"/>
+      <c r="AQ26" s="37"/>
+      <c r="AR26" s="37"/>
+      <c r="AS26" s="37"/>
+      <c r="AT26" s="37"/>
+      <c r="AU26" s="37"/>
+      <c r="AV26" s="37"/>
+      <c r="AW26" s="37"/>
+      <c r="AX26" s="37"/>
+      <c r="AY26" s="37"/>
+      <c r="AZ26" s="37"/>
+      <c r="BA26" s="37"/>
+      <c r="BB26" s="37"/>
+      <c r="BC26" s="37"/>
+      <c r="BD26" s="37"/>
+      <c r="BE26" s="37"/>
+      <c r="BF26" s="37"/>
+      <c r="BG26" s="37"/>
+      <c r="BH26" s="37"/>
+      <c r="BI26" s="37"/>
+      <c r="BJ26" s="37"/>
+      <c r="BK26" s="37"/>
+      <c r="BL26" s="37"/>
+      <c r="BM26" s="37"/>
+      <c r="BN26" s="37"/>
+      <c r="BO26" s="37"/>
+      <c r="BP26" s="37"/>
+      <c r="BQ26" s="37"/>
+      <c r="BR26" s="37"/>
+      <c r="BS26" s="37"/>
+      <c r="BT26" s="37"/>
+      <c r="BU26" s="37"/>
+      <c r="BV26" s="37"/>
+      <c r="BW26" s="37"/>
+      <c r="BX26" s="37"/>
+      <c r="BY26" s="37"/>
+      <c r="BZ26" s="37"/>
+      <c r="CA26" s="37"/>
+      <c r="CB26" s="37"/>
+      <c r="CC26" s="37"/>
+      <c r="CD26" s="37"/>
+      <c r="CE26" s="37"/>
+      <c r="CF26" s="37"/>
+      <c r="CG26" s="37"/>
+      <c r="CH26" s="37"/>
+      <c r="CI26" s="37"/>
+      <c r="CJ26" s="37"/>
+      <c r="CK26" s="37"/>
+      <c r="CL26" s="37"/>
+      <c r="CM26" s="37"/>
+      <c r="CN26" s="37"/>
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="85"/>
-      <c r="B27" s="89"/>
-      <c r="C27" s="38"/>
-      <c r="D27" s="87"/>
-      <c r="E27" s="88"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="38"/>
-      <c r="H27" s="38"/>
-      <c r="I27" s="38"/>
-      <c r="J27" s="38"/>
-      <c r="K27" s="38"/>
-      <c r="L27" s="38"/>
-      <c r="M27" s="38"/>
-      <c r="N27" s="38"/>
-      <c r="O27" s="38"/>
-      <c r="P27" s="39"/>
-      <c r="Q27" s="39"/>
-      <c r="R27" s="39"/>
-      <c r="S27" s="39"/>
-      <c r="T27" s="39"/>
-      <c r="U27" s="39"/>
-      <c r="V27" s="39"/>
-      <c r="W27" s="39"/>
-      <c r="X27" s="39"/>
-      <c r="Y27" s="39"/>
-      <c r="Z27" s="39"/>
-      <c r="AA27" s="39"/>
-      <c r="AB27" s="39"/>
-      <c r="AC27" s="39"/>
-      <c r="AD27" s="39"/>
-      <c r="AE27" s="39"/>
-      <c r="AF27" s="39"/>
-      <c r="AG27" s="39"/>
-      <c r="AH27" s="39"/>
-      <c r="AI27" s="39"/>
-      <c r="AJ27" s="39"/>
-      <c r="AK27" s="39"/>
-      <c r="AL27" s="39"/>
-      <c r="AM27" s="39"/>
-      <c r="AN27" s="39"/>
-      <c r="AO27" s="39"/>
-      <c r="AP27" s="39"/>
-      <c r="AQ27" s="39"/>
-      <c r="AR27" s="39"/>
-      <c r="AS27" s="39"/>
-      <c r="AT27" s="39"/>
-      <c r="AU27" s="39"/>
-      <c r="AV27" s="39"/>
-      <c r="AW27" s="39"/>
-      <c r="AX27" s="39"/>
-      <c r="AY27" s="39"/>
-      <c r="AZ27" s="39"/>
-      <c r="BA27" s="39"/>
-      <c r="BB27" s="39"/>
-      <c r="BC27" s="39"/>
-      <c r="BD27" s="39"/>
-      <c r="BE27" s="39"/>
-      <c r="BF27" s="39"/>
-      <c r="BG27" s="39"/>
-      <c r="BH27" s="39"/>
-      <c r="BI27" s="39"/>
-      <c r="BJ27" s="39"/>
-      <c r="BK27" s="39"/>
-      <c r="BL27" s="39"/>
-      <c r="BM27" s="39"/>
-      <c r="BN27" s="39"/>
-      <c r="BO27" s="39"/>
-      <c r="BP27" s="39"/>
-      <c r="BQ27" s="39"/>
-      <c r="BR27" s="39"/>
-      <c r="BS27" s="39"/>
-      <c r="BT27" s="39"/>
-      <c r="BU27" s="39"/>
-      <c r="BV27" s="39"/>
-      <c r="BW27" s="39"/>
-      <c r="BX27" s="39"/>
-      <c r="BY27" s="39"/>
-      <c r="BZ27" s="39"/>
-      <c r="CA27" s="39"/>
-      <c r="CB27" s="39"/>
-      <c r="CC27" s="39"/>
-      <c r="CD27" s="39"/>
-      <c r="CE27" s="39"/>
-      <c r="CF27" s="39"/>
-      <c r="CG27" s="39"/>
-      <c r="CH27" s="39"/>
-      <c r="CI27" s="39"/>
-      <c r="CJ27" s="39"/>
-      <c r="CK27" s="39"/>
-      <c r="CL27" s="39"/>
-      <c r="CM27" s="39"/>
-      <c r="CN27" s="39"/>
+      <c r="A27" s="80"/>
+      <c r="B27" s="84"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="82"/>
+      <c r="E27" s="83"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="36"/>
+      <c r="J27" s="36"/>
+      <c r="K27" s="36"/>
+      <c r="L27" s="36"/>
+      <c r="M27" s="36"/>
+      <c r="N27" s="36"/>
+      <c r="O27" s="36"/>
+      <c r="P27" s="37"/>
+      <c r="Q27" s="37"/>
+      <c r="R27" s="37"/>
+      <c r="S27" s="37"/>
+      <c r="T27" s="37"/>
+      <c r="U27" s="37"/>
+      <c r="V27" s="37"/>
+      <c r="W27" s="37"/>
+      <c r="X27" s="37"/>
+      <c r="Y27" s="37"/>
+      <c r="Z27" s="37"/>
+      <c r="AA27" s="37"/>
+      <c r="AB27" s="37"/>
+      <c r="AC27" s="37"/>
+      <c r="AD27" s="37"/>
+      <c r="AE27" s="37"/>
+      <c r="AF27" s="37"/>
+      <c r="AG27" s="37"/>
+      <c r="AH27" s="37"/>
+      <c r="AI27" s="37"/>
+      <c r="AJ27" s="37"/>
+      <c r="AK27" s="37"/>
+      <c r="AL27" s="37"/>
+      <c r="AM27" s="37"/>
+      <c r="AN27" s="37"/>
+      <c r="AO27" s="37"/>
+      <c r="AP27" s="37"/>
+      <c r="AQ27" s="37"/>
+      <c r="AR27" s="37"/>
+      <c r="AS27" s="37"/>
+      <c r="AT27" s="37"/>
+      <c r="AU27" s="37"/>
+      <c r="AV27" s="37"/>
+      <c r="AW27" s="37"/>
+      <c r="AX27" s="37"/>
+      <c r="AY27" s="37"/>
+      <c r="AZ27" s="37"/>
+      <c r="BA27" s="37"/>
+      <c r="BB27" s="37"/>
+      <c r="BC27" s="37"/>
+      <c r="BD27" s="37"/>
+      <c r="BE27" s="37"/>
+      <c r="BF27" s="37"/>
+      <c r="BG27" s="37"/>
+      <c r="BH27" s="37"/>
+      <c r="BI27" s="37"/>
+      <c r="BJ27" s="37"/>
+      <c r="BK27" s="37"/>
+      <c r="BL27" s="37"/>
+      <c r="BM27" s="37"/>
+      <c r="BN27" s="37"/>
+      <c r="BO27" s="37"/>
+      <c r="BP27" s="37"/>
+      <c r="BQ27" s="37"/>
+      <c r="BR27" s="37"/>
+      <c r="BS27" s="37"/>
+      <c r="BT27" s="37"/>
+      <c r="BU27" s="37"/>
+      <c r="BV27" s="37"/>
+      <c r="BW27" s="37"/>
+      <c r="BX27" s="37"/>
+      <c r="BY27" s="37"/>
+      <c r="BZ27" s="37"/>
+      <c r="CA27" s="37"/>
+      <c r="CB27" s="37"/>
+      <c r="CC27" s="37"/>
+      <c r="CD27" s="37"/>
+      <c r="CE27" s="37"/>
+      <c r="CF27" s="37"/>
+      <c r="CG27" s="37"/>
+      <c r="CH27" s="37"/>
+      <c r="CI27" s="37"/>
+      <c r="CJ27" s="37"/>
+      <c r="CK27" s="37"/>
+      <c r="CL27" s="37"/>
+      <c r="CM27" s="37"/>
+      <c r="CN27" s="37"/>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="85"/>
-      <c r="B28" s="89"/>
-      <c r="C28" s="38"/>
-      <c r="D28" s="87"/>
-      <c r="E28" s="88"/>
-      <c r="F28" s="38"/>
-      <c r="G28" s="38"/>
-      <c r="H28" s="38"/>
-      <c r="I28" s="38"/>
-      <c r="J28" s="38"/>
-      <c r="K28" s="38"/>
-      <c r="L28" s="38"/>
-      <c r="M28" s="38"/>
-      <c r="N28" s="38"/>
-      <c r="O28" s="38"/>
-      <c r="P28" s="39"/>
-      <c r="Q28" s="39"/>
-      <c r="R28" s="39"/>
-      <c r="S28" s="39"/>
-      <c r="T28" s="39"/>
-      <c r="U28" s="39"/>
-      <c r="V28" s="39"/>
-      <c r="W28" s="39"/>
-      <c r="X28" s="39"/>
-      <c r="Y28" s="39"/>
-      <c r="Z28" s="39"/>
-      <c r="AA28" s="39"/>
-      <c r="AB28" s="39"/>
-      <c r="AC28" s="39"/>
-      <c r="AD28" s="39"/>
-      <c r="AE28" s="39"/>
-      <c r="AF28" s="39"/>
-      <c r="AG28" s="39"/>
-      <c r="AH28" s="39"/>
-      <c r="AI28" s="39"/>
-      <c r="AJ28" s="39"/>
-      <c r="AK28" s="39"/>
-      <c r="AL28" s="39"/>
-      <c r="AM28" s="39"/>
-      <c r="AN28" s="39"/>
-      <c r="AO28" s="39"/>
-      <c r="AP28" s="39"/>
-      <c r="AQ28" s="39"/>
-      <c r="AR28" s="39"/>
-      <c r="AS28" s="39"/>
-      <c r="AT28" s="39"/>
-      <c r="AU28" s="39"/>
-      <c r="AV28" s="39"/>
-      <c r="AW28" s="39"/>
-      <c r="AX28" s="39"/>
-      <c r="AY28" s="39"/>
-      <c r="AZ28" s="39"/>
-      <c r="BA28" s="39"/>
-      <c r="BB28" s="39"/>
-      <c r="BC28" s="39"/>
-      <c r="BD28" s="39"/>
-      <c r="BE28" s="39"/>
-      <c r="BF28" s="39"/>
-      <c r="BG28" s="39"/>
-      <c r="BH28" s="39"/>
-      <c r="BI28" s="39"/>
-      <c r="BJ28" s="39"/>
-      <c r="BK28" s="39"/>
-      <c r="BL28" s="39"/>
-      <c r="BM28" s="39"/>
-      <c r="BN28" s="39"/>
-      <c r="BO28" s="39"/>
-      <c r="BP28" s="39"/>
-      <c r="BQ28" s="39"/>
-      <c r="BR28" s="39"/>
-      <c r="BS28" s="39"/>
-      <c r="BT28" s="39"/>
-      <c r="BU28" s="39"/>
-      <c r="BV28" s="39"/>
-      <c r="BW28" s="39"/>
-      <c r="BX28" s="39"/>
-      <c r="BY28" s="39"/>
-      <c r="BZ28" s="39"/>
-      <c r="CA28" s="39"/>
-      <c r="CB28" s="39"/>
-      <c r="CC28" s="39"/>
-      <c r="CD28" s="39"/>
-      <c r="CE28" s="39"/>
-      <c r="CF28" s="39"/>
-      <c r="CG28" s="39"/>
-      <c r="CH28" s="39"/>
-      <c r="CI28" s="39"/>
-      <c r="CJ28" s="39"/>
-      <c r="CK28" s="39"/>
-      <c r="CL28" s="39"/>
-      <c r="CM28" s="39"/>
-      <c r="CN28" s="39"/>
+      <c r="A28" s="80"/>
+      <c r="B28" s="84"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="82"/>
+      <c r="E28" s="83"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="36"/>
+      <c r="I28" s="36"/>
+      <c r="J28" s="36"/>
+      <c r="K28" s="36"/>
+      <c r="L28" s="36"/>
+      <c r="M28" s="36"/>
+      <c r="N28" s="36"/>
+      <c r="O28" s="36"/>
+      <c r="P28" s="37"/>
+      <c r="Q28" s="37"/>
+      <c r="R28" s="37"/>
+      <c r="S28" s="37"/>
+      <c r="T28" s="37"/>
+      <c r="U28" s="37"/>
+      <c r="V28" s="37"/>
+      <c r="W28" s="37"/>
+      <c r="X28" s="37"/>
+      <c r="Y28" s="37"/>
+      <c r="Z28" s="37"/>
+      <c r="AA28" s="37"/>
+      <c r="AB28" s="37"/>
+      <c r="AC28" s="37"/>
+      <c r="AD28" s="37"/>
+      <c r="AE28" s="37"/>
+      <c r="AF28" s="37"/>
+      <c r="AG28" s="37"/>
+      <c r="AH28" s="37"/>
+      <c r="AI28" s="37"/>
+      <c r="AJ28" s="37"/>
+      <c r="AK28" s="37"/>
+      <c r="AL28" s="37"/>
+      <c r="AM28" s="37"/>
+      <c r="AN28" s="37"/>
+      <c r="AO28" s="37"/>
+      <c r="AP28" s="37"/>
+      <c r="AQ28" s="37"/>
+      <c r="AR28" s="37"/>
+      <c r="AS28" s="37"/>
+      <c r="AT28" s="37"/>
+      <c r="AU28" s="37"/>
+      <c r="AV28" s="37"/>
+      <c r="AW28" s="37"/>
+      <c r="AX28" s="37"/>
+      <c r="AY28" s="37"/>
+      <c r="AZ28" s="37"/>
+      <c r="BA28" s="37"/>
+      <c r="BB28" s="37"/>
+      <c r="BC28" s="37"/>
+      <c r="BD28" s="37"/>
+      <c r="BE28" s="37"/>
+      <c r="BF28" s="37"/>
+      <c r="BG28" s="37"/>
+      <c r="BH28" s="37"/>
+      <c r="BI28" s="37"/>
+      <c r="BJ28" s="37"/>
+      <c r="BK28" s="37"/>
+      <c r="BL28" s="37"/>
+      <c r="BM28" s="37"/>
+      <c r="BN28" s="37"/>
+      <c r="BO28" s="37"/>
+      <c r="BP28" s="37"/>
+      <c r="BQ28" s="37"/>
+      <c r="BR28" s="37"/>
+      <c r="BS28" s="37"/>
+      <c r="BT28" s="37"/>
+      <c r="BU28" s="37"/>
+      <c r="BV28" s="37"/>
+      <c r="BW28" s="37"/>
+      <c r="BX28" s="37"/>
+      <c r="BY28" s="37"/>
+      <c r="BZ28" s="37"/>
+      <c r="CA28" s="37"/>
+      <c r="CB28" s="37"/>
+      <c r="CC28" s="37"/>
+      <c r="CD28" s="37"/>
+      <c r="CE28" s="37"/>
+      <c r="CF28" s="37"/>
+      <c r="CG28" s="37"/>
+      <c r="CH28" s="37"/>
+      <c r="CI28" s="37"/>
+      <c r="CJ28" s="37"/>
+      <c r="CK28" s="37"/>
+      <c r="CL28" s="37"/>
+      <c r="CM28" s="37"/>
+      <c r="CN28" s="37"/>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="85"/>
-      <c r="B29" s="89"/>
-      <c r="C29" s="38"/>
-      <c r="D29" s="87"/>
-      <c r="E29" s="88"/>
-      <c r="F29" s="38"/>
-      <c r="G29" s="38"/>
-      <c r="H29" s="38"/>
-      <c r="I29" s="38"/>
-      <c r="J29" s="38"/>
-      <c r="K29" s="38"/>
-      <c r="L29" s="38"/>
-      <c r="M29" s="38"/>
-      <c r="N29" s="38"/>
-      <c r="O29" s="38"/>
-      <c r="P29" s="39"/>
-      <c r="Q29" s="39"/>
-      <c r="R29" s="39"/>
-      <c r="S29" s="39"/>
-      <c r="T29" s="39"/>
-      <c r="U29" s="39"/>
-      <c r="V29" s="39"/>
-      <c r="W29" s="39"/>
-      <c r="X29" s="39"/>
-      <c r="Y29" s="39"/>
-      <c r="Z29" s="39"/>
-      <c r="AA29" s="39"/>
-      <c r="AB29" s="39"/>
-      <c r="AC29" s="39"/>
-      <c r="AD29" s="39"/>
-      <c r="AE29" s="39"/>
-      <c r="AF29" s="39"/>
-      <c r="AG29" s="39"/>
-      <c r="AH29" s="39"/>
-      <c r="AI29" s="39"/>
-      <c r="AJ29" s="39"/>
-      <c r="AK29" s="39"/>
-      <c r="AL29" s="39"/>
-      <c r="AM29" s="39"/>
-      <c r="AN29" s="39"/>
-      <c r="AO29" s="39"/>
-      <c r="AP29" s="39"/>
-      <c r="AQ29" s="39"/>
-      <c r="AR29" s="39"/>
-      <c r="AS29" s="39"/>
-      <c r="AT29" s="39"/>
-      <c r="AU29" s="39"/>
-      <c r="AV29" s="39"/>
-      <c r="AW29" s="39"/>
-      <c r="AX29" s="39"/>
-      <c r="AY29" s="39"/>
-      <c r="AZ29" s="39"/>
-      <c r="BA29" s="39"/>
-      <c r="BB29" s="39"/>
-      <c r="BC29" s="39"/>
-      <c r="BD29" s="39"/>
-      <c r="BE29" s="39"/>
-      <c r="BF29" s="39"/>
-      <c r="BG29" s="39"/>
-      <c r="BH29" s="39"/>
-      <c r="BI29" s="39"/>
-      <c r="BJ29" s="39"/>
-      <c r="BK29" s="39"/>
-      <c r="BL29" s="39"/>
-      <c r="BM29" s="39"/>
-      <c r="BN29" s="39"/>
-      <c r="BO29" s="39"/>
-      <c r="BP29" s="39"/>
-      <c r="BQ29" s="39"/>
-      <c r="BR29" s="39"/>
-      <c r="BS29" s="39"/>
-      <c r="BT29" s="39"/>
-      <c r="BU29" s="39"/>
-      <c r="BV29" s="39"/>
-      <c r="BW29" s="39"/>
-      <c r="BX29" s="39"/>
-      <c r="BY29" s="39"/>
-      <c r="BZ29" s="39"/>
-      <c r="CA29" s="39"/>
-      <c r="CB29" s="39"/>
-      <c r="CC29" s="39"/>
-      <c r="CD29" s="39"/>
-      <c r="CE29" s="39"/>
-      <c r="CF29" s="39"/>
-      <c r="CG29" s="39"/>
-      <c r="CH29" s="39"/>
-      <c r="CI29" s="39"/>
-      <c r="CJ29" s="39"/>
-      <c r="CK29" s="39"/>
-      <c r="CL29" s="39"/>
-      <c r="CM29" s="39"/>
-      <c r="CN29" s="39"/>
+      <c r="A29" s="80"/>
+      <c r="B29" s="84"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="82"/>
+      <c r="E29" s="83"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="36"/>
+      <c r="H29" s="36"/>
+      <c r="I29" s="36"/>
+      <c r="J29" s="36"/>
+      <c r="K29" s="36"/>
+      <c r="L29" s="36"/>
+      <c r="M29" s="36"/>
+      <c r="N29" s="36"/>
+      <c r="O29" s="36"/>
+      <c r="P29" s="37"/>
+      <c r="Q29" s="37"/>
+      <c r="R29" s="37"/>
+      <c r="S29" s="37"/>
+      <c r="T29" s="37"/>
+      <c r="U29" s="37"/>
+      <c r="V29" s="37"/>
+      <c r="W29" s="37"/>
+      <c r="X29" s="37"/>
+      <c r="Y29" s="37"/>
+      <c r="Z29" s="37"/>
+      <c r="AA29" s="37"/>
+      <c r="AB29" s="37"/>
+      <c r="AC29" s="37"/>
+      <c r="AD29" s="37"/>
+      <c r="AE29" s="37"/>
+      <c r="AF29" s="37"/>
+      <c r="AG29" s="37"/>
+      <c r="AH29" s="37"/>
+      <c r="AI29" s="37"/>
+      <c r="AJ29" s="37"/>
+      <c r="AK29" s="37"/>
+      <c r="AL29" s="37"/>
+      <c r="AM29" s="37"/>
+      <c r="AN29" s="37"/>
+      <c r="AO29" s="37"/>
+      <c r="AP29" s="37"/>
+      <c r="AQ29" s="37"/>
+      <c r="AR29" s="37"/>
+      <c r="AS29" s="37"/>
+      <c r="AT29" s="37"/>
+      <c r="AU29" s="37"/>
+      <c r="AV29" s="37"/>
+      <c r="AW29" s="37"/>
+      <c r="AX29" s="37"/>
+      <c r="AY29" s="37"/>
+      <c r="AZ29" s="37"/>
+      <c r="BA29" s="37"/>
+      <c r="BB29" s="37"/>
+      <c r="BC29" s="37"/>
+      <c r="BD29" s="37"/>
+      <c r="BE29" s="37"/>
+      <c r="BF29" s="37"/>
+      <c r="BG29" s="37"/>
+      <c r="BH29" s="37"/>
+      <c r="BI29" s="37"/>
+      <c r="BJ29" s="37"/>
+      <c r="BK29" s="37"/>
+      <c r="BL29" s="37"/>
+      <c r="BM29" s="37"/>
+      <c r="BN29" s="37"/>
+      <c r="BO29" s="37"/>
+      <c r="BP29" s="37"/>
+      <c r="BQ29" s="37"/>
+      <c r="BR29" s="37"/>
+      <c r="BS29" s="37"/>
+      <c r="BT29" s="37"/>
+      <c r="BU29" s="37"/>
+      <c r="BV29" s="37"/>
+      <c r="BW29" s="37"/>
+      <c r="BX29" s="37"/>
+      <c r="BY29" s="37"/>
+      <c r="BZ29" s="37"/>
+      <c r="CA29" s="37"/>
+      <c r="CB29" s="37"/>
+      <c r="CC29" s="37"/>
+      <c r="CD29" s="37"/>
+      <c r="CE29" s="37"/>
+      <c r="CF29" s="37"/>
+      <c r="CG29" s="37"/>
+      <c r="CH29" s="37"/>
+      <c r="CI29" s="37"/>
+      <c r="CJ29" s="37"/>
+      <c r="CK29" s="37"/>
+      <c r="CL29" s="37"/>
+      <c r="CM29" s="37"/>
+      <c r="CN29" s="37"/>
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="85"/>
-      <c r="B30" s="89"/>
-      <c r="C30" s="38"/>
-      <c r="D30" s="87"/>
-      <c r="E30" s="88"/>
-      <c r="F30" s="38"/>
-      <c r="G30" s="38"/>
-      <c r="H30" s="38"/>
-      <c r="I30" s="38"/>
-      <c r="J30" s="38"/>
-      <c r="K30" s="38"/>
-      <c r="L30" s="38"/>
-      <c r="M30" s="38"/>
-      <c r="N30" s="38"/>
-      <c r="O30" s="38"/>
-      <c r="P30" s="39"/>
-      <c r="Q30" s="39"/>
-      <c r="R30" s="39"/>
-      <c r="S30" s="39"/>
-      <c r="T30" s="39"/>
-      <c r="U30" s="39"/>
-      <c r="V30" s="39"/>
-      <c r="W30" s="39"/>
-      <c r="X30" s="39"/>
-      <c r="Y30" s="39"/>
-      <c r="Z30" s="39"/>
-      <c r="AA30" s="39"/>
-      <c r="AB30" s="39"/>
-      <c r="AC30" s="39"/>
-      <c r="AD30" s="39"/>
-      <c r="AE30" s="39"/>
-      <c r="AF30" s="39"/>
-      <c r="AG30" s="39"/>
-      <c r="AH30" s="39"/>
-      <c r="AI30" s="39"/>
-      <c r="AJ30" s="39"/>
-      <c r="AK30" s="39"/>
-      <c r="AL30" s="39"/>
-      <c r="AM30" s="39"/>
-      <c r="AN30" s="39"/>
-      <c r="AO30" s="39"/>
-      <c r="AP30" s="39"/>
-      <c r="AQ30" s="39"/>
-      <c r="AR30" s="39"/>
-      <c r="AS30" s="39"/>
-      <c r="AT30" s="39"/>
-      <c r="AU30" s="39"/>
-      <c r="AV30" s="39"/>
-      <c r="AW30" s="39"/>
-      <c r="AX30" s="39"/>
-      <c r="AY30" s="39"/>
-      <c r="AZ30" s="39"/>
-      <c r="BA30" s="39"/>
-      <c r="BB30" s="39"/>
-      <c r="BC30" s="39"/>
-      <c r="BD30" s="39"/>
-      <c r="BE30" s="39"/>
-      <c r="BF30" s="39"/>
-      <c r="BG30" s="39"/>
-      <c r="BH30" s="39"/>
-      <c r="BI30" s="39"/>
-      <c r="BJ30" s="39"/>
-      <c r="BK30" s="39"/>
-      <c r="BL30" s="39"/>
-      <c r="BM30" s="39"/>
-      <c r="BN30" s="39"/>
-      <c r="BO30" s="39"/>
-      <c r="BP30" s="39"/>
-      <c r="BQ30" s="39"/>
-      <c r="BR30" s="39"/>
-      <c r="BS30" s="39"/>
-      <c r="BT30" s="39"/>
-      <c r="BU30" s="39"/>
-      <c r="BV30" s="39"/>
-      <c r="BW30" s="39"/>
-      <c r="BX30" s="39"/>
-      <c r="BY30" s="39"/>
-      <c r="BZ30" s="39"/>
-      <c r="CA30" s="39"/>
-      <c r="CB30" s="39"/>
-      <c r="CC30" s="39"/>
-      <c r="CD30" s="39"/>
-      <c r="CE30" s="39"/>
-      <c r="CF30" s="39"/>
-      <c r="CG30" s="39"/>
-      <c r="CH30" s="39"/>
-      <c r="CI30" s="39"/>
-      <c r="CJ30" s="39"/>
-      <c r="CK30" s="39"/>
-      <c r="CL30" s="39"/>
-      <c r="CM30" s="39"/>
-      <c r="CN30" s="39"/>
+      <c r="A30" s="80"/>
+      <c r="B30" s="84"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="82"/>
+      <c r="E30" s="83"/>
+      <c r="F30" s="36"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="36"/>
+      <c r="I30" s="36"/>
+      <c r="J30" s="36"/>
+      <c r="K30" s="36"/>
+      <c r="L30" s="36"/>
+      <c r="M30" s="36"/>
+      <c r="N30" s="36"/>
+      <c r="O30" s="36"/>
+      <c r="P30" s="37"/>
+      <c r="Q30" s="37"/>
+      <c r="R30" s="37"/>
+      <c r="S30" s="37"/>
+      <c r="T30" s="37"/>
+      <c r="U30" s="37"/>
+      <c r="V30" s="37"/>
+      <c r="W30" s="37"/>
+      <c r="X30" s="37"/>
+      <c r="Y30" s="37"/>
+      <c r="Z30" s="37"/>
+      <c r="AA30" s="37"/>
+      <c r="AB30" s="37"/>
+      <c r="AC30" s="37"/>
+      <c r="AD30" s="37"/>
+      <c r="AE30" s="37"/>
+      <c r="AF30" s="37"/>
+      <c r="AG30" s="37"/>
+      <c r="AH30" s="37"/>
+      <c r="AI30" s="37"/>
+      <c r="AJ30" s="37"/>
+      <c r="AK30" s="37"/>
+      <c r="AL30" s="37"/>
+      <c r="AM30" s="37"/>
+      <c r="AN30" s="37"/>
+      <c r="AO30" s="37"/>
+      <c r="AP30" s="37"/>
+      <c r="AQ30" s="37"/>
+      <c r="AR30" s="37"/>
+      <c r="AS30" s="37"/>
+      <c r="AT30" s="37"/>
+      <c r="AU30" s="37"/>
+      <c r="AV30" s="37"/>
+      <c r="AW30" s="37"/>
+      <c r="AX30" s="37"/>
+      <c r="AY30" s="37"/>
+      <c r="AZ30" s="37"/>
+      <c r="BA30" s="37"/>
+      <c r="BB30" s="37"/>
+      <c r="BC30" s="37"/>
+      <c r="BD30" s="37"/>
+      <c r="BE30" s="37"/>
+      <c r="BF30" s="37"/>
+      <c r="BG30" s="37"/>
+      <c r="BH30" s="37"/>
+      <c r="BI30" s="37"/>
+      <c r="BJ30" s="37"/>
+      <c r="BK30" s="37"/>
+      <c r="BL30" s="37"/>
+      <c r="BM30" s="37"/>
+      <c r="BN30" s="37"/>
+      <c r="BO30" s="37"/>
+      <c r="BP30" s="37"/>
+      <c r="BQ30" s="37"/>
+      <c r="BR30" s="37"/>
+      <c r="BS30" s="37"/>
+      <c r="BT30" s="37"/>
+      <c r="BU30" s="37"/>
+      <c r="BV30" s="37"/>
+      <c r="BW30" s="37"/>
+      <c r="BX30" s="37"/>
+      <c r="BY30" s="37"/>
+      <c r="BZ30" s="37"/>
+      <c r="CA30" s="37"/>
+      <c r="CB30" s="37"/>
+      <c r="CC30" s="37"/>
+      <c r="CD30" s="37"/>
+      <c r="CE30" s="37"/>
+      <c r="CF30" s="37"/>
+      <c r="CG30" s="37"/>
+      <c r="CH30" s="37"/>
+      <c r="CI30" s="37"/>
+      <c r="CJ30" s="37"/>
+      <c r="CK30" s="37"/>
+      <c r="CL30" s="37"/>
+      <c r="CM30" s="37"/>
+      <c r="CN30" s="37"/>
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="85"/>
-      <c r="B31" s="89"/>
-      <c r="C31" s="38"/>
-      <c r="D31" s="87"/>
-      <c r="E31" s="88"/>
-      <c r="F31" s="38"/>
-      <c r="G31" s="38"/>
-      <c r="H31" s="38"/>
-      <c r="I31" s="38"/>
-      <c r="J31" s="38"/>
-      <c r="K31" s="38"/>
-      <c r="L31" s="38"/>
-      <c r="M31" s="38"/>
-      <c r="N31" s="38"/>
-      <c r="O31" s="38"/>
-      <c r="P31" s="39"/>
-      <c r="Q31" s="39"/>
-      <c r="R31" s="39"/>
-      <c r="S31" s="39"/>
-      <c r="T31" s="39"/>
-      <c r="U31" s="39"/>
-      <c r="V31" s="39"/>
-      <c r="W31" s="39"/>
-      <c r="X31" s="39"/>
-      <c r="Y31" s="39"/>
-      <c r="Z31" s="39"/>
-      <c r="AA31" s="39"/>
-      <c r="AB31" s="39"/>
-      <c r="AC31" s="39"/>
-      <c r="AD31" s="39"/>
-      <c r="AE31" s="39"/>
-      <c r="AF31" s="39"/>
-      <c r="AG31" s="39"/>
-      <c r="AH31" s="39"/>
-      <c r="AI31" s="39"/>
-      <c r="AJ31" s="39"/>
-      <c r="AK31" s="39"/>
-      <c r="AL31" s="39"/>
-      <c r="AM31" s="39"/>
-      <c r="AN31" s="39"/>
-      <c r="AO31" s="39"/>
-      <c r="AP31" s="39"/>
-      <c r="AQ31" s="39"/>
-      <c r="AR31" s="39"/>
-      <c r="AS31" s="39"/>
-      <c r="AT31" s="39"/>
-      <c r="AU31" s="39"/>
-      <c r="AV31" s="39"/>
-      <c r="AW31" s="39"/>
-      <c r="AX31" s="39"/>
-      <c r="AY31" s="39"/>
-      <c r="AZ31" s="39"/>
-      <c r="BA31" s="39"/>
-      <c r="BB31" s="39"/>
-      <c r="BC31" s="39"/>
-      <c r="BD31" s="39"/>
-      <c r="BE31" s="39"/>
-      <c r="BF31" s="39"/>
-      <c r="BG31" s="39"/>
-      <c r="BH31" s="39"/>
-      <c r="BI31" s="39"/>
-      <c r="BJ31" s="39"/>
-      <c r="BK31" s="39"/>
-      <c r="BL31" s="39"/>
-      <c r="BM31" s="39"/>
-      <c r="BN31" s="39"/>
-      <c r="BO31" s="39"/>
-      <c r="BP31" s="39"/>
-      <c r="BQ31" s="39"/>
-      <c r="BR31" s="39"/>
-      <c r="BS31" s="39"/>
-      <c r="BT31" s="39"/>
-      <c r="BU31" s="39"/>
-      <c r="BV31" s="39"/>
-      <c r="BW31" s="39"/>
-      <c r="BX31" s="39"/>
-      <c r="BY31" s="39"/>
-      <c r="BZ31" s="39"/>
-      <c r="CA31" s="39"/>
-      <c r="CB31" s="39"/>
-      <c r="CC31" s="39"/>
-      <c r="CD31" s="39"/>
-      <c r="CE31" s="39"/>
-      <c r="CF31" s="39"/>
-      <c r="CG31" s="39"/>
-      <c r="CH31" s="39"/>
-      <c r="CI31" s="39"/>
-      <c r="CJ31" s="39"/>
-      <c r="CK31" s="39"/>
-      <c r="CL31" s="39"/>
-      <c r="CM31" s="39"/>
-      <c r="CN31" s="39"/>
+      <c r="A31" s="80"/>
+      <c r="B31" s="84"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="82"/>
+      <c r="E31" s="83"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="36"/>
+      <c r="H31" s="36"/>
+      <c r="I31" s="36"/>
+      <c r="J31" s="36"/>
+      <c r="K31" s="36"/>
+      <c r="L31" s="36"/>
+      <c r="M31" s="36"/>
+      <c r="N31" s="36"/>
+      <c r="O31" s="36"/>
+      <c r="P31" s="37"/>
+      <c r="Q31" s="37"/>
+      <c r="R31" s="37"/>
+      <c r="S31" s="37"/>
+      <c r="T31" s="37"/>
+      <c r="U31" s="37"/>
+      <c r="V31" s="37"/>
+      <c r="W31" s="37"/>
+      <c r="X31" s="37"/>
+      <c r="Y31" s="37"/>
+      <c r="Z31" s="37"/>
+      <c r="AA31" s="37"/>
+      <c r="AB31" s="37"/>
+      <c r="AC31" s="37"/>
+      <c r="AD31" s="37"/>
+      <c r="AE31" s="37"/>
+      <c r="AF31" s="37"/>
+      <c r="AG31" s="37"/>
+      <c r="AH31" s="37"/>
+      <c r="AI31" s="37"/>
+      <c r="AJ31" s="37"/>
+      <c r="AK31" s="37"/>
+      <c r="AL31" s="37"/>
+      <c r="AM31" s="37"/>
+      <c r="AN31" s="37"/>
+      <c r="AO31" s="37"/>
+      <c r="AP31" s="37"/>
+      <c r="AQ31" s="37"/>
+      <c r="AR31" s="37"/>
+      <c r="AS31" s="37"/>
+      <c r="AT31" s="37"/>
+      <c r="AU31" s="37"/>
+      <c r="AV31" s="37"/>
+      <c r="AW31" s="37"/>
+      <c r="AX31" s="37"/>
+      <c r="AY31" s="37"/>
+      <c r="AZ31" s="37"/>
+      <c r="BA31" s="37"/>
+      <c r="BB31" s="37"/>
+      <c r="BC31" s="37"/>
+      <c r="BD31" s="37"/>
+      <c r="BE31" s="37"/>
+      <c r="BF31" s="37"/>
+      <c r="BG31" s="37"/>
+      <c r="BH31" s="37"/>
+      <c r="BI31" s="37"/>
+      <c r="BJ31" s="37"/>
+      <c r="BK31" s="37"/>
+      <c r="BL31" s="37"/>
+      <c r="BM31" s="37"/>
+      <c r="BN31" s="37"/>
+      <c r="BO31" s="37"/>
+      <c r="BP31" s="37"/>
+      <c r="BQ31" s="37"/>
+      <c r="BR31" s="37"/>
+      <c r="BS31" s="37"/>
+      <c r="BT31" s="37"/>
+      <c r="BU31" s="37"/>
+      <c r="BV31" s="37"/>
+      <c r="BW31" s="37"/>
+      <c r="BX31" s="37"/>
+      <c r="BY31" s="37"/>
+      <c r="BZ31" s="37"/>
+      <c r="CA31" s="37"/>
+      <c r="CB31" s="37"/>
+      <c r="CC31" s="37"/>
+      <c r="CD31" s="37"/>
+      <c r="CE31" s="37"/>
+      <c r="CF31" s="37"/>
+      <c r="CG31" s="37"/>
+      <c r="CH31" s="37"/>
+      <c r="CI31" s="37"/>
+      <c r="CJ31" s="37"/>
+      <c r="CK31" s="37"/>
+      <c r="CL31" s="37"/>
+      <c r="CM31" s="37"/>
+      <c r="CN31" s="37"/>
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="85"/>
-      <c r="B32" s="89"/>
-      <c r="C32" s="38"/>
-      <c r="D32" s="87"/>
-      <c r="E32" s="88"/>
-      <c r="F32" s="38"/>
-      <c r="G32" s="38"/>
-      <c r="H32" s="38"/>
-      <c r="I32" s="38"/>
-      <c r="J32" s="38"/>
-      <c r="K32" s="38"/>
-      <c r="L32" s="38"/>
-      <c r="M32" s="38"/>
-      <c r="N32" s="38"/>
-      <c r="O32" s="38"/>
-      <c r="P32" s="39"/>
-      <c r="Q32" s="39"/>
-      <c r="R32" s="39"/>
-      <c r="S32" s="39"/>
-      <c r="T32" s="39"/>
-      <c r="U32" s="39"/>
-      <c r="V32" s="39"/>
-      <c r="W32" s="39"/>
-      <c r="X32" s="39"/>
-      <c r="Y32" s="39"/>
-      <c r="Z32" s="39"/>
-      <c r="AA32" s="39"/>
-      <c r="AB32" s="39"/>
-      <c r="AC32" s="39"/>
-      <c r="AD32" s="39"/>
-      <c r="AE32" s="39"/>
-      <c r="AF32" s="39"/>
-      <c r="AG32" s="39"/>
-      <c r="AH32" s="39"/>
-      <c r="AI32" s="39"/>
-      <c r="AJ32" s="39"/>
-      <c r="AK32" s="39"/>
-      <c r="AL32" s="39"/>
-      <c r="AM32" s="39"/>
-      <c r="AN32" s="39"/>
-      <c r="AO32" s="39"/>
-      <c r="AP32" s="39"/>
-      <c r="AQ32" s="39"/>
-      <c r="AR32" s="39"/>
-      <c r="AS32" s="39"/>
-      <c r="AT32" s="39"/>
-      <c r="AU32" s="39"/>
-      <c r="AV32" s="39"/>
-      <c r="AW32" s="39"/>
-      <c r="AX32" s="39"/>
-      <c r="AY32" s="39"/>
-      <c r="AZ32" s="39"/>
-      <c r="BA32" s="39"/>
-      <c r="BB32" s="39"/>
-      <c r="BC32" s="39"/>
-      <c r="BD32" s="39"/>
-      <c r="BE32" s="39"/>
-      <c r="BF32" s="39"/>
-      <c r="BG32" s="39"/>
-      <c r="BH32" s="39"/>
-      <c r="BI32" s="39"/>
-      <c r="BJ32" s="39"/>
-      <c r="BK32" s="39"/>
-      <c r="BL32" s="39"/>
-      <c r="BM32" s="39"/>
-      <c r="BN32" s="39"/>
-      <c r="BO32" s="39"/>
-      <c r="BP32" s="39"/>
-      <c r="BQ32" s="39"/>
-      <c r="BR32" s="39"/>
-      <c r="BS32" s="39"/>
-      <c r="BT32" s="39"/>
-      <c r="BU32" s="39"/>
-      <c r="BV32" s="39"/>
-      <c r="BW32" s="39"/>
-      <c r="BX32" s="39"/>
-      <c r="BY32" s="39"/>
-      <c r="BZ32" s="39"/>
-      <c r="CA32" s="39"/>
-      <c r="CB32" s="39"/>
-      <c r="CC32" s="39"/>
-      <c r="CD32" s="39"/>
-      <c r="CE32" s="39"/>
-      <c r="CF32" s="39"/>
-      <c r="CG32" s="39"/>
-      <c r="CH32" s="39"/>
-      <c r="CI32" s="39"/>
-      <c r="CJ32" s="39"/>
-      <c r="CK32" s="39"/>
-      <c r="CL32" s="39"/>
-      <c r="CM32" s="39"/>
-      <c r="CN32" s="39"/>
+      <c r="A32" s="80"/>
+      <c r="B32" s="84"/>
+      <c r="C32" s="36"/>
+      <c r="D32" s="82"/>
+      <c r="E32" s="83"/>
+      <c r="F32" s="36"/>
+      <c r="G32" s="36"/>
+      <c r="H32" s="36"/>
+      <c r="I32" s="36"/>
+      <c r="J32" s="36"/>
+      <c r="K32" s="36"/>
+      <c r="L32" s="36"/>
+      <c r="M32" s="36"/>
+      <c r="N32" s="36"/>
+      <c r="O32" s="36"/>
+      <c r="P32" s="37"/>
+      <c r="Q32" s="37"/>
+      <c r="R32" s="37"/>
+      <c r="S32" s="37"/>
+      <c r="T32" s="37"/>
+      <c r="U32" s="37"/>
+      <c r="V32" s="37"/>
+      <c r="W32" s="37"/>
+      <c r="X32" s="37"/>
+      <c r="Y32" s="37"/>
+      <c r="Z32" s="37"/>
+      <c r="AA32" s="37"/>
+      <c r="AB32" s="37"/>
+      <c r="AC32" s="37"/>
+      <c r="AD32" s="37"/>
+      <c r="AE32" s="37"/>
+      <c r="AF32" s="37"/>
+      <c r="AG32" s="37"/>
+      <c r="AH32" s="37"/>
+      <c r="AI32" s="37"/>
+      <c r="AJ32" s="37"/>
+      <c r="AK32" s="37"/>
+      <c r="AL32" s="37"/>
+      <c r="AM32" s="37"/>
+      <c r="AN32" s="37"/>
+      <c r="AO32" s="37"/>
+      <c r="AP32" s="37"/>
+      <c r="AQ32" s="37"/>
+      <c r="AR32" s="37"/>
+      <c r="AS32" s="37"/>
+      <c r="AT32" s="37"/>
+      <c r="AU32" s="37"/>
+      <c r="AV32" s="37"/>
+      <c r="AW32" s="37"/>
+      <c r="AX32" s="37"/>
+      <c r="AY32" s="37"/>
+      <c r="AZ32" s="37"/>
+      <c r="BA32" s="37"/>
+      <c r="BB32" s="37"/>
+      <c r="BC32" s="37"/>
+      <c r="BD32" s="37"/>
+      <c r="BE32" s="37"/>
+      <c r="BF32" s="37"/>
+      <c r="BG32" s="37"/>
+      <c r="BH32" s="37"/>
+      <c r="BI32" s="37"/>
+      <c r="BJ32" s="37"/>
+      <c r="BK32" s="37"/>
+      <c r="BL32" s="37"/>
+      <c r="BM32" s="37"/>
+      <c r="BN32" s="37"/>
+      <c r="BO32" s="37"/>
+      <c r="BP32" s="37"/>
+      <c r="BQ32" s="37"/>
+      <c r="BR32" s="37"/>
+      <c r="BS32" s="37"/>
+      <c r="BT32" s="37"/>
+      <c r="BU32" s="37"/>
+      <c r="BV32" s="37"/>
+      <c r="BW32" s="37"/>
+      <c r="BX32" s="37"/>
+      <c r="BY32" s="37"/>
+      <c r="BZ32" s="37"/>
+      <c r="CA32" s="37"/>
+      <c r="CB32" s="37"/>
+      <c r="CC32" s="37"/>
+      <c r="CD32" s="37"/>
+      <c r="CE32" s="37"/>
+      <c r="CF32" s="37"/>
+      <c r="CG32" s="37"/>
+      <c r="CH32" s="37"/>
+      <c r="CI32" s="37"/>
+      <c r="CJ32" s="37"/>
+      <c r="CK32" s="37"/>
+      <c r="CL32" s="37"/>
+      <c r="CM32" s="37"/>
+      <c r="CN32" s="37"/>
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="85"/>
-      <c r="B33" s="89"/>
-      <c r="C33" s="38"/>
-      <c r="D33" s="87"/>
-      <c r="E33" s="88"/>
-      <c r="F33" s="38"/>
-      <c r="G33" s="38"/>
-      <c r="H33" s="38"/>
-      <c r="I33" s="38"/>
-      <c r="J33" s="38"/>
-      <c r="K33" s="38"/>
-      <c r="L33" s="38"/>
-      <c r="M33" s="38"/>
-      <c r="N33" s="38"/>
-      <c r="O33" s="38"/>
-      <c r="P33" s="39"/>
-      <c r="Q33" s="39"/>
-      <c r="R33" s="39"/>
-      <c r="S33" s="39"/>
-      <c r="T33" s="39"/>
-      <c r="U33" s="39"/>
-      <c r="V33" s="39"/>
-      <c r="W33" s="39"/>
-      <c r="X33" s="39"/>
-      <c r="Y33" s="39"/>
-      <c r="Z33" s="39"/>
-      <c r="AA33" s="39"/>
-      <c r="AB33" s="39"/>
-      <c r="AC33" s="39"/>
-      <c r="AD33" s="39"/>
-      <c r="AE33" s="39"/>
-      <c r="AF33" s="39"/>
-      <c r="AG33" s="39"/>
-      <c r="AH33" s="39"/>
-      <c r="AI33" s="39"/>
-      <c r="AJ33" s="39"/>
-      <c r="AK33" s="39"/>
-      <c r="AL33" s="39"/>
-      <c r="AM33" s="39"/>
-      <c r="AN33" s="39"/>
-      <c r="AO33" s="39"/>
-      <c r="AP33" s="39"/>
-      <c r="AQ33" s="39"/>
-      <c r="AR33" s="39"/>
-      <c r="AS33" s="39"/>
-      <c r="AT33" s="39"/>
-      <c r="AU33" s="39"/>
-      <c r="AV33" s="39"/>
-      <c r="AW33" s="39"/>
-      <c r="AX33" s="39"/>
-      <c r="AY33" s="39"/>
-      <c r="AZ33" s="39"/>
-      <c r="BA33" s="39"/>
-      <c r="BB33" s="39"/>
-      <c r="BC33" s="39"/>
-      <c r="BD33" s="39"/>
-      <c r="BE33" s="39"/>
-      <c r="BF33" s="39"/>
-      <c r="BG33" s="39"/>
-      <c r="BH33" s="39"/>
-      <c r="BI33" s="39"/>
-      <c r="BJ33" s="39"/>
-      <c r="BK33" s="39"/>
-      <c r="BL33" s="39"/>
-      <c r="BM33" s="39"/>
-      <c r="BN33" s="39"/>
-      <c r="BO33" s="39"/>
-      <c r="BP33" s="39"/>
-      <c r="BQ33" s="39"/>
-      <c r="BR33" s="39"/>
-      <c r="BS33" s="39"/>
-      <c r="BT33" s="39"/>
-      <c r="BU33" s="39"/>
-      <c r="BV33" s="39"/>
-      <c r="BW33" s="39"/>
-      <c r="BX33" s="39"/>
-      <c r="BY33" s="39"/>
-      <c r="BZ33" s="39"/>
-      <c r="CA33" s="39"/>
-      <c r="CB33" s="39"/>
-      <c r="CC33" s="39"/>
-      <c r="CD33" s="39"/>
-      <c r="CE33" s="39"/>
-      <c r="CF33" s="39"/>
-      <c r="CG33" s="39"/>
-      <c r="CH33" s="39"/>
-      <c r="CI33" s="39"/>
-      <c r="CJ33" s="39"/>
-      <c r="CK33" s="39"/>
-      <c r="CL33" s="39"/>
-      <c r="CM33" s="39"/>
-      <c r="CN33" s="39"/>
+      <c r="A33" s="80"/>
+      <c r="B33" s="84"/>
+      <c r="C33" s="36"/>
+      <c r="D33" s="82"/>
+      <c r="E33" s="83"/>
+      <c r="F33" s="36"/>
+      <c r="G33" s="36"/>
+      <c r="H33" s="36"/>
+      <c r="I33" s="36"/>
+      <c r="J33" s="36"/>
+      <c r="K33" s="36"/>
+      <c r="L33" s="36"/>
+      <c r="M33" s="36"/>
+      <c r="N33" s="36"/>
+      <c r="O33" s="36"/>
+      <c r="P33" s="37"/>
+      <c r="Q33" s="37"/>
+      <c r="R33" s="37"/>
+      <c r="S33" s="37"/>
+      <c r="T33" s="37"/>
+      <c r="U33" s="37"/>
+      <c r="V33" s="37"/>
+      <c r="W33" s="37"/>
+      <c r="X33" s="37"/>
+      <c r="Y33" s="37"/>
+      <c r="Z33" s="37"/>
+      <c r="AA33" s="37"/>
+      <c r="AB33" s="37"/>
+      <c r="AC33" s="37"/>
+      <c r="AD33" s="37"/>
+      <c r="AE33" s="37"/>
+      <c r="AF33" s="37"/>
+      <c r="AG33" s="37"/>
+      <c r="AH33" s="37"/>
+      <c r="AI33" s="37"/>
+      <c r="AJ33" s="37"/>
+      <c r="AK33" s="37"/>
+      <c r="AL33" s="37"/>
+      <c r="AM33" s="37"/>
+      <c r="AN33" s="37"/>
+      <c r="AO33" s="37"/>
+      <c r="AP33" s="37"/>
+      <c r="AQ33" s="37"/>
+      <c r="AR33" s="37"/>
+      <c r="AS33" s="37"/>
+      <c r="AT33" s="37"/>
+      <c r="AU33" s="37"/>
+      <c r="AV33" s="37"/>
+      <c r="AW33" s="37"/>
+      <c r="AX33" s="37"/>
+      <c r="AY33" s="37"/>
+      <c r="AZ33" s="37"/>
+      <c r="BA33" s="37"/>
+      <c r="BB33" s="37"/>
+      <c r="BC33" s="37"/>
+      <c r="BD33" s="37"/>
+      <c r="BE33" s="37"/>
+      <c r="BF33" s="37"/>
+      <c r="BG33" s="37"/>
+      <c r="BH33" s="37"/>
+      <c r="BI33" s="37"/>
+      <c r="BJ33" s="37"/>
+      <c r="BK33" s="37"/>
+      <c r="BL33" s="37"/>
+      <c r="BM33" s="37"/>
+      <c r="BN33" s="37"/>
+      <c r="BO33" s="37"/>
+      <c r="BP33" s="37"/>
+      <c r="BQ33" s="37"/>
+      <c r="BR33" s="37"/>
+      <c r="BS33" s="37"/>
+      <c r="BT33" s="37"/>
+      <c r="BU33" s="37"/>
+      <c r="BV33" s="37"/>
+      <c r="BW33" s="37"/>
+      <c r="BX33" s="37"/>
+      <c r="BY33" s="37"/>
+      <c r="BZ33" s="37"/>
+      <c r="CA33" s="37"/>
+      <c r="CB33" s="37"/>
+      <c r="CC33" s="37"/>
+      <c r="CD33" s="37"/>
+      <c r="CE33" s="37"/>
+      <c r="CF33" s="37"/>
+      <c r="CG33" s="37"/>
+      <c r="CH33" s="37"/>
+      <c r="CI33" s="37"/>
+      <c r="CJ33" s="37"/>
+      <c r="CK33" s="37"/>
+      <c r="CL33" s="37"/>
+      <c r="CM33" s="37"/>
+      <c r="CN33" s="37"/>
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="85"/>
-      <c r="B34" s="89"/>
-      <c r="C34" s="38"/>
-      <c r="D34" s="87"/>
-      <c r="E34" s="88"/>
-      <c r="F34" s="38"/>
-      <c r="G34" s="38"/>
-      <c r="H34" s="38"/>
-      <c r="I34" s="38"/>
-      <c r="J34" s="38"/>
-      <c r="K34" s="38"/>
-      <c r="L34" s="38"/>
-      <c r="M34" s="38"/>
-      <c r="N34" s="38"/>
-      <c r="O34" s="38"/>
-      <c r="P34" s="39"/>
-      <c r="Q34" s="39"/>
-      <c r="R34" s="39"/>
-      <c r="S34" s="39"/>
-      <c r="T34" s="39"/>
-      <c r="U34" s="39"/>
-      <c r="V34" s="39"/>
-      <c r="W34" s="39"/>
-      <c r="X34" s="39"/>
-      <c r="Y34" s="39"/>
-      <c r="Z34" s="39"/>
-      <c r="AA34" s="39"/>
-      <c r="AB34" s="39"/>
-      <c r="AC34" s="39"/>
-      <c r="AD34" s="39"/>
-      <c r="AE34" s="39"/>
-      <c r="AF34" s="39"/>
-      <c r="AG34" s="39"/>
-      <c r="AH34" s="39"/>
-      <c r="AI34" s="39"/>
-      <c r="AJ34" s="39"/>
-      <c r="AK34" s="39"/>
-      <c r="AL34" s="39"/>
-      <c r="AM34" s="39"/>
-      <c r="AN34" s="39"/>
-      <c r="AO34" s="39"/>
-      <c r="AP34" s="39"/>
-      <c r="AQ34" s="39"/>
-      <c r="AR34" s="39"/>
-      <c r="AS34" s="39"/>
-      <c r="AT34" s="39"/>
-      <c r="AU34" s="39"/>
-      <c r="AV34" s="39"/>
-      <c r="AW34" s="39"/>
-      <c r="AX34" s="39"/>
-      <c r="AY34" s="39"/>
-      <c r="AZ34" s="39"/>
-      <c r="BA34" s="39"/>
-      <c r="BB34" s="39"/>
-      <c r="BC34" s="39"/>
-      <c r="BD34" s="39"/>
-      <c r="BE34" s="39"/>
-      <c r="BF34" s="39"/>
-      <c r="BG34" s="39"/>
-      <c r="BH34" s="39"/>
-      <c r="BI34" s="39"/>
-      <c r="BJ34" s="39"/>
-      <c r="BK34" s="39"/>
-      <c r="BL34" s="39"/>
-      <c r="BM34" s="39"/>
-      <c r="BN34" s="39"/>
-      <c r="BO34" s="39"/>
-      <c r="BP34" s="39"/>
-      <c r="BQ34" s="39"/>
-      <c r="BR34" s="39"/>
-      <c r="BS34" s="39"/>
-      <c r="BT34" s="39"/>
-      <c r="BU34" s="39"/>
-      <c r="BV34" s="39"/>
-      <c r="BW34" s="39"/>
-      <c r="BX34" s="39"/>
-      <c r="BY34" s="39"/>
-      <c r="BZ34" s="39"/>
-      <c r="CA34" s="39"/>
-      <c r="CB34" s="39"/>
-      <c r="CC34" s="39"/>
-      <c r="CD34" s="39"/>
-      <c r="CE34" s="39"/>
-      <c r="CF34" s="39"/>
-      <c r="CG34" s="39"/>
-      <c r="CH34" s="39"/>
-      <c r="CI34" s="39"/>
-      <c r="CJ34" s="39"/>
-      <c r="CK34" s="39"/>
-      <c r="CL34" s="39"/>
-      <c r="CM34" s="39"/>
-      <c r="CN34" s="39"/>
+      <c r="A34" s="80"/>
+      <c r="B34" s="84"/>
+      <c r="C34" s="36"/>
+      <c r="D34" s="82"/>
+      <c r="E34" s="83"/>
+      <c r="F34" s="36"/>
+      <c r="G34" s="36"/>
+      <c r="H34" s="36"/>
+      <c r="I34" s="36"/>
+      <c r="J34" s="36"/>
+      <c r="K34" s="36"/>
+      <c r="L34" s="36"/>
+      <c r="M34" s="36"/>
+      <c r="N34" s="36"/>
+      <c r="O34" s="36"/>
+      <c r="P34" s="37"/>
+      <c r="Q34" s="37"/>
+      <c r="R34" s="37"/>
+      <c r="S34" s="37"/>
+      <c r="T34" s="37"/>
+      <c r="U34" s="37"/>
+      <c r="V34" s="37"/>
+      <c r="W34" s="37"/>
+      <c r="X34" s="37"/>
+      <c r="Y34" s="37"/>
+      <c r="Z34" s="37"/>
+      <c r="AA34" s="37"/>
+      <c r="AB34" s="37"/>
+      <c r="AC34" s="37"/>
+      <c r="AD34" s="37"/>
+      <c r="AE34" s="37"/>
+      <c r="AF34" s="37"/>
+      <c r="AG34" s="37"/>
+      <c r="AH34" s="37"/>
+      <c r="AI34" s="37"/>
+      <c r="AJ34" s="37"/>
+      <c r="AK34" s="37"/>
+      <c r="AL34" s="37"/>
+      <c r="AM34" s="37"/>
+      <c r="AN34" s="37"/>
+      <c r="AO34" s="37"/>
+      <c r="AP34" s="37"/>
+      <c r="AQ34" s="37"/>
+      <c r="AR34" s="37"/>
+      <c r="AS34" s="37"/>
+      <c r="AT34" s="37"/>
+      <c r="AU34" s="37"/>
+      <c r="AV34" s="37"/>
+      <c r="AW34" s="37"/>
+      <c r="AX34" s="37"/>
+      <c r="AY34" s="37"/>
+      <c r="AZ34" s="37"/>
+      <c r="BA34" s="37"/>
+      <c r="BB34" s="37"/>
+      <c r="BC34" s="37"/>
+      <c r="BD34" s="37"/>
+      <c r="BE34" s="37"/>
+      <c r="BF34" s="37"/>
+      <c r="BG34" s="37"/>
+      <c r="BH34" s="37"/>
+      <c r="BI34" s="37"/>
+      <c r="BJ34" s="37"/>
+      <c r="BK34" s="37"/>
+      <c r="BL34" s="37"/>
+      <c r="BM34" s="37"/>
+      <c r="BN34" s="37"/>
+      <c r="BO34" s="37"/>
+      <c r="BP34" s="37"/>
+      <c r="BQ34" s="37"/>
+      <c r="BR34" s="37"/>
+      <c r="BS34" s="37"/>
+      <c r="BT34" s="37"/>
+      <c r="BU34" s="37"/>
+      <c r="BV34" s="37"/>
+      <c r="BW34" s="37"/>
+      <c r="BX34" s="37"/>
+      <c r="BY34" s="37"/>
+      <c r="BZ34" s="37"/>
+      <c r="CA34" s="37"/>
+      <c r="CB34" s="37"/>
+      <c r="CC34" s="37"/>
+      <c r="CD34" s="37"/>
+      <c r="CE34" s="37"/>
+      <c r="CF34" s="37"/>
+      <c r="CG34" s="37"/>
+      <c r="CH34" s="37"/>
+      <c r="CI34" s="37"/>
+      <c r="CJ34" s="37"/>
+      <c r="CK34" s="37"/>
+      <c r="CL34" s="37"/>
+      <c r="CM34" s="37"/>
+      <c r="CN34" s="37"/>
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="85"/>
-      <c r="B35" s="89"/>
-      <c r="C35" s="38"/>
-      <c r="D35" s="87"/>
-      <c r="E35" s="88"/>
-      <c r="F35" s="38"/>
-      <c r="G35" s="38"/>
-      <c r="H35" s="38"/>
-      <c r="I35" s="38"/>
-      <c r="J35" s="38"/>
-      <c r="K35" s="38"/>
-      <c r="L35" s="38"/>
-      <c r="M35" s="38"/>
-      <c r="N35" s="38"/>
-      <c r="O35" s="38"/>
-      <c r="P35" s="39"/>
-      <c r="Q35" s="39"/>
-      <c r="R35" s="39"/>
-      <c r="S35" s="39"/>
-      <c r="T35" s="39"/>
-      <c r="U35" s="39"/>
-      <c r="V35" s="39"/>
-      <c r="W35" s="39"/>
-      <c r="X35" s="39"/>
-      <c r="Y35" s="39"/>
-      <c r="Z35" s="39"/>
-      <c r="AA35" s="39"/>
-      <c r="AB35" s="39"/>
-      <c r="AC35" s="39"/>
-      <c r="AD35" s="39"/>
-      <c r="AE35" s="39"/>
-      <c r="AF35" s="39"/>
-      <c r="AG35" s="39"/>
-      <c r="AH35" s="39"/>
-      <c r="AI35" s="39"/>
-      <c r="AJ35" s="39"/>
-      <c r="AK35" s="39"/>
-      <c r="AL35" s="39"/>
-      <c r="AM35" s="39"/>
-      <c r="AN35" s="39"/>
-      <c r="AO35" s="39"/>
-      <c r="AP35" s="39"/>
-      <c r="AQ35" s="39"/>
-      <c r="AR35" s="39"/>
-      <c r="AS35" s="39"/>
-      <c r="AT35" s="39"/>
-      <c r="AU35" s="39"/>
-      <c r="AV35" s="39"/>
-      <c r="AW35" s="39"/>
-      <c r="AX35" s="39"/>
-      <c r="AY35" s="39"/>
-      <c r="AZ35" s="39"/>
-      <c r="BA35" s="39"/>
-      <c r="BB35" s="39"/>
-      <c r="BC35" s="39"/>
-      <c r="BD35" s="39"/>
-      <c r="BE35" s="39"/>
-      <c r="BF35" s="39"/>
-      <c r="BG35" s="39"/>
-      <c r="BH35" s="39"/>
-      <c r="BI35" s="39"/>
-      <c r="BJ35" s="39"/>
-      <c r="BK35" s="39"/>
-      <c r="BL35" s="39"/>
-      <c r="BM35" s="39"/>
-      <c r="BN35" s="39"/>
-      <c r="BO35" s="39"/>
-      <c r="BP35" s="39"/>
-      <c r="BQ35" s="39"/>
-      <c r="BR35" s="39"/>
-      <c r="BS35" s="39"/>
-      <c r="BT35" s="39"/>
-      <c r="BU35" s="39"/>
-      <c r="BV35" s="39"/>
-      <c r="BW35" s="39"/>
-      <c r="BX35" s="39"/>
-      <c r="BY35" s="39"/>
-      <c r="BZ35" s="39"/>
-      <c r="CA35" s="39"/>
-      <c r="CB35" s="39"/>
-      <c r="CC35" s="39"/>
-      <c r="CD35" s="39"/>
-      <c r="CE35" s="39"/>
-      <c r="CF35" s="39"/>
-      <c r="CG35" s="39"/>
-      <c r="CH35" s="39"/>
-      <c r="CI35" s="39"/>
-      <c r="CJ35" s="39"/>
-      <c r="CK35" s="39"/>
-      <c r="CL35" s="39"/>
-      <c r="CM35" s="39"/>
-      <c r="CN35" s="39"/>
+      <c r="A35" s="80"/>
+      <c r="B35" s="84"/>
+      <c r="C35" s="36"/>
+      <c r="D35" s="82"/>
+      <c r="E35" s="83"/>
+      <c r="F35" s="36"/>
+      <c r="G35" s="36"/>
+      <c r="H35" s="36"/>
+      <c r="I35" s="36"/>
+      <c r="J35" s="36"/>
+      <c r="K35" s="36"/>
+      <c r="L35" s="36"/>
+      <c r="M35" s="36"/>
+      <c r="N35" s="36"/>
+      <c r="O35" s="36"/>
+      <c r="P35" s="37"/>
+      <c r="Q35" s="37"/>
+      <c r="R35" s="37"/>
+      <c r="S35" s="37"/>
+      <c r="T35" s="37"/>
+      <c r="U35" s="37"/>
+      <c r="V35" s="37"/>
+      <c r="W35" s="37"/>
+      <c r="X35" s="37"/>
+      <c r="Y35" s="37"/>
+      <c r="Z35" s="37"/>
+      <c r="AA35" s="37"/>
+      <c r="AB35" s="37"/>
+      <c r="AC35" s="37"/>
+      <c r="AD35" s="37"/>
+      <c r="AE35" s="37"/>
+      <c r="AF35" s="37"/>
+      <c r="AG35" s="37"/>
+      <c r="AH35" s="37"/>
+      <c r="AI35" s="37"/>
+      <c r="AJ35" s="37"/>
+      <c r="AK35" s="37"/>
+      <c r="AL35" s="37"/>
+      <c r="AM35" s="37"/>
+      <c r="AN35" s="37"/>
+      <c r="AO35" s="37"/>
+      <c r="AP35" s="37"/>
+      <c r="AQ35" s="37"/>
+      <c r="AR35" s="37"/>
+      <c r="AS35" s="37"/>
+      <c r="AT35" s="37"/>
+      <c r="AU35" s="37"/>
+      <c r="AV35" s="37"/>
+      <c r="AW35" s="37"/>
+      <c r="AX35" s="37"/>
+      <c r="AY35" s="37"/>
+      <c r="AZ35" s="37"/>
+      <c r="BA35" s="37"/>
+      <c r="BB35" s="37"/>
+      <c r="BC35" s="37"/>
+      <c r="BD35" s="37"/>
+      <c r="BE35" s="37"/>
+      <c r="BF35" s="37"/>
+      <c r="BG35" s="37"/>
+      <c r="BH35" s="37"/>
+      <c r="BI35" s="37"/>
+      <c r="BJ35" s="37"/>
+      <c r="BK35" s="37"/>
+      <c r="BL35" s="37"/>
+      <c r="BM35" s="37"/>
+      <c r="BN35" s="37"/>
+      <c r="BO35" s="37"/>
+      <c r="BP35" s="37"/>
+      <c r="BQ35" s="37"/>
+      <c r="BR35" s="37"/>
+      <c r="BS35" s="37"/>
+      <c r="BT35" s="37"/>
+      <c r="BU35" s="37"/>
+      <c r="BV35" s="37"/>
+      <c r="BW35" s="37"/>
+      <c r="BX35" s="37"/>
+      <c r="BY35" s="37"/>
+      <c r="BZ35" s="37"/>
+      <c r="CA35" s="37"/>
+      <c r="CB35" s="37"/>
+      <c r="CC35" s="37"/>
+      <c r="CD35" s="37"/>
+      <c r="CE35" s="37"/>
+      <c r="CF35" s="37"/>
+      <c r="CG35" s="37"/>
+      <c r="CH35" s="37"/>
+      <c r="CI35" s="37"/>
+      <c r="CJ35" s="37"/>
+      <c r="CK35" s="37"/>
+      <c r="CL35" s="37"/>
+      <c r="CM35" s="37"/>
+      <c r="CN35" s="37"/>
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="85"/>
-      <c r="B36" s="89"/>
-      <c r="C36" s="38"/>
-      <c r="D36" s="87"/>
-      <c r="E36" s="88"/>
-      <c r="F36" s="38"/>
-      <c r="G36" s="38"/>
-      <c r="H36" s="38"/>
-      <c r="I36" s="38"/>
-      <c r="J36" s="38"/>
-      <c r="K36" s="38"/>
-      <c r="L36" s="38"/>
-      <c r="M36" s="38"/>
-      <c r="N36" s="38"/>
-      <c r="O36" s="38"/>
-      <c r="P36" s="39"/>
-      <c r="Q36" s="39"/>
-      <c r="R36" s="39"/>
-      <c r="S36" s="39"/>
-      <c r="T36" s="39"/>
-      <c r="U36" s="39"/>
-      <c r="V36" s="39"/>
-      <c r="W36" s="39"/>
-      <c r="X36" s="39"/>
-      <c r="Y36" s="39"/>
-      <c r="Z36" s="39"/>
-      <c r="AA36" s="39"/>
-      <c r="AB36" s="39"/>
-      <c r="AC36" s="39"/>
-      <c r="AD36" s="39"/>
-      <c r="AE36" s="39"/>
-      <c r="AF36" s="39"/>
-      <c r="AG36" s="39"/>
-      <c r="AH36" s="39"/>
-      <c r="AI36" s="39"/>
-      <c r="AJ36" s="39"/>
-      <c r="AK36" s="39"/>
-      <c r="AL36" s="39"/>
-      <c r="AM36" s="39"/>
-      <c r="AN36" s="39"/>
-      <c r="AO36" s="39"/>
-      <c r="AP36" s="39"/>
-      <c r="AQ36" s="39"/>
-      <c r="AR36" s="39"/>
-      <c r="AS36" s="39"/>
-      <c r="AT36" s="39"/>
-      <c r="AU36" s="39"/>
-      <c r="AV36" s="39"/>
-      <c r="AW36" s="39"/>
-      <c r="AX36" s="39"/>
-      <c r="AY36" s="39"/>
-      <c r="AZ36" s="39"/>
-      <c r="BA36" s="39"/>
-      <c r="BB36" s="39"/>
-      <c r="BC36" s="39"/>
-      <c r="BD36" s="39"/>
-      <c r="BE36" s="39"/>
-      <c r="BF36" s="39"/>
-      <c r="BG36" s="39"/>
-      <c r="BH36" s="39"/>
-      <c r="BI36" s="39"/>
-      <c r="BJ36" s="39"/>
-      <c r="BK36" s="39"/>
-      <c r="BL36" s="39"/>
-      <c r="BM36" s="39"/>
-      <c r="BN36" s="39"/>
-      <c r="BO36" s="39"/>
-      <c r="BP36" s="39"/>
-      <c r="BQ36" s="39"/>
-      <c r="BR36" s="39"/>
-      <c r="BS36" s="39"/>
-      <c r="BT36" s="39"/>
-      <c r="BU36" s="39"/>
-      <c r="BV36" s="39"/>
-      <c r="BW36" s="39"/>
-      <c r="BX36" s="39"/>
-      <c r="BY36" s="39"/>
-      <c r="BZ36" s="39"/>
-      <c r="CA36" s="39"/>
-      <c r="CB36" s="39"/>
-      <c r="CC36" s="39"/>
-      <c r="CD36" s="39"/>
-      <c r="CE36" s="39"/>
-      <c r="CF36" s="39"/>
-      <c r="CG36" s="39"/>
-      <c r="CH36" s="39"/>
-      <c r="CI36" s="39"/>
-      <c r="CJ36" s="39"/>
-      <c r="CK36" s="39"/>
-      <c r="CL36" s="39"/>
-      <c r="CM36" s="39"/>
-      <c r="CN36" s="39"/>
+      <c r="A36" s="80"/>
+      <c r="B36" s="84"/>
+      <c r="C36" s="36"/>
+      <c r="D36" s="82"/>
+      <c r="E36" s="83"/>
+      <c r="F36" s="36"/>
+      <c r="G36" s="36"/>
+      <c r="H36" s="36"/>
+      <c r="I36" s="36"/>
+      <c r="J36" s="36"/>
+      <c r="K36" s="36"/>
+      <c r="L36" s="36"/>
+      <c r="M36" s="36"/>
+      <c r="N36" s="36"/>
+      <c r="O36" s="36"/>
+      <c r="P36" s="37"/>
+      <c r="Q36" s="37"/>
+      <c r="R36" s="37"/>
+      <c r="S36" s="37"/>
+      <c r="T36" s="37"/>
+      <c r="U36" s="37"/>
+      <c r="V36" s="37"/>
+      <c r="W36" s="37"/>
+      <c r="X36" s="37"/>
+      <c r="Y36" s="37"/>
+      <c r="Z36" s="37"/>
+      <c r="AA36" s="37"/>
+      <c r="AB36" s="37"/>
+      <c r="AC36" s="37"/>
+      <c r="AD36" s="37"/>
+      <c r="AE36" s="37"/>
+      <c r="AF36" s="37"/>
+      <c r="AG36" s="37"/>
+      <c r="AH36" s="37"/>
+      <c r="AI36" s="37"/>
+      <c r="AJ36" s="37"/>
+      <c r="AK36" s="37"/>
+      <c r="AL36" s="37"/>
+      <c r="AM36" s="37"/>
+      <c r="AN36" s="37"/>
+      <c r="AO36" s="37"/>
+      <c r="AP36" s="37"/>
+      <c r="AQ36" s="37"/>
+      <c r="AR36" s="37"/>
+      <c r="AS36" s="37"/>
+      <c r="AT36" s="37"/>
+      <c r="AU36" s="37"/>
+      <c r="AV36" s="37"/>
+      <c r="AW36" s="37"/>
+      <c r="AX36" s="37"/>
+      <c r="AY36" s="37"/>
+      <c r="AZ36" s="37"/>
+      <c r="BA36" s="37"/>
+      <c r="BB36" s="37"/>
+      <c r="BC36" s="37"/>
+      <c r="BD36" s="37"/>
+      <c r="BE36" s="37"/>
+      <c r="BF36" s="37"/>
+      <c r="BG36" s="37"/>
+      <c r="BH36" s="37"/>
+      <c r="BI36" s="37"/>
+      <c r="BJ36" s="37"/>
+      <c r="BK36" s="37"/>
+      <c r="BL36" s="37"/>
+      <c r="BM36" s="37"/>
+      <c r="BN36" s="37"/>
+      <c r="BO36" s="37"/>
+      <c r="BP36" s="37"/>
+      <c r="BQ36" s="37"/>
+      <c r="BR36" s="37"/>
+      <c r="BS36" s="37"/>
+      <c r="BT36" s="37"/>
+      <c r="BU36" s="37"/>
+      <c r="BV36" s="37"/>
+      <c r="BW36" s="37"/>
+      <c r="BX36" s="37"/>
+      <c r="BY36" s="37"/>
+      <c r="BZ36" s="37"/>
+      <c r="CA36" s="37"/>
+      <c r="CB36" s="37"/>
+      <c r="CC36" s="37"/>
+      <c r="CD36" s="37"/>
+      <c r="CE36" s="37"/>
+      <c r="CF36" s="37"/>
+      <c r="CG36" s="37"/>
+      <c r="CH36" s="37"/>
+      <c r="CI36" s="37"/>
+      <c r="CJ36" s="37"/>
+      <c r="CK36" s="37"/>
+      <c r="CL36" s="37"/>
+      <c r="CM36" s="37"/>
+      <c r="CN36" s="37"/>
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="85"/>
-      <c r="B37" s="89"/>
-      <c r="C37" s="38"/>
-      <c r="D37" s="87"/>
-      <c r="E37" s="88"/>
-      <c r="F37" s="38"/>
-      <c r="G37" s="38"/>
-      <c r="H37" s="38"/>
-      <c r="I37" s="38"/>
-      <c r="J37" s="38"/>
-      <c r="K37" s="38"/>
-      <c r="L37" s="38"/>
-      <c r="M37" s="38"/>
-      <c r="N37" s="38"/>
-      <c r="O37" s="38"/>
-      <c r="P37" s="39"/>
-      <c r="Q37" s="39"/>
-      <c r="R37" s="39"/>
-      <c r="S37" s="39"/>
-      <c r="T37" s="39"/>
-      <c r="U37" s="39"/>
-      <c r="V37" s="39"/>
-      <c r="W37" s="39"/>
-      <c r="X37" s="39"/>
-      <c r="Y37" s="39"/>
-      <c r="Z37" s="39"/>
-      <c r="AA37" s="39"/>
-      <c r="AB37" s="39"/>
-      <c r="AC37" s="39"/>
-      <c r="AD37" s="39"/>
-      <c r="AE37" s="39"/>
-      <c r="AF37" s="39"/>
-      <c r="AG37" s="39"/>
-      <c r="AH37" s="39"/>
-      <c r="AI37" s="39"/>
-      <c r="AJ37" s="39"/>
-      <c r="AK37" s="39"/>
-      <c r="AL37" s="39"/>
-      <c r="AM37" s="39"/>
-      <c r="AN37" s="39"/>
-      <c r="AO37" s="39"/>
-      <c r="AP37" s="39"/>
-      <c r="AQ37" s="39"/>
-      <c r="AR37" s="39"/>
-      <c r="AS37" s="39"/>
-      <c r="AT37" s="39"/>
-      <c r="AU37" s="39"/>
-      <c r="AV37" s="39"/>
-      <c r="AW37" s="39"/>
-      <c r="AX37" s="39"/>
-      <c r="AY37" s="39"/>
-      <c r="AZ37" s="39"/>
-      <c r="BA37" s="39"/>
-      <c r="BB37" s="39"/>
-      <c r="BC37" s="39"/>
-      <c r="BD37" s="39"/>
-      <c r="BE37" s="39"/>
-      <c r="BF37" s="39"/>
-      <c r="BG37" s="39"/>
-      <c r="BH37" s="39"/>
-      <c r="BI37" s="39"/>
-      <c r="BJ37" s="39"/>
-      <c r="BK37" s="39"/>
-      <c r="BL37" s="39"/>
-      <c r="BM37" s="39"/>
-      <c r="BN37" s="39"/>
-      <c r="BO37" s="39"/>
-      <c r="BP37" s="39"/>
-      <c r="BQ37" s="39"/>
-      <c r="BR37" s="39"/>
-      <c r="BS37" s="39"/>
-      <c r="BT37" s="39"/>
-      <c r="BU37" s="39"/>
-      <c r="BV37" s="39"/>
-      <c r="BW37" s="39"/>
-      <c r="BX37" s="39"/>
-      <c r="BY37" s="39"/>
-      <c r="BZ37" s="39"/>
-      <c r="CA37" s="39"/>
-      <c r="CB37" s="39"/>
-      <c r="CC37" s="39"/>
-      <c r="CD37" s="39"/>
-      <c r="CE37" s="39"/>
-      <c r="CF37" s="39"/>
-      <c r="CG37" s="39"/>
-      <c r="CH37" s="39"/>
-      <c r="CI37" s="39"/>
-      <c r="CJ37" s="39"/>
-      <c r="CK37" s="39"/>
-      <c r="CL37" s="39"/>
-      <c r="CM37" s="39"/>
-      <c r="CN37" s="39"/>
+      <c r="A37" s="80"/>
+      <c r="B37" s="84"/>
+      <c r="C37" s="36"/>
+      <c r="D37" s="82"/>
+      <c r="E37" s="83"/>
+      <c r="F37" s="36"/>
+      <c r="G37" s="36"/>
+      <c r="H37" s="36"/>
+      <c r="I37" s="36"/>
+      <c r="J37" s="36"/>
+      <c r="K37" s="36"/>
+      <c r="L37" s="36"/>
+      <c r="M37" s="36"/>
+      <c r="N37" s="36"/>
+      <c r="O37" s="36"/>
+      <c r="P37" s="37"/>
+      <c r="Q37" s="37"/>
+      <c r="R37" s="37"/>
+      <c r="S37" s="37"/>
+      <c r="T37" s="37"/>
+      <c r="U37" s="37"/>
+      <c r="V37" s="37"/>
+      <c r="W37" s="37"/>
+      <c r="X37" s="37"/>
+      <c r="Y37" s="37"/>
+      <c r="Z37" s="37"/>
+      <c r="AA37" s="37"/>
+      <c r="AB37" s="37"/>
+      <c r="AC37" s="37"/>
+      <c r="AD37" s="37"/>
+      <c r="AE37" s="37"/>
+      <c r="AF37" s="37"/>
+      <c r="AG37" s="37"/>
+      <c r="AH37" s="37"/>
+      <c r="AI37" s="37"/>
+      <c r="AJ37" s="37"/>
+      <c r="AK37" s="37"/>
+      <c r="AL37" s="37"/>
+      <c r="AM37" s="37"/>
+      <c r="AN37" s="37"/>
+      <c r="AO37" s="37"/>
+      <c r="AP37" s="37"/>
+      <c r="AQ37" s="37"/>
+      <c r="AR37" s="37"/>
+      <c r="AS37" s="37"/>
+      <c r="AT37" s="37"/>
+      <c r="AU37" s="37"/>
+      <c r="AV37" s="37"/>
+      <c r="AW37" s="37"/>
+      <c r="AX37" s="37"/>
+      <c r="AY37" s="37"/>
+      <c r="AZ37" s="37"/>
+      <c r="BA37" s="37"/>
+      <c r="BB37" s="37"/>
+      <c r="BC37" s="37"/>
+      <c r="BD37" s="37"/>
+      <c r="BE37" s="37"/>
+      <c r="BF37" s="37"/>
+      <c r="BG37" s="37"/>
+      <c r="BH37" s="37"/>
+      <c r="BI37" s="37"/>
+      <c r="BJ37" s="37"/>
+      <c r="BK37" s="37"/>
+      <c r="BL37" s="37"/>
+      <c r="BM37" s="37"/>
+      <c r="BN37" s="37"/>
+      <c r="BO37" s="37"/>
+      <c r="BP37" s="37"/>
+      <c r="BQ37" s="37"/>
+      <c r="BR37" s="37"/>
+      <c r="BS37" s="37"/>
+      <c r="BT37" s="37"/>
+      <c r="BU37" s="37"/>
+      <c r="BV37" s="37"/>
+      <c r="BW37" s="37"/>
+      <c r="BX37" s="37"/>
+      <c r="BY37" s="37"/>
+      <c r="BZ37" s="37"/>
+      <c r="CA37" s="37"/>
+      <c r="CB37" s="37"/>
+      <c r="CC37" s="37"/>
+      <c r="CD37" s="37"/>
+      <c r="CE37" s="37"/>
+      <c r="CF37" s="37"/>
+      <c r="CG37" s="37"/>
+      <c r="CH37" s="37"/>
+      <c r="CI37" s="37"/>
+      <c r="CJ37" s="37"/>
+      <c r="CK37" s="37"/>
+      <c r="CL37" s="37"/>
+      <c r="CM37" s="37"/>
+      <c r="CN37" s="37"/>
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="85"/>
-      <c r="B38" s="89"/>
-      <c r="C38" s="38"/>
-      <c r="D38" s="87"/>
-      <c r="E38" s="38"/>
+      <c r="A38" s="80"/>
+      <c r="B38" s="84"/>
+      <c r="C38" s="36"/>
+      <c r="D38" s="82"/>
+      <c r="E38" s="36"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
@@ -6410,10 +6788,10 @@
       <c r="O38" s="1"/>
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="85"/>
-      <c r="B39" s="38"/>
-      <c r="C39" s="38"/>
-      <c r="D39" s="87"/>
+      <c r="A39" s="80"/>
+      <c r="B39" s="36"/>
+      <c r="C39" s="36"/>
+      <c r="D39" s="82"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
@@ -6427,10 +6805,10 @@
       <c r="O39" s="1"/>
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="85"/>
-      <c r="B40" s="38"/>
-      <c r="C40" s="38"/>
-      <c r="D40" s="38"/>
+      <c r="A40" s="80"/>
+      <c r="B40" s="36"/>
+      <c r="C40" s="36"/>
+      <c r="D40" s="36"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
@@ -6444,10 +6822,10 @@
       <c r="O40" s="1"/>
     </row>
     <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="85"/>
-      <c r="B41" s="38"/>
-      <c r="C41" s="38"/>
-      <c r="D41" s="38"/>
+      <c r="A41" s="80"/>
+      <c r="B41" s="36"/>
+      <c r="C41" s="36"/>
+      <c r="D41" s="36"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
@@ -6461,10 +6839,10 @@
       <c r="O41" s="1"/>
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="85"/>
-      <c r="B42" s="38"/>
-      <c r="C42" s="38"/>
-      <c r="D42" s="38"/>
+      <c r="A42" s="80"/>
+      <c r="B42" s="36"/>
+      <c r="C42" s="36"/>
+      <c r="D42" s="36"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
@@ -6478,10 +6856,10 @@
       <c r="O42" s="1"/>
     </row>
     <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="85"/>
-      <c r="B43" s="38"/>
-      <c r="C43" s="38"/>
-      <c r="D43" s="38"/>
+      <c r="A43" s="80"/>
+      <c r="B43" s="36"/>
+      <c r="C43" s="36"/>
+      <c r="D43" s="36"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
@@ -6495,10 +6873,10 @@
       <c r="O43" s="1"/>
     </row>
     <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="85"/>
-      <c r="B44" s="38"/>
-      <c r="C44" s="38"/>
-      <c r="D44" s="38"/>
+      <c r="A44" s="80"/>
+      <c r="B44" s="36"/>
+      <c r="C44" s="36"/>
+      <c r="D44" s="36"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
@@ -6512,10 +6890,10 @@
       <c r="O44" s="1"/>
     </row>
     <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="85"/>
-      <c r="B45" s="38"/>
-      <c r="C45" s="38"/>
-      <c r="D45" s="38"/>
+      <c r="A45" s="80"/>
+      <c r="B45" s="36"/>
+      <c r="C45" s="36"/>
+      <c r="D45" s="36"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
@@ -6529,10 +6907,10 @@
       <c r="O45" s="1"/>
     </row>
     <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="90"/>
-      <c r="B46" s="38"/>
-      <c r="C46" s="38"/>
-      <c r="D46" s="38"/>
+      <c r="A46" s="85"/>
+      <c r="B46" s="36"/>
+      <c r="C46" s="36"/>
+      <c r="D46" s="36"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
@@ -6546,10 +6924,10 @@
       <c r="O46" s="1"/>
     </row>
     <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="90"/>
-      <c r="B47" s="38"/>
-      <c r="C47" s="38"/>
-      <c r="D47" s="38"/>
+      <c r="A47" s="85"/>
+      <c r="B47" s="36"/>
+      <c r="C47" s="36"/>
+      <c r="D47" s="36"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
@@ -6563,10 +6941,10 @@
       <c r="O47" s="1"/>
     </row>
     <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="38"/>
-      <c r="B48" s="38"/>
-      <c r="C48" s="38"/>
-      <c r="D48" s="38"/>
+      <c r="A48" s="36"/>
+      <c r="B48" s="36"/>
+      <c r="C48" s="36"/>
+      <c r="D48" s="36"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
@@ -6580,10 +6958,10 @@
       <c r="O48" s="1"/>
     </row>
     <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="38"/>
-      <c r="B49" s="38"/>
-      <c r="C49" s="38"/>
-      <c r="D49" s="38"/>
+      <c r="A49" s="36"/>
+      <c r="B49" s="36"/>
+      <c r="C49" s="36"/>
+      <c r="D49" s="36"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
@@ -6597,10 +6975,10 @@
       <c r="O49" s="1"/>
     </row>
     <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="38"/>
-      <c r="B50" s="38"/>
-      <c r="C50" s="38"/>
-      <c r="D50" s="38"/>
+      <c r="A50" s="36"/>
+      <c r="B50" s="36"/>
+      <c r="C50" s="36"/>
+      <c r="D50" s="36"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
@@ -6614,10 +6992,10 @@
       <c r="O50" s="1"/>
     </row>
     <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="38"/>
-      <c r="B51" s="38"/>
-      <c r="C51" s="38"/>
-      <c r="D51" s="38"/>
+      <c r="A51" s="36"/>
+      <c r="B51" s="36"/>
+      <c r="C51" s="36"/>
+      <c r="D51" s="36"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
@@ -6631,10 +7009,10 @@
       <c r="O51" s="1"/>
     </row>
     <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="38"/>
-      <c r="B52" s="38"/>
-      <c r="C52" s="38"/>
-      <c r="D52" s="38"/>
+      <c r="A52" s="36"/>
+      <c r="B52" s="36"/>
+      <c r="C52" s="36"/>
+      <c r="D52" s="36"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
@@ -6648,10 +7026,10 @@
       <c r="O52" s="1"/>
     </row>
     <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="38"/>
-      <c r="B53" s="38"/>
-      <c r="C53" s="38"/>
-      <c r="D53" s="38"/>
+      <c r="A53" s="36"/>
+      <c r="B53" s="36"/>
+      <c r="C53" s="36"/>
+      <c r="D53" s="36"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
@@ -6665,10 +7043,10 @@
       <c r="O53" s="1"/>
     </row>
     <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="38"/>
-      <c r="B54" s="38"/>
-      <c r="C54" s="38"/>
-      <c r="D54" s="38"/>
+      <c r="A54" s="36"/>
+      <c r="B54" s="36"/>
+      <c r="C54" s="36"/>
+      <c r="D54" s="36"/>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
@@ -6682,10 +7060,10 @@
       <c r="O54" s="1"/>
     </row>
     <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="38"/>
-      <c r="B55" s="38"/>
-      <c r="C55" s="38"/>
-      <c r="D55" s="38"/>
+      <c r="A55" s="36"/>
+      <c r="B55" s="36"/>
+      <c r="C55" s="36"/>
+      <c r="D55" s="36"/>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
@@ -6699,10 +7077,10 @@
       <c r="O55" s="1"/>
     </row>
     <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="38"/>
-      <c r="B56" s="38"/>
-      <c r="C56" s="38"/>
-      <c r="D56" s="38"/>
+      <c r="A56" s="36"/>
+      <c r="B56" s="36"/>
+      <c r="C56" s="36"/>
+      <c r="D56" s="36"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
@@ -6716,10 +7094,10 @@
       <c r="O56" s="1"/>
     </row>
     <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="38"/>
-      <c r="B57" s="38"/>
-      <c r="C57" s="38"/>
-      <c r="D57" s="38"/>
+      <c r="A57" s="36"/>
+      <c r="B57" s="36"/>
+      <c r="C57" s="36"/>
+      <c r="D57" s="36"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
@@ -6733,10 +7111,10 @@
       <c r="O57" s="1"/>
     </row>
     <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="38"/>
-      <c r="B58" s="38"/>
-      <c r="C58" s="38"/>
-      <c r="D58" s="38"/>
+      <c r="A58" s="36"/>
+      <c r="B58" s="36"/>
+      <c r="C58" s="36"/>
+      <c r="D58" s="36"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
@@ -6750,10 +7128,10 @@
       <c r="O58" s="1"/>
     </row>
     <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="38"/>
-      <c r="B59" s="38"/>
-      <c r="C59" s="38"/>
-      <c r="D59" s="38"/>
+      <c r="A59" s="36"/>
+      <c r="B59" s="36"/>
+      <c r="C59" s="36"/>
+      <c r="D59" s="36"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
@@ -6767,10 +7145,10 @@
       <c r="O59" s="1"/>
     </row>
     <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="38"/>
-      <c r="B60" s="38"/>
-      <c r="C60" s="38"/>
-      <c r="D60" s="38"/>
+      <c r="A60" s="36"/>
+      <c r="B60" s="36"/>
+      <c r="C60" s="36"/>
+      <c r="D60" s="36"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
@@ -6784,10 +7162,10 @@
       <c r="O60" s="1"/>
     </row>
     <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="38"/>
-      <c r="B61" s="38"/>
-      <c r="C61" s="38"/>
-      <c r="D61" s="38"/>
+      <c r="A61" s="36"/>
+      <c r="B61" s="36"/>
+      <c r="C61" s="36"/>
+      <c r="D61" s="36"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
@@ -6801,10 +7179,10 @@
       <c r="O61" s="1"/>
     </row>
     <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="38"/>
-      <c r="B62" s="38"/>
-      <c r="C62" s="38"/>
-      <c r="D62" s="38"/>
+      <c r="A62" s="36"/>
+      <c r="B62" s="36"/>
+      <c r="C62" s="36"/>
+      <c r="D62" s="36"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
@@ -6818,10 +7196,10 @@
       <c r="O62" s="1"/>
     </row>
     <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="38"/>
-      <c r="B63" s="38"/>
-      <c r="C63" s="38"/>
-      <c r="D63" s="38"/>
+      <c r="A63" s="36"/>
+      <c r="B63" s="36"/>
+      <c r="C63" s="36"/>
+      <c r="D63" s="36"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
@@ -6835,10 +7213,10 @@
       <c r="O63" s="1"/>
     </row>
     <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="38"/>
-      <c r="B64" s="38"/>
-      <c r="C64" s="38"/>
-      <c r="D64" s="38"/>
+      <c r="A64" s="36"/>
+      <c r="B64" s="36"/>
+      <c r="C64" s="36"/>
+      <c r="D64" s="36"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
@@ -6852,10 +7230,10 @@
       <c r="O64" s="1"/>
     </row>
     <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="38"/>
-      <c r="B65" s="38"/>
-      <c r="C65" s="38"/>
-      <c r="D65" s="38"/>
+      <c r="A65" s="36"/>
+      <c r="B65" s="36"/>
+      <c r="C65" s="36"/>
+      <c r="D65" s="36"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
@@ -6869,10 +7247,10 @@
       <c r="O65" s="1"/>
     </row>
     <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="38"/>
-      <c r="B66" s="38"/>
-      <c r="C66" s="38"/>
-      <c r="D66" s="38"/>
+      <c r="A66" s="36"/>
+      <c r="B66" s="36"/>
+      <c r="C66" s="36"/>
+      <c r="D66" s="36"/>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
@@ -6886,10 +7264,10 @@
       <c r="O66" s="1"/>
     </row>
     <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="38"/>
-      <c r="B67" s="38"/>
-      <c r="C67" s="38"/>
-      <c r="D67" s="38"/>
+      <c r="A67" s="36"/>
+      <c r="B67" s="36"/>
+      <c r="C67" s="36"/>
+      <c r="D67" s="36"/>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
@@ -6903,10 +7281,10 @@
       <c r="O67" s="1"/>
     </row>
     <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="38"/>
-      <c r="B68" s="38"/>
-      <c r="C68" s="38"/>
-      <c r="D68" s="38"/>
+      <c r="A68" s="36"/>
+      <c r="B68" s="36"/>
+      <c r="C68" s="36"/>
+      <c r="D68" s="36"/>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
@@ -6920,10 +7298,10 @@
       <c r="O68" s="1"/>
     </row>
     <row r="69" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="38"/>
-      <c r="B69" s="38"/>
-      <c r="C69" s="38"/>
-      <c r="D69" s="38"/>
+      <c r="A69" s="36"/>
+      <c r="B69" s="36"/>
+      <c r="C69" s="36"/>
+      <c r="D69" s="36"/>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
@@ -6976,41 +7354,41 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="21.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="5" style="0" width="7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="30.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="16" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="16" style="0" width="9.13"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="53.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1"/>
-      <c r="B1" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="C1" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="D1" s="36" t="n">
+      <c r="B1" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="34" t="n">
         <v>39742</v>
       </c>
       <c r="E1" s="1"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
     </row>
     <row r="2" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1"/>
-      <c r="B2" s="34" t="str">
+      <c r="B2" s="32" t="str">
         <f aca="false">Intro!E5</f>
         <v>My Product</v>
       </c>
-      <c r="C2" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" s="36" t="n">
+      <c r="C2" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="34" t="n">
         <f aca="false">WORKDAY(D1,10)</f>
         <v>39756</v>
       </c>
@@ -7024,26 +7402,26 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
-      <c r="O2" s="39"/>
-      <c r="P2" s="39"/>
-      <c r="Q2" s="39"/>
-      <c r="R2" s="39"/>
-      <c r="S2" s="39"/>
-      <c r="T2" s="39"/>
-      <c r="U2" s="39"/>
-      <c r="V2" s="39"/>
-      <c r="W2" s="39"/>
-      <c r="X2" s="39"/>
-      <c r="Y2" s="39"/>
-      <c r="Z2" s="39"/>
+      <c r="O2" s="37"/>
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="37"/>
+      <c r="S2" s="37"/>
+      <c r="T2" s="37"/>
+      <c r="U2" s="37"/>
+      <c r="V2" s="37"/>
+      <c r="W2" s="37"/>
+      <c r="X2" s="37"/>
+      <c r="Y2" s="37"/>
+      <c r="Z2" s="37"/>
     </row>
     <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
-      <c r="C3" s="35" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" s="40" t="n">
+      <c r="C3" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" s="38" t="n">
         <f aca="false">D17</f>
         <v>10</v>
       </c>
@@ -7057,56 +7435,56 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
-      <c r="O3" s="39"/>
-      <c r="P3" s="39"/>
-      <c r="Q3" s="39"/>
-      <c r="R3" s="39"/>
-      <c r="S3" s="39"/>
-      <c r="T3" s="39"/>
-      <c r="U3" s="39"/>
-      <c r="V3" s="39"/>
-      <c r="W3" s="39"/>
-      <c r="X3" s="39"/>
-      <c r="Y3" s="39"/>
-      <c r="Z3" s="39"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="37"/>
+      <c r="R3" s="37"/>
+      <c r="S3" s="37"/>
+      <c r="T3" s="37"/>
+      <c r="U3" s="37"/>
+      <c r="V3" s="37"/>
+      <c r="W3" s="37"/>
+      <c r="X3" s="37"/>
+      <c r="Y3" s="37"/>
+      <c r="Z3" s="37"/>
     </row>
     <row r="4" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="41" t="s">
-        <v>37</v>
-      </c>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41"/>
-      <c r="M4" s="41"/>
-      <c r="N4" s="41"/>
-      <c r="O4" s="39"/>
-      <c r="P4" s="39"/>
-      <c r="Q4" s="39"/>
-      <c r="R4" s="39"/>
-      <c r="S4" s="39"/>
-      <c r="T4" s="39"/>
-      <c r="U4" s="39"/>
-      <c r="V4" s="39"/>
-      <c r="W4" s="39"/>
-      <c r="X4" s="39"/>
-      <c r="Y4" s="39"/>
-      <c r="Z4" s="39"/>
+      <c r="C4" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="39"/>
+      <c r="O4" s="37"/>
+      <c r="P4" s="37"/>
+      <c r="Q4" s="37"/>
+      <c r="R4" s="37"/>
+      <c r="S4" s="37"/>
+      <c r="T4" s="37"/>
+      <c r="U4" s="37"/>
+      <c r="V4" s="37"/>
+      <c r="W4" s="37"/>
+      <c r="X4" s="37"/>
+      <c r="Y4" s="37"/>
+      <c r="Z4" s="37"/>
     </row>
     <row r="5" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="36"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="34"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -7117,575 +7495,575 @@
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
-      <c r="O5" s="39"/>
-      <c r="P5" s="39"/>
-      <c r="Q5" s="39"/>
-      <c r="R5" s="39"/>
-      <c r="S5" s="39"/>
-      <c r="T5" s="39"/>
-      <c r="U5" s="39"/>
-      <c r="V5" s="39"/>
-      <c r="W5" s="39"/>
-      <c r="X5" s="39"/>
-      <c r="Y5" s="39"/>
-      <c r="Z5" s="39"/>
+      <c r="O5" s="37"/>
+      <c r="P5" s="37"/>
+      <c r="Q5" s="37"/>
+      <c r="R5" s="37"/>
+      <c r="S5" s="37"/>
+      <c r="T5" s="37"/>
+      <c r="U5" s="37"/>
+      <c r="V5" s="37"/>
+      <c r="W5" s="37"/>
+      <c r="X5" s="37"/>
+      <c r="Y5" s="37"/>
+      <c r="Z5" s="37"/>
     </row>
     <row r="6" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="B6" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" s="91" t="n">
+      <c r="A6" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" s="41" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" s="44" t="n">
         <v>39650</v>
       </c>
-      <c r="F6" s="91" t="n">
+      <c r="F6" s="44" t="n">
         <v>39651</v>
       </c>
-      <c r="G6" s="91" t="n">
+      <c r="G6" s="44" t="n">
         <v>39652</v>
       </c>
-      <c r="H6" s="91" t="n">
+      <c r="H6" s="44" t="n">
         <v>39653</v>
       </c>
-      <c r="I6" s="91" t="n">
+      <c r="I6" s="44" t="n">
         <v>39654</v>
       </c>
-      <c r="J6" s="91" t="n">
+      <c r="J6" s="44" t="n">
         <v>39657</v>
       </c>
-      <c r="K6" s="91" t="n">
+      <c r="K6" s="44" t="n">
         <v>39658</v>
       </c>
-      <c r="L6" s="91" t="n">
+      <c r="L6" s="44" t="n">
         <v>39659</v>
       </c>
-      <c r="M6" s="91" t="n">
+      <c r="M6" s="44" t="n">
         <v>39660</v>
       </c>
-      <c r="N6" s="92" t="n">
+      <c r="N6" s="45" t="n">
         <v>39661</v>
       </c>
-      <c r="O6" s="39"/>
-      <c r="P6" s="48"/>
-      <c r="Q6" s="48"/>
-      <c r="R6" s="48"/>
-      <c r="S6" s="48"/>
-      <c r="T6" s="48"/>
-      <c r="U6" s="48"/>
-      <c r="V6" s="48"/>
-      <c r="W6" s="48"/>
-      <c r="X6" s="48"/>
-      <c r="Y6" s="48"/>
-      <c r="Z6" s="39"/>
-      <c r="AA6" s="39"/>
-      <c r="AB6" s="39"/>
-      <c r="AC6" s="39"/>
-      <c r="AD6" s="39"/>
-      <c r="AE6" s="39"/>
-      <c r="AF6" s="39"/>
-      <c r="AG6" s="39"/>
-      <c r="AH6" s="39"/>
-      <c r="AI6" s="39"/>
-      <c r="AJ6" s="39"/>
-      <c r="AK6" s="39"/>
-      <c r="AL6" s="39"/>
-      <c r="AM6" s="39"/>
-      <c r="AN6" s="39"/>
-      <c r="AO6" s="39"/>
-      <c r="AP6" s="39"/>
-      <c r="AQ6" s="39"/>
-      <c r="AR6" s="39"/>
-      <c r="AS6" s="39"/>
-      <c r="AT6" s="39"/>
-      <c r="AU6" s="39"/>
-      <c r="AV6" s="39"/>
-      <c r="AW6" s="39"/>
-      <c r="AX6" s="39"/>
-      <c r="AY6" s="39"/>
-      <c r="AZ6" s="39"/>
-      <c r="BA6" s="39"/>
-      <c r="BB6" s="39"/>
-      <c r="BC6" s="39"/>
-      <c r="BD6" s="39"/>
-      <c r="BE6" s="39"/>
-      <c r="BF6" s="39"/>
-      <c r="BG6" s="39"/>
-      <c r="BH6" s="39"/>
-      <c r="BI6" s="39"/>
-      <c r="BJ6" s="39"/>
-      <c r="BK6" s="39"/>
-      <c r="BL6" s="39"/>
-      <c r="BM6" s="39"/>
-      <c r="BN6" s="39"/>
-      <c r="BO6" s="39"/>
-      <c r="BP6" s="39"/>
-      <c r="BQ6" s="39"/>
-      <c r="BR6" s="39"/>
-      <c r="BS6" s="39"/>
-      <c r="BT6" s="39"/>
-      <c r="BU6" s="39"/>
-      <c r="BV6" s="39"/>
-      <c r="BW6" s="39"/>
-      <c r="BX6" s="39"/>
-      <c r="BY6" s="39"/>
-      <c r="BZ6" s="39"/>
-      <c r="CA6" s="39"/>
-      <c r="CB6" s="39"/>
-      <c r="CC6" s="39"/>
-      <c r="CD6" s="39"/>
-      <c r="CE6" s="39"/>
-      <c r="CF6" s="39"/>
-      <c r="CG6" s="39"/>
-      <c r="CH6" s="39"/>
-      <c r="CI6" s="39"/>
-      <c r="CJ6" s="39"/>
-      <c r="CK6" s="39"/>
-      <c r="CL6" s="39"/>
-      <c r="CM6" s="39"/>
-      <c r="CN6" s="39"/>
+      <c r="O6" s="37"/>
+      <c r="P6" s="46"/>
+      <c r="Q6" s="46"/>
+      <c r="R6" s="46"/>
+      <c r="S6" s="46"/>
+      <c r="T6" s="46"/>
+      <c r="U6" s="46"/>
+      <c r="V6" s="46"/>
+      <c r="W6" s="46"/>
+      <c r="X6" s="46"/>
+      <c r="Y6" s="46"/>
+      <c r="Z6" s="37"/>
+      <c r="AA6" s="37"/>
+      <c r="AB6" s="37"/>
+      <c r="AC6" s="37"/>
+      <c r="AD6" s="37"/>
+      <c r="AE6" s="37"/>
+      <c r="AF6" s="37"/>
+      <c r="AG6" s="37"/>
+      <c r="AH6" s="37"/>
+      <c r="AI6" s="37"/>
+      <c r="AJ6" s="37"/>
+      <c r="AK6" s="37"/>
+      <c r="AL6" s="37"/>
+      <c r="AM6" s="37"/>
+      <c r="AN6" s="37"/>
+      <c r="AO6" s="37"/>
+      <c r="AP6" s="37"/>
+      <c r="AQ6" s="37"/>
+      <c r="AR6" s="37"/>
+      <c r="AS6" s="37"/>
+      <c r="AT6" s="37"/>
+      <c r="AU6" s="37"/>
+      <c r="AV6" s="37"/>
+      <c r="AW6" s="37"/>
+      <c r="AX6" s="37"/>
+      <c r="AY6" s="37"/>
+      <c r="AZ6" s="37"/>
+      <c r="BA6" s="37"/>
+      <c r="BB6" s="37"/>
+      <c r="BC6" s="37"/>
+      <c r="BD6" s="37"/>
+      <c r="BE6" s="37"/>
+      <c r="BF6" s="37"/>
+      <c r="BG6" s="37"/>
+      <c r="BH6" s="37"/>
+      <c r="BI6" s="37"/>
+      <c r="BJ6" s="37"/>
+      <c r="BK6" s="37"/>
+      <c r="BL6" s="37"/>
+      <c r="BM6" s="37"/>
+      <c r="BN6" s="37"/>
+      <c r="BO6" s="37"/>
+      <c r="BP6" s="37"/>
+      <c r="BQ6" s="37"/>
+      <c r="BR6" s="37"/>
+      <c r="BS6" s="37"/>
+      <c r="BT6" s="37"/>
+      <c r="BU6" s="37"/>
+      <c r="BV6" s="37"/>
+      <c r="BW6" s="37"/>
+      <c r="BX6" s="37"/>
+      <c r="BY6" s="37"/>
+      <c r="BZ6" s="37"/>
+      <c r="CA6" s="37"/>
+      <c r="CB6" s="37"/>
+      <c r="CC6" s="37"/>
+      <c r="CD6" s="37"/>
+      <c r="CE6" s="37"/>
+      <c r="CF6" s="37"/>
+      <c r="CG6" s="37"/>
+      <c r="CH6" s="37"/>
+      <c r="CI6" s="37"/>
+      <c r="CJ6" s="37"/>
+      <c r="CK6" s="37"/>
+      <c r="CL6" s="37"/>
+      <c r="CM6" s="37"/>
+      <c r="CN6" s="37"/>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="93"/>
-      <c r="B7" s="50" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" s="51"/>
-      <c r="D7" s="52" t="n">
+      <c r="A7" s="86"/>
+      <c r="B7" s="48" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" s="49"/>
+      <c r="D7" s="50" t="n">
         <v>10</v>
       </c>
-      <c r="E7" s="53" t="n">
+      <c r="E7" s="51" t="n">
         <v>0</v>
       </c>
-      <c r="F7" s="54"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="56"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
-      <c r="K7" s="54"/>
-      <c r="L7" s="54"/>
-      <c r="M7" s="54"/>
-      <c r="N7" s="57"/>
-      <c r="O7" s="39"/>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="39"/>
-      <c r="R7" s="39"/>
-      <c r="S7" s="39"/>
-      <c r="T7" s="39"/>
-      <c r="U7" s="39"/>
-      <c r="V7" s="39"/>
-      <c r="W7" s="39"/>
-      <c r="X7" s="39"/>
-      <c r="Y7" s="39"/>
-      <c r="Z7" s="39"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
+      <c r="K7" s="52"/>
+      <c r="L7" s="52"/>
+      <c r="M7" s="52"/>
+      <c r="N7" s="54"/>
+      <c r="O7" s="37"/>
+      <c r="P7" s="37"/>
+      <c r="Q7" s="37"/>
+      <c r="R7" s="37"/>
+      <c r="S7" s="37"/>
+      <c r="T7" s="37"/>
+      <c r="U7" s="37"/>
+      <c r="V7" s="37"/>
+      <c r="W7" s="37"/>
+      <c r="X7" s="37"/>
+      <c r="Y7" s="37"/>
+      <c r="Z7" s="37"/>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="93"/>
-      <c r="B8" s="50"/>
-      <c r="C8" s="51"/>
-      <c r="D8" s="58"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="59"/>
-      <c r="G8" s="59"/>
-      <c r="H8" s="59"/>
-      <c r="I8" s="59"/>
-      <c r="J8" s="59"/>
-      <c r="K8" s="60"/>
-      <c r="L8" s="60"/>
-      <c r="M8" s="60"/>
-      <c r="N8" s="60"/>
+      <c r="A8" s="86"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="56"/>
+      <c r="H8" s="56"/>
+      <c r="I8" s="56"/>
+      <c r="J8" s="56"/>
+      <c r="K8" s="57"/>
+      <c r="L8" s="57"/>
+      <c r="M8" s="57"/>
+      <c r="N8" s="57"/>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="68"/>
-      <c r="B9" s="65"/>
-      <c r="C9" s="51"/>
-      <c r="D9" s="94"/>
-      <c r="E9" s="59"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="60"/>
-      <c r="H9" s="64"/>
-      <c r="I9" s="60"/>
-      <c r="J9" s="60"/>
-      <c r="K9" s="60"/>
-      <c r="L9" s="60"/>
-      <c r="M9" s="60"/>
-      <c r="N9" s="60"/>
+      <c r="A9" s="64"/>
+      <c r="B9" s="61"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="87"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="57"/>
+      <c r="I9" s="57"/>
+      <c r="J9" s="57"/>
+      <c r="K9" s="57"/>
+      <c r="L9" s="57"/>
+      <c r="M9" s="57"/>
+      <c r="N9" s="57"/>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="68"/>
-      <c r="B10" s="61"/>
-      <c r="C10" s="62"/>
-      <c r="D10" s="63"/>
-      <c r="E10" s="59"/>
-      <c r="F10" s="60"/>
-      <c r="G10" s="60"/>
-      <c r="H10" s="64"/>
-      <c r="I10" s="60"/>
-      <c r="J10" s="60"/>
-      <c r="K10" s="60"/>
-      <c r="L10" s="60"/>
-      <c r="M10" s="60"/>
-      <c r="N10" s="60"/>
+      <c r="A10" s="64"/>
+      <c r="B10" s="58"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="57"/>
+      <c r="I10" s="57"/>
+      <c r="J10" s="57"/>
+      <c r="K10" s="57"/>
+      <c r="L10" s="57"/>
+      <c r="M10" s="57"/>
+      <c r="N10" s="57"/>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="68"/>
-      <c r="B11" s="65"/>
-      <c r="C11" s="62"/>
-      <c r="D11" s="66"/>
-      <c r="E11" s="59"/>
-      <c r="F11" s="60"/>
-      <c r="G11" s="60"/>
-      <c r="H11" s="64"/>
-      <c r="I11" s="60"/>
-      <c r="J11" s="60"/>
-      <c r="K11" s="60"/>
-      <c r="L11" s="60"/>
-      <c r="M11" s="60"/>
-      <c r="N11" s="60"/>
+      <c r="A11" s="64"/>
+      <c r="B11" s="61"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="57"/>
+      <c r="M11" s="57"/>
+      <c r="N11" s="57"/>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="68"/>
-      <c r="B12" s="65"/>
-      <c r="C12" s="62"/>
-      <c r="D12" s="63"/>
-      <c r="E12" s="59"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="64"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="60"/>
-      <c r="K12" s="60"/>
-      <c r="L12" s="60"/>
-      <c r="M12" s="60"/>
-      <c r="N12" s="60"/>
+      <c r="A12" s="64"/>
+      <c r="B12" s="61"/>
+      <c r="C12" s="59"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="57"/>
+      <c r="J12" s="57"/>
+      <c r="K12" s="57"/>
+      <c r="L12" s="57"/>
+      <c r="M12" s="57"/>
+      <c r="N12" s="57"/>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="68"/>
-      <c r="B13" s="65"/>
-      <c r="C13" s="62"/>
-      <c r="D13" s="52"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="60"/>
-      <c r="G13" s="67"/>
-      <c r="H13" s="64"/>
-      <c r="I13" s="60"/>
-      <c r="J13" s="60"/>
-      <c r="K13" s="60"/>
-      <c r="L13" s="60"/>
-      <c r="M13" s="60"/>
-      <c r="N13" s="60"/>
+      <c r="A13" s="64"/>
+      <c r="B13" s="61"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="57"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="57"/>
+      <c r="I13" s="57"/>
+      <c r="J13" s="57"/>
+      <c r="K13" s="57"/>
+      <c r="L13" s="57"/>
+      <c r="M13" s="57"/>
+      <c r="N13" s="57"/>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="68"/>
-      <c r="B14" s="65"/>
-      <c r="C14" s="62"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="59"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="67"/>
-      <c r="H14" s="64"/>
-      <c r="I14" s="60"/>
-      <c r="J14" s="60"/>
-      <c r="K14" s="60"/>
-      <c r="L14" s="60"/>
-      <c r="M14" s="60"/>
-      <c r="N14" s="60"/>
+      <c r="A14" s="64"/>
+      <c r="B14" s="61"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="57"/>
+      <c r="G14" s="63"/>
+      <c r="H14" s="57"/>
+      <c r="I14" s="57"/>
+      <c r="J14" s="57"/>
+      <c r="K14" s="57"/>
+      <c r="L14" s="57"/>
+      <c r="M14" s="57"/>
+      <c r="N14" s="57"/>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="68"/>
-      <c r="B15" s="65"/>
-      <c r="C15" s="62"/>
-      <c r="D15" s="52"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="60"/>
-      <c r="G15" s="67"/>
-      <c r="H15" s="64"/>
-      <c r="I15" s="69"/>
-      <c r="J15" s="60"/>
-      <c r="K15" s="60"/>
-      <c r="L15" s="60"/>
-      <c r="M15" s="60"/>
-      <c r="N15" s="60"/>
+      <c r="A15" s="64"/>
+      <c r="B15" s="61"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="56"/>
+      <c r="F15" s="57"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="57"/>
+      <c r="I15" s="65"/>
+      <c r="J15" s="57"/>
+      <c r="K15" s="57"/>
+      <c r="L15" s="57"/>
+      <c r="M15" s="57"/>
+      <c r="N15" s="57"/>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="70"/>
-      <c r="B16" s="61"/>
-      <c r="C16" s="71"/>
-      <c r="D16" s="72"/>
-      <c r="E16" s="64"/>
-      <c r="F16" s="64"/>
-      <c r="G16" s="64"/>
-      <c r="H16" s="64"/>
-      <c r="I16" s="64"/>
-      <c r="J16" s="60"/>
-      <c r="K16" s="60"/>
-      <c r="L16" s="60"/>
-      <c r="M16" s="60"/>
-      <c r="N16" s="60"/>
+      <c r="A16" s="66"/>
+      <c r="B16" s="58"/>
+      <c r="C16" s="67"/>
+      <c r="D16" s="68"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="57"/>
+      <c r="I16" s="57"/>
+      <c r="J16" s="57"/>
+      <c r="K16" s="57"/>
+      <c r="L16" s="57"/>
+      <c r="M16" s="57"/>
+      <c r="N16" s="57"/>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="73"/>
-      <c r="B17" s="74"/>
-      <c r="C17" s="75"/>
-      <c r="D17" s="76" t="n">
+      <c r="A17" s="69"/>
+      <c r="B17" s="70"/>
+      <c r="C17" s="71"/>
+      <c r="D17" s="72" t="n">
         <f aca="false">SUM(D7:D16)</f>
         <v>10</v>
       </c>
-      <c r="E17" s="76" t="n">
+      <c r="E17" s="72" t="n">
         <f aca="false">SUM(E7:E16)</f>
         <v>0</v>
       </c>
-      <c r="F17" s="76" t="n">
+      <c r="F17" s="72" t="n">
         <f aca="false">SUM(F7:F16)</f>
         <v>0</v>
       </c>
-      <c r="G17" s="76" t="n">
+      <c r="G17" s="72" t="n">
         <f aca="false">SUM(G7:G16)</f>
         <v>0</v>
       </c>
-      <c r="H17" s="76" t="n">
+      <c r="H17" s="72" t="n">
         <f aca="false">SUM(H7:H16)</f>
         <v>0</v>
       </c>
-      <c r="I17" s="76" t="n">
+      <c r="I17" s="72" t="n">
         <f aca="false">SUM(I7:I16)</f>
         <v>0</v>
       </c>
-      <c r="J17" s="76" t="n">
+      <c r="J17" s="72" t="n">
         <f aca="false">SUM(J7:J16)</f>
         <v>0</v>
       </c>
-      <c r="K17" s="76" t="n">
+      <c r="K17" s="72" t="n">
         <f aca="false">SUM(K7:K16)</f>
         <v>0</v>
       </c>
-      <c r="L17" s="76" t="n">
+      <c r="L17" s="72" t="n">
         <f aca="false">SUM(L7:L16)</f>
         <v>0</v>
       </c>
-      <c r="M17" s="76" t="n">
+      <c r="M17" s="72" t="n">
         <f aca="false">SUM(M7:M16)</f>
         <v>0</v>
       </c>
-      <c r="N17" s="76" t="n">
+      <c r="N17" s="72" t="n">
         <f aca="false">SUM(N7:N16)</f>
         <v>0</v>
       </c>
-      <c r="O17" s="95" t="s">
-        <v>42</v>
-      </c>
-      <c r="P17" s="39"/>
-      <c r="Q17" s="39"/>
-      <c r="R17" s="39"/>
-      <c r="S17" s="39"/>
-      <c r="T17" s="39"/>
-      <c r="U17" s="39"/>
-      <c r="V17" s="39"/>
-      <c r="W17" s="39"/>
-      <c r="X17" s="39"/>
-      <c r="Y17" s="39"/>
-      <c r="Z17" s="39"/>
-      <c r="AA17" s="39"/>
-      <c r="AB17" s="39"/>
-      <c r="AC17" s="39"/>
-      <c r="AD17" s="39"/>
-      <c r="AE17" s="39"/>
-      <c r="AF17" s="39"/>
-      <c r="AG17" s="39"/>
-      <c r="AH17" s="39"/>
-      <c r="AI17" s="39"/>
-      <c r="AJ17" s="39"/>
-      <c r="AK17" s="39"/>
-      <c r="AL17" s="39"/>
-      <c r="AM17" s="39"/>
-      <c r="AN17" s="39"/>
-      <c r="AO17" s="39"/>
-      <c r="AP17" s="39"/>
-      <c r="AQ17" s="39"/>
-      <c r="AR17" s="39"/>
-      <c r="AS17" s="39"/>
-      <c r="AT17" s="39"/>
-      <c r="AU17" s="39"/>
-      <c r="AV17" s="39"/>
-      <c r="AW17" s="39"/>
-      <c r="AX17" s="39"/>
-      <c r="AY17" s="39"/>
-      <c r="AZ17" s="39"/>
-      <c r="BA17" s="39"/>
-      <c r="BB17" s="39"/>
-      <c r="BC17" s="39"/>
-      <c r="BD17" s="39"/>
-      <c r="BE17" s="39"/>
-      <c r="BF17" s="39"/>
-      <c r="BG17" s="39"/>
-      <c r="BH17" s="39"/>
-      <c r="BI17" s="39"/>
-      <c r="BJ17" s="39"/>
-      <c r="BK17" s="39"/>
-      <c r="BL17" s="39"/>
-      <c r="BM17" s="39"/>
-      <c r="BN17" s="39"/>
-      <c r="BO17" s="39"/>
-      <c r="BP17" s="39"/>
-      <c r="BQ17" s="39"/>
-      <c r="BR17" s="39"/>
-      <c r="BS17" s="39"/>
-      <c r="BT17" s="39"/>
-      <c r="BU17" s="39"/>
-      <c r="BV17" s="39"/>
-      <c r="BW17" s="39"/>
-      <c r="BX17" s="39"/>
-      <c r="BY17" s="39"/>
-      <c r="BZ17" s="39"/>
-      <c r="CA17" s="39"/>
-      <c r="CB17" s="39"/>
-      <c r="CC17" s="39"/>
-      <c r="CD17" s="39"/>
-      <c r="CE17" s="39"/>
-      <c r="CF17" s="39"/>
-      <c r="CG17" s="39"/>
-      <c r="CH17" s="39"/>
-      <c r="CI17" s="39"/>
-      <c r="CJ17" s="39"/>
-      <c r="CK17" s="39"/>
-      <c r="CL17" s="39"/>
-      <c r="CM17" s="39"/>
-      <c r="CN17" s="39"/>
+      <c r="O17" s="88" t="s">
+        <v>71</v>
+      </c>
+      <c r="P17" s="37"/>
+      <c r="Q17" s="37"/>
+      <c r="R17" s="37"/>
+      <c r="S17" s="37"/>
+      <c r="T17" s="37"/>
+      <c r="U17" s="37"/>
+      <c r="V17" s="37"/>
+      <c r="W17" s="37"/>
+      <c r="X17" s="37"/>
+      <c r="Y17" s="37"/>
+      <c r="Z17" s="37"/>
+      <c r="AA17" s="37"/>
+      <c r="AB17" s="37"/>
+      <c r="AC17" s="37"/>
+      <c r="AD17" s="37"/>
+      <c r="AE17" s="37"/>
+      <c r="AF17" s="37"/>
+      <c r="AG17" s="37"/>
+      <c r="AH17" s="37"/>
+      <c r="AI17" s="37"/>
+      <c r="AJ17" s="37"/>
+      <c r="AK17" s="37"/>
+      <c r="AL17" s="37"/>
+      <c r="AM17" s="37"/>
+      <c r="AN17" s="37"/>
+      <c r="AO17" s="37"/>
+      <c r="AP17" s="37"/>
+      <c r="AQ17" s="37"/>
+      <c r="AR17" s="37"/>
+      <c r="AS17" s="37"/>
+      <c r="AT17" s="37"/>
+      <c r="AU17" s="37"/>
+      <c r="AV17" s="37"/>
+      <c r="AW17" s="37"/>
+      <c r="AX17" s="37"/>
+      <c r="AY17" s="37"/>
+      <c r="AZ17" s="37"/>
+      <c r="BA17" s="37"/>
+      <c r="BB17" s="37"/>
+      <c r="BC17" s="37"/>
+      <c r="BD17" s="37"/>
+      <c r="BE17" s="37"/>
+      <c r="BF17" s="37"/>
+      <c r="BG17" s="37"/>
+      <c r="BH17" s="37"/>
+      <c r="BI17" s="37"/>
+      <c r="BJ17" s="37"/>
+      <c r="BK17" s="37"/>
+      <c r="BL17" s="37"/>
+      <c r="BM17" s="37"/>
+      <c r="BN17" s="37"/>
+      <c r="BO17" s="37"/>
+      <c r="BP17" s="37"/>
+      <c r="BQ17" s="37"/>
+      <c r="BR17" s="37"/>
+      <c r="BS17" s="37"/>
+      <c r="BT17" s="37"/>
+      <c r="BU17" s="37"/>
+      <c r="BV17" s="37"/>
+      <c r="BW17" s="37"/>
+      <c r="BX17" s="37"/>
+      <c r="BY17" s="37"/>
+      <c r="BZ17" s="37"/>
+      <c r="CA17" s="37"/>
+      <c r="CB17" s="37"/>
+      <c r="CC17" s="37"/>
+      <c r="CD17" s="37"/>
+      <c r="CE17" s="37"/>
+      <c r="CF17" s="37"/>
+      <c r="CG17" s="37"/>
+      <c r="CH17" s="37"/>
+      <c r="CI17" s="37"/>
+      <c r="CJ17" s="37"/>
+      <c r="CK17" s="37"/>
+      <c r="CL17" s="37"/>
+      <c r="CM17" s="37"/>
+      <c r="CN17" s="37"/>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="73"/>
-      <c r="B18" s="74"/>
-      <c r="C18" s="78"/>
-      <c r="D18" s="79" t="s">
-        <v>43</v>
-      </c>
-      <c r="E18" s="80" t="n">
+      <c r="A18" s="69"/>
+      <c r="B18" s="70"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="74" t="s">
+        <v>72</v>
+      </c>
+      <c r="E18" s="75" t="n">
         <f aca="false">'system sheet'!C11</f>
         <v>8</v>
       </c>
-      <c r="F18" s="80" t="n">
+      <c r="F18" s="75" t="n">
         <f aca="false">'system sheet'!D11</f>
         <v>7.11111111111111</v>
       </c>
-      <c r="G18" s="80" t="n">
+      <c r="G18" s="75" t="n">
         <f aca="false">'system sheet'!E11</f>
         <v>6.22222222222222</v>
       </c>
-      <c r="H18" s="80" t="n">
+      <c r="H18" s="75" t="n">
         <f aca="false">'system sheet'!F11</f>
         <v>5.33333333333333</v>
       </c>
-      <c r="I18" s="80" t="n">
+      <c r="I18" s="75" t="n">
         <f aca="false">'system sheet'!G11</f>
         <v>4.44444444444444</v>
       </c>
-      <c r="J18" s="80" t="n">
+      <c r="J18" s="75" t="n">
         <f aca="false">'system sheet'!H11</f>
         <v>3.55555555555556</v>
       </c>
-      <c r="K18" s="80" t="n">
+      <c r="K18" s="75" t="n">
         <f aca="false">'system sheet'!I11</f>
         <v>2.66666666666667</v>
       </c>
-      <c r="L18" s="80" t="n">
+      <c r="L18" s="75" t="n">
         <f aca="false">'system sheet'!J11</f>
         <v>1.77777777777778</v>
       </c>
-      <c r="M18" s="80" t="n">
+      <c r="M18" s="75" t="n">
         <f aca="false">'system sheet'!K11</f>
         <v>0.888888888888889</v>
       </c>
-      <c r="N18" s="80" t="n">
+      <c r="N18" s="75" t="n">
         <f aca="false">'system sheet'!L11</f>
         <v>0</v>
       </c>
-      <c r="O18" s="96" t="n">
+      <c r="O18" s="89" t="n">
         <v>0</v>
       </c>
-      <c r="P18" s="39"/>
-      <c r="Q18" s="39"/>
-      <c r="R18" s="39"/>
-      <c r="S18" s="39"/>
-      <c r="T18" s="39"/>
-      <c r="U18" s="39"/>
-      <c r="V18" s="39"/>
-      <c r="W18" s="39"/>
-      <c r="X18" s="39"/>
-      <c r="Y18" s="39"/>
-      <c r="Z18" s="39"/>
-      <c r="AA18" s="39"/>
-      <c r="AB18" s="39"/>
-      <c r="AC18" s="39"/>
-      <c r="AD18" s="39"/>
-      <c r="AE18" s="39"/>
-      <c r="AF18" s="39"/>
-      <c r="AG18" s="39"/>
-      <c r="AH18" s="39"/>
-      <c r="AI18" s="39"/>
-      <c r="AJ18" s="39"/>
-      <c r="AK18" s="39"/>
-      <c r="AL18" s="39"/>
-      <c r="AM18" s="39"/>
-      <c r="AN18" s="39"/>
-      <c r="AO18" s="39"/>
-      <c r="AP18" s="39"/>
-      <c r="AQ18" s="39"/>
-      <c r="AR18" s="39"/>
-      <c r="AS18" s="39"/>
-      <c r="AT18" s="39"/>
-      <c r="AU18" s="39"/>
-      <c r="AV18" s="39"/>
-      <c r="AW18" s="39"/>
-      <c r="AX18" s="39"/>
-      <c r="AY18" s="39"/>
-      <c r="AZ18" s="39"/>
-      <c r="BA18" s="39"/>
-      <c r="BB18" s="39"/>
-      <c r="BC18" s="39"/>
-      <c r="BD18" s="39"/>
-      <c r="BE18" s="39"/>
-      <c r="BF18" s="39"/>
-      <c r="BG18" s="39"/>
-      <c r="BH18" s="39"/>
-      <c r="BI18" s="39"/>
-      <c r="BJ18" s="39"/>
-      <c r="BK18" s="39"/>
-      <c r="BL18" s="39"/>
-      <c r="BM18" s="39"/>
-      <c r="BN18" s="39"/>
-      <c r="BO18" s="39"/>
-      <c r="BP18" s="39"/>
-      <c r="BQ18" s="39"/>
-      <c r="BR18" s="39"/>
-      <c r="BS18" s="39"/>
-      <c r="BT18" s="39"/>
-      <c r="BU18" s="39"/>
-      <c r="BV18" s="39"/>
-      <c r="BW18" s="39"/>
-      <c r="BX18" s="39"/>
-      <c r="BY18" s="39"/>
-      <c r="BZ18" s="39"/>
-      <c r="CA18" s="39"/>
-      <c r="CB18" s="39"/>
-      <c r="CC18" s="39"/>
-      <c r="CD18" s="39"/>
-      <c r="CE18" s="39"/>
-      <c r="CF18" s="39"/>
-      <c r="CG18" s="39"/>
-      <c r="CH18" s="39"/>
-      <c r="CI18" s="39"/>
-      <c r="CJ18" s="39"/>
-      <c r="CK18" s="39"/>
-      <c r="CL18" s="39"/>
-      <c r="CM18" s="39"/>
-      <c r="CN18" s="39"/>
+      <c r="P18" s="37"/>
+      <c r="Q18" s="37"/>
+      <c r="R18" s="37"/>
+      <c r="S18" s="37"/>
+      <c r="T18" s="37"/>
+      <c r="U18" s="37"/>
+      <c r="V18" s="37"/>
+      <c r="W18" s="37"/>
+      <c r="X18" s="37"/>
+      <c r="Y18" s="37"/>
+      <c r="Z18" s="37"/>
+      <c r="AA18" s="37"/>
+      <c r="AB18" s="37"/>
+      <c r="AC18" s="37"/>
+      <c r="AD18" s="37"/>
+      <c r="AE18" s="37"/>
+      <c r="AF18" s="37"/>
+      <c r="AG18" s="37"/>
+      <c r="AH18" s="37"/>
+      <c r="AI18" s="37"/>
+      <c r="AJ18" s="37"/>
+      <c r="AK18" s="37"/>
+      <c r="AL18" s="37"/>
+      <c r="AM18" s="37"/>
+      <c r="AN18" s="37"/>
+      <c r="AO18" s="37"/>
+      <c r="AP18" s="37"/>
+      <c r="AQ18" s="37"/>
+      <c r="AR18" s="37"/>
+      <c r="AS18" s="37"/>
+      <c r="AT18" s="37"/>
+      <c r="AU18" s="37"/>
+      <c r="AV18" s="37"/>
+      <c r="AW18" s="37"/>
+      <c r="AX18" s="37"/>
+      <c r="AY18" s="37"/>
+      <c r="AZ18" s="37"/>
+      <c r="BA18" s="37"/>
+      <c r="BB18" s="37"/>
+      <c r="BC18" s="37"/>
+      <c r="BD18" s="37"/>
+      <c r="BE18" s="37"/>
+      <c r="BF18" s="37"/>
+      <c r="BG18" s="37"/>
+      <c r="BH18" s="37"/>
+      <c r="BI18" s="37"/>
+      <c r="BJ18" s="37"/>
+      <c r="BK18" s="37"/>
+      <c r="BL18" s="37"/>
+      <c r="BM18" s="37"/>
+      <c r="BN18" s="37"/>
+      <c r="BO18" s="37"/>
+      <c r="BP18" s="37"/>
+      <c r="BQ18" s="37"/>
+      <c r="BR18" s="37"/>
+      <c r="BS18" s="37"/>
+      <c r="BT18" s="37"/>
+      <c r="BU18" s="37"/>
+      <c r="BV18" s="37"/>
+      <c r="BW18" s="37"/>
+      <c r="BX18" s="37"/>
+      <c r="BY18" s="37"/>
+      <c r="BZ18" s="37"/>
+      <c r="CA18" s="37"/>
+      <c r="CB18" s="37"/>
+      <c r="CC18" s="37"/>
+      <c r="CD18" s="37"/>
+      <c r="CE18" s="37"/>
+      <c r="CF18" s="37"/>
+      <c r="CG18" s="37"/>
+      <c r="CH18" s="37"/>
+      <c r="CI18" s="37"/>
+      <c r="CJ18" s="37"/>
+      <c r="CK18" s="37"/>
+      <c r="CL18" s="37"/>
+      <c r="CM18" s="37"/>
+      <c r="CN18" s="37"/>
     </row>
     <row r="80" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
@@ -7719,71 +8097,71 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="18.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="1" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="1" width="9.13"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="2" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="97" t="s">
-        <v>48</v>
-      </c>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="97"/>
-      <c r="L2" s="97"/>
+      <c r="B2" s="90" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="90"/>
+      <c r="J2" s="90"/>
+      <c r="K2" s="90"/>
+      <c r="L2" s="90"/>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="98"/>
+      <c r="B3" s="91"/>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5" s="99" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="99" t="s">
-        <v>44</v>
-      </c>
-      <c r="E5" s="99" t="s">
-        <v>49</v>
-      </c>
-      <c r="F5" s="99" t="s">
-        <v>50</v>
-      </c>
-      <c r="G5" s="99" t="s">
-        <v>51</v>
-      </c>
-      <c r="H5" s="99" t="s">
-        <v>52</v>
+      <c r="C5" s="92" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" s="92" t="s">
+        <v>73</v>
+      </c>
+      <c r="E5" s="92" t="s">
+        <v>78</v>
+      </c>
+      <c r="F5" s="92" t="s">
+        <v>79</v>
+      </c>
+      <c r="G5" s="92" t="s">
+        <v>80</v>
+      </c>
+      <c r="H5" s="92" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="100" t="s">
-        <v>53</v>
-      </c>
-      <c r="B6" s="100"/>
-      <c r="C6" s="101" t="n">
+      <c r="A6" s="93" t="s">
+        <v>82</v>
+      </c>
+      <c r="B6" s="93"/>
+      <c r="C6" s="94" t="n">
         <v>8</v>
       </c>
-      <c r="D6" s="102" t="n">
+      <c r="D6" s="95" t="n">
         <v>8</v>
       </c>
-      <c r="E6" s="102"/>
-      <c r="F6" s="103"/>
-      <c r="G6" s="103"/>
-      <c r="H6" s="103"/>
+      <c r="E6" s="95"/>
+      <c r="F6" s="96"/>
+      <c r="G6" s="96"/>
+      <c r="H6" s="96"/>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C7" s="104" t="n">
+        <v>83</v>
+      </c>
+      <c r="C7" s="97" t="n">
         <v>0</v>
       </c>
       <c r="D7" s="6" t="n">
@@ -7803,334 +8181,334 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C8" s="105"/>
+      <c r="C8" s="98"/>
     </row>
     <row r="9" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="106" t="s">
-        <v>55</v>
-      </c>
-      <c r="B9" s="107" t="s">
-        <v>56</v>
-      </c>
-      <c r="C9" s="108" t="n">
+      <c r="A9" s="99" t="s">
+        <v>84</v>
+      </c>
+      <c r="B9" s="100" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9" s="101" t="n">
         <v>0</v>
       </c>
-      <c r="D9" s="109" t="n">
+      <c r="D9" s="102" t="n">
         <v>1</v>
       </c>
-      <c r="E9" s="109" t="n">
+      <c r="E9" s="102" t="n">
         <v>2</v>
       </c>
-      <c r="F9" s="109" t="n">
+      <c r="F9" s="102" t="n">
         <v>3</v>
       </c>
-      <c r="G9" s="109" t="n">
+      <c r="G9" s="102" t="n">
         <v>4</v>
       </c>
-      <c r="H9" s="109" t="n">
+      <c r="H9" s="102" t="n">
         <v>5</v>
       </c>
-      <c r="I9" s="109" t="n">
+      <c r="I9" s="102" t="n">
         <v>6</v>
       </c>
-      <c r="J9" s="109" t="n">
+      <c r="J9" s="102" t="n">
         <v>7</v>
       </c>
-      <c r="K9" s="109" t="n">
+      <c r="K9" s="102" t="n">
         <v>8</v>
       </c>
-      <c r="L9" s="109" t="n">
+      <c r="L9" s="102" t="n">
         <v>9</v>
       </c>
-      <c r="N9" s="110" t="s">
-        <v>57</v>
+      <c r="N9" s="103" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="106"/>
-      <c r="B10" s="111" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="112" t="n">
+      <c r="A10" s="99"/>
+      <c r="B10" s="104" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="105" t="n">
         <f aca="false">FORECAST(C$9, $C$6:$C$7,$N$10:$N$11)</f>
         <v>8</v>
       </c>
-      <c r="D10" s="112" t="n">
+      <c r="D10" s="105" t="n">
         <f aca="false">FORECAST(N$12, $C$6:$C$7,$N$10:$N$11)</f>
         <v>7.11111111111111</v>
       </c>
-      <c r="E10" s="112" t="n">
+      <c r="E10" s="105" t="n">
         <f aca="false">FORECAST(E$9, $C$6:$C$7,$N$10:$N$11)</f>
         <v>6.22222222222222</v>
       </c>
-      <c r="F10" s="112" t="n">
+      <c r="F10" s="105" t="n">
         <f aca="false">FORECAST(F$9, $C$6:$C$7,$N$10:$N$11)</f>
         <v>5.33333333333333</v>
       </c>
-      <c r="G10" s="112" t="n">
+      <c r="G10" s="105" t="n">
         <f aca="false">FORECAST(G$9, $C$6:$C$7,$N$10:$N$11)</f>
         <v>4.44444444444444</v>
       </c>
-      <c r="H10" s="112" t="n">
+      <c r="H10" s="105" t="n">
         <f aca="false">FORECAST(H$9, $C$6:$C$7,$N$10:$N$11)</f>
         <v>3.55555555555556</v>
       </c>
-      <c r="I10" s="112" t="n">
+      <c r="I10" s="105" t="n">
         <f aca="false">FORECAST(I$9, $C$6:$C$7,$N$10:$N$11)</f>
         <v>2.66666666666667</v>
       </c>
-      <c r="J10" s="112" t="n">
+      <c r="J10" s="105" t="n">
         <f aca="false">FORECAST(J$9, $C$6:$C$7,$N$10:$N$11)</f>
         <v>1.77777777777778</v>
       </c>
-      <c r="K10" s="112" t="n">
+      <c r="K10" s="105" t="n">
         <f aca="false">FORECAST(K$9, $C$6:$C$7,$N$10:$N$11)</f>
         <v>0.888888888888889</v>
       </c>
-      <c r="L10" s="112" t="n">
+      <c r="L10" s="105" t="n">
         <f aca="false">FORECAST(L$9, $C$6:$C$7,$N$10:$N$11)</f>
         <v>0</v>
       </c>
-      <c r="N10" s="104" t="n">
+      <c r="N10" s="97" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="106"/>
-      <c r="B11" s="111" t="s">
-        <v>44</v>
-      </c>
-      <c r="C11" s="112" t="n">
+      <c r="A11" s="99"/>
+      <c r="B11" s="104" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" s="105" t="n">
         <f aca="false">FORECAST(C$9, $D$6:$D$7,$N$10:$N$11)</f>
         <v>8</v>
       </c>
-      <c r="D11" s="112" t="n">
+      <c r="D11" s="105" t="n">
         <f aca="false">FORECAST(D$9, $D$6:$D$7,$N$10:$N$11)</f>
         <v>7.11111111111111</v>
       </c>
-      <c r="E11" s="112" t="n">
+      <c r="E11" s="105" t="n">
         <f aca="false">FORECAST(E$9, $D$6:$D$7,$N$10:$N$11)</f>
         <v>6.22222222222222</v>
       </c>
-      <c r="F11" s="112" t="n">
+      <c r="F11" s="105" t="n">
         <f aca="false">FORECAST(F$9, $D$6:$D$7,$N$10:$N$11)</f>
         <v>5.33333333333333</v>
       </c>
-      <c r="G11" s="112" t="n">
+      <c r="G11" s="105" t="n">
         <f aca="false">FORECAST(G$9, $D$6:$D$7,$N$10:$N$11)</f>
         <v>4.44444444444444</v>
       </c>
-      <c r="H11" s="112" t="n">
+      <c r="H11" s="105" t="n">
         <f aca="false">FORECAST(H$9, $D$6:$D$7,$N$10:$N$11)</f>
         <v>3.55555555555556</v>
       </c>
-      <c r="I11" s="112" t="n">
+      <c r="I11" s="105" t="n">
         <f aca="false">FORECAST(I$9, $D$6:$D$7,$N$10:$N$11)</f>
         <v>2.66666666666667</v>
       </c>
-      <c r="J11" s="112" t="n">
+      <c r="J11" s="105" t="n">
         <f aca="false">FORECAST(J$9, $D$6:$D$7,$N$10:$N$11)</f>
         <v>1.77777777777778</v>
       </c>
-      <c r="K11" s="112" t="n">
+      <c r="K11" s="105" t="n">
         <f aca="false">FORECAST(K$9, $D$6:$D$7,$N$10:$N$11)</f>
         <v>0.888888888888889</v>
       </c>
-      <c r="L11" s="112" t="n">
+      <c r="L11" s="105" t="n">
         <f aca="false">FORECAST(L$9, $D$6:$D$7,$N$10:$N$11)</f>
         <v>0</v>
       </c>
-      <c r="N11" s="104" t="n">
+      <c r="N11" s="97" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="106"/>
-      <c r="B12" s="111" t="s">
-        <v>49</v>
-      </c>
-      <c r="C12" s="112"/>
-      <c r="D12" s="112"/>
-      <c r="E12" s="112"/>
-      <c r="F12" s="112"/>
-      <c r="G12" s="112"/>
-      <c r="H12" s="112"/>
-      <c r="I12" s="112"/>
-      <c r="J12" s="112"/>
-      <c r="K12" s="112"/>
-      <c r="L12" s="112"/>
-      <c r="N12" s="104" t="n">
+      <c r="A12" s="99"/>
+      <c r="B12" s="104" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12" s="105"/>
+      <c r="D12" s="105"/>
+      <c r="E12" s="105"/>
+      <c r="F12" s="105"/>
+      <c r="G12" s="105"/>
+      <c r="H12" s="105"/>
+      <c r="I12" s="105"/>
+      <c r="J12" s="105"/>
+      <c r="K12" s="105"/>
+      <c r="L12" s="105"/>
+      <c r="N12" s="97" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="106"/>
-      <c r="B13" s="111" t="s">
-        <v>50</v>
-      </c>
-      <c r="C13" s="112"/>
-      <c r="D13" s="112"/>
-      <c r="E13" s="112"/>
-      <c r="F13" s="112"/>
-      <c r="G13" s="112"/>
-      <c r="H13" s="112"/>
-      <c r="I13" s="112"/>
-      <c r="J13" s="112"/>
-      <c r="K13" s="112"/>
-      <c r="L13" s="112"/>
+      <c r="A13" s="99"/>
+      <c r="B13" s="104" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" s="105"/>
+      <c r="D13" s="105"/>
+      <c r="E13" s="105"/>
+      <c r="F13" s="105"/>
+      <c r="G13" s="105"/>
+      <c r="H13" s="105"/>
+      <c r="I13" s="105"/>
+      <c r="J13" s="105"/>
+      <c r="K13" s="105"/>
+      <c r="L13" s="105"/>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="106"/>
-      <c r="B14" s="111" t="s">
-        <v>51</v>
-      </c>
-      <c r="C14" s="112"/>
-      <c r="D14" s="112"/>
-      <c r="E14" s="112"/>
-      <c r="F14" s="112"/>
-      <c r="G14" s="112"/>
-      <c r="H14" s="112"/>
-      <c r="I14" s="112"/>
-      <c r="J14" s="112"/>
-      <c r="K14" s="112"/>
-      <c r="L14" s="112"/>
+      <c r="A14" s="99"/>
+      <c r="B14" s="104" t="s">
+        <v>80</v>
+      </c>
+      <c r="C14" s="105"/>
+      <c r="D14" s="105"/>
+      <c r="E14" s="105"/>
+      <c r="F14" s="105"/>
+      <c r="G14" s="105"/>
+      <c r="H14" s="105"/>
+      <c r="I14" s="105"/>
+      <c r="J14" s="105"/>
+      <c r="K14" s="105"/>
+      <c r="L14" s="105"/>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="106"/>
-      <c r="B15" s="111" t="s">
-        <v>52</v>
-      </c>
-      <c r="C15" s="112"/>
-      <c r="D15" s="112"/>
-      <c r="E15" s="112"/>
-      <c r="F15" s="112"/>
-      <c r="G15" s="112"/>
-      <c r="H15" s="112"/>
-      <c r="I15" s="112"/>
-      <c r="J15" s="112"/>
-      <c r="K15" s="112"/>
-      <c r="L15" s="112"/>
+      <c r="A15" s="99"/>
+      <c r="B15" s="104" t="s">
+        <v>81</v>
+      </c>
+      <c r="C15" s="105"/>
+      <c r="D15" s="105"/>
+      <c r="E15" s="105"/>
+      <c r="F15" s="105"/>
+      <c r="G15" s="105"/>
+      <c r="H15" s="105"/>
+      <c r="I15" s="105"/>
+      <c r="J15" s="105"/>
+      <c r="K15" s="105"/>
+      <c r="L15" s="105"/>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="106"/>
-      <c r="B16" s="111"/>
-      <c r="C16" s="112"/>
-      <c r="D16" s="112"/>
-      <c r="E16" s="112"/>
-      <c r="F16" s="112"/>
-      <c r="G16" s="112"/>
-      <c r="H16" s="112"/>
-      <c r="I16" s="112"/>
-      <c r="J16" s="112"/>
-      <c r="K16" s="112"/>
-      <c r="L16" s="112"/>
+      <c r="A16" s="99"/>
+      <c r="B16" s="104"/>
+      <c r="C16" s="105"/>
+      <c r="D16" s="105"/>
+      <c r="E16" s="105"/>
+      <c r="F16" s="105"/>
+      <c r="G16" s="105"/>
+      <c r="H16" s="105"/>
+      <c r="I16" s="105"/>
+      <c r="J16" s="105"/>
+      <c r="K16" s="105"/>
+      <c r="L16" s="105"/>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="106"/>
-      <c r="B17" s="111"/>
-      <c r="C17" s="112"/>
-      <c r="D17" s="112"/>
-      <c r="E17" s="112"/>
-      <c r="F17" s="112"/>
-      <c r="G17" s="112"/>
-      <c r="H17" s="112"/>
-      <c r="I17" s="112"/>
-      <c r="J17" s="112"/>
-      <c r="K17" s="112"/>
-      <c r="L17" s="112"/>
+      <c r="A17" s="99"/>
+      <c r="B17" s="104"/>
+      <c r="C17" s="105"/>
+      <c r="D17" s="105"/>
+      <c r="E17" s="105"/>
+      <c r="F17" s="105"/>
+      <c r="G17" s="105"/>
+      <c r="H17" s="105"/>
+      <c r="I17" s="105"/>
+      <c r="J17" s="105"/>
+      <c r="K17" s="105"/>
+      <c r="L17" s="105"/>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="106"/>
-      <c r="B18" s="111"/>
-      <c r="C18" s="112"/>
-      <c r="D18" s="112"/>
-      <c r="E18" s="112"/>
-      <c r="F18" s="112"/>
-      <c r="G18" s="112"/>
-      <c r="H18" s="112"/>
-      <c r="I18" s="112"/>
-      <c r="J18" s="112"/>
-      <c r="K18" s="112"/>
-      <c r="L18" s="112"/>
+      <c r="A18" s="99"/>
+      <c r="B18" s="104"/>
+      <c r="C18" s="105"/>
+      <c r="D18" s="105"/>
+      <c r="E18" s="105"/>
+      <c r="F18" s="105"/>
+      <c r="G18" s="105"/>
+      <c r="H18" s="105"/>
+      <c r="I18" s="105"/>
+      <c r="J18" s="105"/>
+      <c r="K18" s="105"/>
+      <c r="L18" s="105"/>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="106"/>
-      <c r="B19" s="111"/>
-      <c r="C19" s="112"/>
-      <c r="D19" s="112"/>
-      <c r="E19" s="112"/>
-      <c r="F19" s="112"/>
-      <c r="G19" s="112"/>
-      <c r="H19" s="112"/>
-      <c r="I19" s="112"/>
-      <c r="J19" s="112"/>
-      <c r="K19" s="112"/>
-      <c r="L19" s="112"/>
+      <c r="A19" s="99"/>
+      <c r="B19" s="104"/>
+      <c r="C19" s="105"/>
+      <c r="D19" s="105"/>
+      <c r="E19" s="105"/>
+      <c r="F19" s="105"/>
+      <c r="G19" s="105"/>
+      <c r="H19" s="105"/>
+      <c r="I19" s="105"/>
+      <c r="J19" s="105"/>
+      <c r="K19" s="105"/>
+      <c r="L19" s="105"/>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="106"/>
-      <c r="B20" s="111"/>
-      <c r="C20" s="112"/>
-      <c r="D20" s="112"/>
-      <c r="E20" s="112"/>
-      <c r="F20" s="112"/>
-      <c r="G20" s="112"/>
-      <c r="H20" s="112"/>
-      <c r="I20" s="112"/>
-      <c r="J20" s="112"/>
-      <c r="K20" s="112"/>
-      <c r="L20" s="112"/>
+      <c r="A20" s="99"/>
+      <c r="B20" s="104"/>
+      <c r="C20" s="105"/>
+      <c r="D20" s="105"/>
+      <c r="E20" s="105"/>
+      <c r="F20" s="105"/>
+      <c r="G20" s="105"/>
+      <c r="H20" s="105"/>
+      <c r="I20" s="105"/>
+      <c r="J20" s="105"/>
+      <c r="K20" s="105"/>
+      <c r="L20" s="105"/>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="106"/>
-      <c r="B21" s="111"/>
-      <c r="C21" s="112"/>
-      <c r="D21" s="112"/>
-      <c r="E21" s="112"/>
-      <c r="F21" s="112"/>
-      <c r="G21" s="112"/>
-      <c r="H21" s="112"/>
-      <c r="I21" s="112"/>
-      <c r="J21" s="112"/>
-      <c r="K21" s="112"/>
-      <c r="L21" s="112"/>
+      <c r="A21" s="99"/>
+      <c r="B21" s="104"/>
+      <c r="C21" s="105"/>
+      <c r="D21" s="105"/>
+      <c r="E21" s="105"/>
+      <c r="F21" s="105"/>
+      <c r="G21" s="105"/>
+      <c r="H21" s="105"/>
+      <c r="I21" s="105"/>
+      <c r="J21" s="105"/>
+      <c r="K21" s="105"/>
+      <c r="L21" s="105"/>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="106"/>
-      <c r="B22" s="111"/>
-      <c r="C22" s="112"/>
-      <c r="D22" s="112"/>
-      <c r="E22" s="112"/>
-      <c r="F22" s="112"/>
-      <c r="G22" s="112"/>
-      <c r="H22" s="112"/>
-      <c r="I22" s="112"/>
-      <c r="J22" s="112"/>
-      <c r="K22" s="112"/>
-      <c r="L22" s="112"/>
+      <c r="A22" s="99"/>
+      <c r="B22" s="104"/>
+      <c r="C22" s="105"/>
+      <c r="D22" s="105"/>
+      <c r="E22" s="105"/>
+      <c r="F22" s="105"/>
+      <c r="G22" s="105"/>
+      <c r="H22" s="105"/>
+      <c r="I22" s="105"/>
+      <c r="J22" s="105"/>
+      <c r="K22" s="105"/>
+      <c r="L22" s="105"/>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="106"/>
-      <c r="B23" s="111"/>
-      <c r="C23" s="112"/>
-      <c r="D23" s="112"/>
-      <c r="E23" s="112"/>
-      <c r="F23" s="112"/>
-      <c r="G23" s="112"/>
-      <c r="H23" s="112"/>
-      <c r="I23" s="112"/>
-      <c r="J23" s="112"/>
-      <c r="K23" s="112"/>
-      <c r="L23" s="112"/>
+      <c r="A23" s="99"/>
+      <c r="B23" s="104"/>
+      <c r="C23" s="105"/>
+      <c r="D23" s="105"/>
+      <c r="E23" s="105"/>
+      <c r="F23" s="105"/>
+      <c r="G23" s="105"/>
+      <c r="H23" s="105"/>
+      <c r="I23" s="105"/>
+      <c r="J23" s="105"/>
+      <c r="K23" s="105"/>
+      <c r="L23" s="105"/>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="5" t="s">
-        <v>58</v>
+        <v>87</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="6" t="s">
-        <v>59</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/backlog-sprints.xlsx
+++ b/backlog-sprints.xlsx
@@ -15,21 +15,26 @@
     <sheet name="system sheet" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">'Product Backlog'!$B$4:$H$113</definedName>
+    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">'Product Backlog'!$B$4:$H$114</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Area" vbProcedure="false">'Sprint 1'!$A$1:$N$15</definedName>
     <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">'Sprint 1'!$A$6:$E$16</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm.Print_Area" vbProcedure="false">'Sprint 2'!$A$1:$N$16</definedName>
     <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">'Sprint 2'!$A$6:$E$17</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">'Product Backlog'!$B$4:$H$113</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Product Backlog'!$B$4:$H$113</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">'Product Backlog'!$B$4:$H$114</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Product Backlog'!$B$4:$H$114</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Product Backlog'!$B$4:$H$114</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Area" vbProcedure="false">'Sprint 1'!$A$1:$N$15</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Area_0" vbProcedure="false">'Sprint 1'!$A$1:$N$15</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Area_0_0" vbProcedure="false">'Sprint 1'!$A$1:$N$15</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">'Sprint 1'!$A$6:$E$16</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Sprint 1'!$A$6:$E$16</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Sprint 1'!$A$6:$E$16</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm.Print_Area" vbProcedure="false">'Sprint 2'!$A$1:$N$16</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm.Print_Area_0" vbProcedure="false">'Sprint 2'!$A$1:$N$16</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm.Print_Area_0_0" vbProcedure="false">'Sprint 2'!$A$1:$N$16</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">'Sprint 2'!$A$6:$E$17</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Sprint 2'!$A$6:$E$17</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Sprint 2'!$A$6:$E$17</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -486,7 +491,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="91">
   <si>
     <t xml:space="preserve">Scrum Excel sheet</t>
   </si>
@@ -684,6 +689,12 @@
   </si>
   <si>
     <t xml:space="preserve">Accepter ou refuser les réservations sur mon trajet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Voir les trajets effectués</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Historique</t>
   </si>
   <si>
     <t xml:space="preserve">Evaluer un utilisateur avec qui j’ai partagé un trajet</t>
@@ -1821,7 +1832,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1868,8 +1879,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.359103557193352"/>
-          <c:y val="0.043633034987795"/>
+          <c:x val="0.359117060880683"/>
+          <c:y val="0.0436374732987489"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1881,10 +1892,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.102880348950891"/>
-          <c:y val="0.203722538649308"/>
-          <c:w val="0.721328119124615"/>
-          <c:h val="0.590317331163548"/>
+          <c:x val="0.102884217651262"/>
+          <c:y val="0.203743261112806"/>
+          <c:w val="0.721317639980446"/>
+          <c:h val="0.590275658630862"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -2066,11 +2077,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="83232347"/>
-        <c:axId val="80838219"/>
+        <c:axId val="63315887"/>
+        <c:axId val="63686912"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="83232347"/>
+        <c:axId val="63315887"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2118,8 +2129,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.435210949838309"/>
-              <c:y val="0.885679414157852"/>
+              <c:x val="0.435227315458955"/>
+              <c:y val="0.885667785576238"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -2155,14 +2166,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="80838219"/>
+        <c:crossAx val="63686912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="80838219"/>
+        <c:axId val="63686912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2210,8 +2221,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.0300819733774536"/>
-              <c:y val="0.361676159479251"/>
+              <c:x val="0.0301207084571128"/>
+              <c:y val="0.361611229783338"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -2247,7 +2258,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="83232347"/>
+        <c:crossAx val="63315887"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2311,7 +2322,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2358,8 +2369,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.359118197027852"/>
-          <c:y val="0.0436374732987489"/>
+          <c:x val="0.359135869297771"/>
+          <c:y val="0.0436419125127162"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2371,10 +2382,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.102893416002362"/>
-          <c:y val="0.203743261112806"/>
-          <c:w val="0.72128727487452"/>
-          <c:h val="0.59037737768284"/>
+          <c:x val="0.102898479405541"/>
+          <c:y val="0.203763987792472"/>
+          <c:w val="0.721273559372078"/>
+          <c:h val="0.590335707019329"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -2556,11 +2567,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="54858233"/>
-        <c:axId val="5979050"/>
+        <c:axId val="97633271"/>
+        <c:axId val="24526261"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="54858233"/>
+        <c:axId val="97633271"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2608,8 +2619,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.435242594232851"/>
-              <c:y val="0.885667785576238"/>
+              <c:x val="0.435264012597805"/>
+              <c:y val="0.885656154628688"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -2645,14 +2656,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="5979050"/>
+        <c:crossAx val="24526261"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="5979050"/>
+        <c:axId val="24526261"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2700,8 +2711,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.0301151461470328"/>
-              <c:y val="0.361611229783338"/>
+              <c:x val="0.0301658382953595"/>
+              <c:y val="0.361546286876907"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -2737,7 +2748,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="54858233"/>
+        <c:crossAx val="97633271"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2812,9 +2823,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>616680</xdr:colOff>
+      <xdr:colOff>616320</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>159480</xdr:rowOff>
+      <xdr:rowOff>159120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2828,7 +2839,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="533520" y="6004440"/>
-          <a:ext cx="835560" cy="298440"/>
+          <a:ext cx="834480" cy="298080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2858,9 +2869,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>456480</xdr:colOff>
+      <xdr:colOff>456120</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>156600</xdr:rowOff>
+      <xdr:rowOff>156240</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2869,7 +2880,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="640080" y="4293720"/>
-        <a:ext cx="9573480" cy="3539160"/>
+        <a:ext cx="9573120" cy="3538800"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2893,9 +2904,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>456480</xdr:colOff>
+      <xdr:colOff>456120</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>136800</xdr:rowOff>
+      <xdr:rowOff>136440</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2904,7 +2915,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="640080" y="4255920"/>
-        <a:ext cx="7315560" cy="3538800"/>
+        <a:ext cx="7315200" cy="3538440"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2930,7 +2941,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="10.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="10.65"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3746,10 +3757,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D24" activeCellId="0" sqref="D24"/>
+      <selection pane="topLeft" activeCell="C25" activeCellId="0" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3759,10 +3770,10 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="10" width="64.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="11" width="14.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="10.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="10.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="19.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="18.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="10" style="0" width="10.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="18.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="10" style="0" width="10.65"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4045,7 +4056,7 @@
         <v>54</v>
       </c>
       <c r="E19" s="29" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="F19" s="29"/>
       <c r="G19" s="29"/>
@@ -4054,13 +4065,13 @@
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="29"/>
       <c r="C20" s="29" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="D20" s="29" t="s">
         <v>56</v>
       </c>
       <c r="E20" s="29" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="F20" s="29"/>
       <c r="G20" s="29"/>
@@ -4069,13 +4080,13 @@
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="29"/>
       <c r="C21" s="29" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D21" s="29" t="s">
         <v>58</v>
       </c>
       <c r="E21" s="29" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F21" s="29"/>
       <c r="G21" s="29"/>
@@ -4084,13 +4095,13 @@
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="29"/>
       <c r="C22" s="29" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D22" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="E22" s="29" t="s">
         <v>59</v>
-      </c>
-      <c r="E22" s="29" t="s">
-        <v>57</v>
       </c>
       <c r="F22" s="29"/>
       <c r="G22" s="29"/>
@@ -4099,13 +4110,13 @@
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="29"/>
       <c r="C23" s="29" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D23" s="29" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E23" s="29" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F23" s="29"/>
       <c r="G23" s="29"/>
@@ -4113,9 +4124,15 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="29"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
+      <c r="C24" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="D24" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="E24" s="29" t="s">
+        <v>59</v>
+      </c>
       <c r="F24" s="29"/>
       <c r="G24" s="29"/>
       <c r="H24" s="29"/>
@@ -4148,16 +4165,25 @@
       <c r="H27" s="29"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="31"/>
-      <c r="C28" s="31"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="31"/>
-      <c r="H28" s="31"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="29"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="31"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="31"/>
     </row>
   </sheetData>
-  <autoFilter ref="B4:H113"/>
+  <autoFilter ref="B4:H114"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -4198,10 +4224,10 @@
     <row r="1" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1"/>
       <c r="B1" s="32" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C1" s="33" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D1" s="34" t="n">
         <v>39742</v>
@@ -4225,7 +4251,7 @@
         <v>My Product</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D2" s="34" t="n">
         <f aca="false">WORKDAY(D1,10)</f>
@@ -4258,7 +4284,7 @@
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="33" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D3" s="38" t="n">
         <f aca="false">D16</f>
@@ -4291,10 +4317,10 @@
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="33" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D4" s="39" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E4" s="39"/>
       <c r="F4" s="39"/>
@@ -4349,16 +4375,16 @@
     </row>
     <row r="6" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="40" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B6" s="41" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C6" s="42" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D6" s="43" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E6" s="44" t="n">
         <v>39650</v>
@@ -4682,7 +4708,7 @@
         <v>0</v>
       </c>
       <c r="O16" s="73" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="P16" s="37"/>
       <c r="Q16" s="37"/>
@@ -4767,7 +4793,7 @@
       <c r="B17" s="70"/>
       <c r="C17" s="37"/>
       <c r="D17" s="74" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E17" s="75" t="n">
         <f aca="false">'system sheet'!C10</f>
@@ -7360,10 +7386,10 @@
     <row r="1" customFormat="false" ht="53.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1"/>
       <c r="B1" s="32" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C1" s="33" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D1" s="34" t="n">
         <v>39742</v>
@@ -7386,7 +7412,7 @@
         <v>My Product</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D2" s="34" t="n">
         <f aca="false">WORKDAY(D1,10)</f>
@@ -7419,7 +7445,7 @@
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="33" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D3" s="38" t="n">
         <f aca="false">D17</f>
@@ -7452,10 +7478,10 @@
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="33" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D4" s="39" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E4" s="39"/>
       <c r="F4" s="39"/>
@@ -7510,16 +7536,16 @@
     </row>
     <row r="6" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="40" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B6" s="41" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C6" s="42" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D6" s="43" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E6" s="44" t="n">
         <v>39650</v>
@@ -7633,7 +7659,7 @@
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="86"/>
       <c r="B7" s="48" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C7" s="49"/>
       <c r="D7" s="50" t="n">
@@ -7857,7 +7883,7 @@
         <v>0</v>
       </c>
       <c r="O17" s="88" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="P17" s="37"/>
       <c r="Q17" s="37"/>
@@ -7942,7 +7968,7 @@
       <c r="B18" s="70"/>
       <c r="C18" s="37"/>
       <c r="D18" s="74" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E18" s="75" t="n">
         <f aca="false">'system sheet'!C11</f>
@@ -8105,7 +8131,7 @@
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="2" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="90" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C2" s="90"/>
       <c r="D2" s="90"/>
@@ -8123,27 +8149,27 @@
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="92" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D5" s="92" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E5" s="92" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F5" s="92" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G5" s="92" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H5" s="92" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="93" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B6" s="93"/>
       <c r="C6" s="94" t="n">
@@ -8159,7 +8185,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="6" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C7" s="97" t="n">
         <v>0</v>
@@ -8185,10 +8211,10 @@
     </row>
     <row r="9" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="99" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B9" s="100" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C9" s="101" t="n">
         <v>0</v>
@@ -8221,13 +8247,13 @@
         <v>9</v>
       </c>
       <c r="N9" s="103" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="99"/>
       <c r="B10" s="104" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C10" s="105" t="n">
         <f aca="false">FORECAST(C$9, $C$6:$C$7,$N$10:$N$11)</f>
@@ -8276,7 +8302,7 @@
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="99"/>
       <c r="B11" s="104" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C11" s="105" t="n">
         <f aca="false">FORECAST(C$9, $D$6:$D$7,$N$10:$N$11)</f>
@@ -8325,7 +8351,7 @@
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="99"/>
       <c r="B12" s="104" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C12" s="105"/>
       <c r="D12" s="105"/>
@@ -8344,7 +8370,7 @@
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="99"/>
       <c r="B13" s="104" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C13" s="105"/>
       <c r="D13" s="105"/>
@@ -8360,7 +8386,7 @@
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="99"/>
       <c r="B14" s="104" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C14" s="105"/>
       <c r="D14" s="105"/>
@@ -8376,7 +8402,7 @@
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="99"/>
       <c r="B15" s="104" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C15" s="105"/>
       <c r="D15" s="105"/>
@@ -8503,12 +8529,12 @@
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="5" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="6" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/backlog-sprints.xlsx
+++ b/backlog-sprints.xlsx
@@ -23,18 +23,23 @@
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">'Product Backlog'!$B$4:$H$114</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Product Backlog'!$B$4:$H$114</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Product Backlog'!$B$4:$H$114</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Product Backlog'!$B$4:$H$114</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Area" vbProcedure="false">'Sprint 1'!$A$1:$N$15</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Area_0" vbProcedure="false">'Sprint 1'!$A$1:$N$15</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Area_0_0" vbProcedure="false">'Sprint 1'!$A$1:$N$15</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Area_0_0_0" vbProcedure="false">'Sprint 1'!$A$1:$N$15</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">'Sprint 1'!$A$6:$E$16</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Sprint 1'!$A$6:$E$16</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Sprint 1'!$A$6:$E$16</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Sprint 1'!$A$6:$E$16</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm.Print_Area" vbProcedure="false">'Sprint 2'!$A$1:$N$16</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm.Print_Area_0" vbProcedure="false">'Sprint 2'!$A$1:$N$16</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm.Print_Area_0_0" vbProcedure="false">'Sprint 2'!$A$1:$N$16</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm.Print_Area_0_0_0" vbProcedure="false">'Sprint 2'!$A$1:$N$16</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">'Sprint 2'!$A$6:$E$17</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Sprint 2'!$A$6:$E$17</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Sprint 2'!$A$6:$E$17</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Sprint 2'!$A$6:$E$17</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -491,7 +496,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="91">
   <si>
     <t xml:space="preserve">Scrum Excel sheet</t>
   </si>
@@ -661,7 +666,7 @@
     <t xml:space="preserve">Trajet – conducteur</t>
   </si>
   <si>
-    <t xml:space="preserve">Voir le profil d’un autre utilisateur</t>
+    <t xml:space="preserve">Voir le profil public d’un autre utilisateur</t>
   </si>
   <si>
     <t xml:space="preserve">Profils</t>
@@ -676,6 +681,9 @@
     <t xml:space="preserve">Définir mon ou mes véhicules</t>
   </si>
   <si>
+    <t xml:space="preserve">Voir le profil complet d’un autre utilisateur</t>
+  </si>
+  <si>
     <t xml:space="preserve">Réserver un trajet</t>
   </si>
   <si>
@@ -703,16 +711,13 @@
     <t xml:space="preserve">Administrateur</t>
   </si>
   <si>
-    <t xml:space="preserve">me connecter au back-office ?</t>
+    <t xml:space="preserve">me connecter au back-office</t>
   </si>
   <si>
     <t xml:space="preserve">Admin</t>
   </si>
   <si>
-    <t xml:space="preserve">gérer les utilisateurs ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">faire des statistiques ?</t>
+    <t xml:space="preserve">gérer les utilisateurs</t>
   </si>
   <si>
     <t xml:space="preserve">Définir les prix de base par catégorie de véhicules</t>
@@ -1832,7 +1837,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1879,8 +1884,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.359117060880683"/>
-          <c:y val="0.0436374732987489"/>
+          <c:x val="0.359130565583634"/>
+          <c:y val="0.0436419125127162"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1892,10 +1897,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.102884217651262"/>
-          <c:y val="0.203743261112806"/>
-          <c:w val="0.721317639980446"/>
-          <c:h val="0.590275658630862"/>
+          <c:x val="0.102888086642599"/>
+          <c:y val="0.203763987792472"/>
+          <c:w val="0.721307160048135"/>
+          <c:h val="0.590233977619532"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -2077,11 +2082,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="63315887"/>
-        <c:axId val="63686912"/>
+        <c:axId val="70560511"/>
+        <c:axId val="28601959"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="63315887"/>
+        <c:axId val="70560511"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2129,8 +2134,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.435227315458955"/>
-              <c:y val="0.885667785576238"/>
+              <c:x val="0.435243682310469"/>
+              <c:y val="0.885656154628688"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -2166,14 +2171,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="63686912"/>
+        <c:crossAx val="28601959"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="63686912"/>
+        <c:axId val="28601959"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2221,8 +2226,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.0301207084571128"/>
-              <c:y val="0.361611229783338"/>
+              <c:x val="0.0301594464500602"/>
+              <c:y val="0.361546286876907"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -2258,7 +2263,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="63315887"/>
+        <c:crossAx val="70560511"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2322,7 +2327,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2369,8 +2374,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.359135869297771"/>
-          <c:y val="0.0436419125127162"/>
+          <c:x val="0.359153543307087"/>
+          <c:y val="0.0436463526299725"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2382,10 +2387,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.102898479405541"/>
-          <c:y val="0.203763987792472"/>
-          <c:w val="0.721273559372078"/>
-          <c:h val="0.590335707019329"/>
+          <c:x val="0.102903543307087"/>
+          <c:y val="0.203784718689592"/>
+          <c:w val="0.721259842519685"/>
+          <c:h val="0.590294027876691"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -2567,11 +2572,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="97633271"/>
-        <c:axId val="24526261"/>
+        <c:axId val="831738"/>
+        <c:axId val="78435184"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="97633271"/>
+        <c:axId val="831738"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2619,8 +2624,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.435264012597805"/>
-              <c:y val="0.885656154628688"/>
+              <c:x val="0.435285433070866"/>
+              <c:y val="0.885644521314478"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -2656,14 +2661,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="24526261"/>
+        <c:crossAx val="78435184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="24526261"/>
+        <c:axId val="78435184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2711,8 +2716,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.0301658382953595"/>
-              <c:y val="0.361546286876907"/>
+              <c:x val="0.0302165354330709"/>
+              <c:y val="0.361481330755926"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -2748,7 +2753,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="97633271"/>
+        <c:crossAx val="831738"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2823,9 +2828,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>616320</xdr:colOff>
+      <xdr:colOff>615960</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>159120</xdr:rowOff>
+      <xdr:rowOff>158760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2839,7 +2844,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="533520" y="6004440"/>
-          <a:ext cx="834480" cy="298080"/>
+          <a:ext cx="833400" cy="297720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2869,9 +2874,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>456120</xdr:colOff>
+      <xdr:colOff>455760</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>156240</xdr:rowOff>
+      <xdr:rowOff>155880</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2880,7 +2885,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="640080" y="4293720"/>
-        <a:ext cx="9573120" cy="3538800"/>
+        <a:ext cx="9572760" cy="3538440"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2904,9 +2909,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>456120</xdr:colOff>
+      <xdr:colOff>455760</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>136440</xdr:rowOff>
+      <xdr:rowOff>136080</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2915,7 +2920,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="640080" y="4255920"/>
-        <a:ext cx="7315200" cy="3538440"/>
+        <a:ext cx="7314840" cy="3538080"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3930,7 +3935,7 @@
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="29"/>
       <c r="C11" s="29" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D11" s="29" t="s">
         <v>44</v>
@@ -3980,9 +3985,7 @@
       <c r="D14" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="E14" s="29" t="s">
-        <v>41</v>
-      </c>
+      <c r="E14" s="29"/>
       <c r="F14" s="29"/>
       <c r="G14" s="29"/>
       <c r="H14" s="29"/>
@@ -3996,7 +3999,7 @@
         <v>50</v>
       </c>
       <c r="E15" s="29" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F15" s="29"/>
       <c r="G15" s="29"/>
@@ -4011,7 +4014,7 @@
         <v>51</v>
       </c>
       <c r="E16" s="29" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F16" s="29"/>
       <c r="G16" s="29"/>
@@ -4026,7 +4029,7 @@
         <v>52</v>
       </c>
       <c r="E17" s="29" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F17" s="29"/>
       <c r="G17" s="29"/>
@@ -4056,7 +4059,7 @@
         <v>54</v>
       </c>
       <c r="E19" s="29" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F19" s="29"/>
       <c r="G19" s="29"/>
@@ -4068,10 +4071,10 @@
         <v>46</v>
       </c>
       <c r="D20" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="E20" s="29" t="s">
         <v>56</v>
-      </c>
-      <c r="E20" s="29" t="s">
-        <v>45</v>
       </c>
       <c r="F20" s="29"/>
       <c r="G20" s="29"/>
@@ -4080,13 +4083,13 @@
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="29"/>
       <c r="C21" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="D21" s="29" t="s">
-        <v>58</v>
-      </c>
       <c r="E21" s="29" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="F21" s="29"/>
       <c r="G21" s="29"/>
@@ -4095,13 +4098,13 @@
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="29"/>
       <c r="C22" s="29" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D22" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="E22" s="29" t="s">
         <v>60</v>
-      </c>
-      <c r="E22" s="29" t="s">
-        <v>59</v>
       </c>
       <c r="F22" s="29"/>
       <c r="G22" s="29"/>
@@ -4110,13 +4113,13 @@
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="29"/>
       <c r="C23" s="29" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D23" s="29" t="s">
         <v>61</v>
       </c>
       <c r="E23" s="29" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F23" s="29"/>
       <c r="G23" s="29"/>
@@ -4125,13 +4128,13 @@
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="29"/>
       <c r="C24" s="29" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D24" s="29" t="s">
         <v>62</v>
       </c>
       <c r="E24" s="29" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F24" s="29"/>
       <c r="G24" s="29"/>

--- a/backlog-sprints.xlsx
+++ b/backlog-sprints.xlsx
@@ -15,31 +15,35 @@
     <sheet name="system sheet" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">'Product Backlog'!$B$4:$H$114</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Area" vbProcedure="false">'Sprint 1'!$A$1:$N$15</definedName>
     <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">'Sprint 1'!$A$6:$E$16</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm.Print_Area" vbProcedure="false">'Sprint 2'!$A$1:$N$16</definedName>
     <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">'Sprint 2'!$A$6:$E$17</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">'Product Backlog'!$B$4:$H$114</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Product Backlog'!$B$4:$H$114</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Product Backlog'!$B$4:$H$114</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Product Backlog'!$B$4:$H$114</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">'Product Backlog'!$B$4:$H$118</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Product Backlog'!$B$4:$H$118</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Product Backlog'!$B$4:$H$118</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Product Backlog'!$B$4:$H$118</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">'Product Backlog'!$B$4:$H$118</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Area" vbProcedure="false">'Sprint 1'!$A$1:$N$15</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Area_0" vbProcedure="false">'Sprint 1'!$A$1:$N$15</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Area_0_0" vbProcedure="false">'Sprint 1'!$A$1:$N$15</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Area_0_0_0" vbProcedure="false">'Sprint 1'!$A$1:$N$15</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Area_0_0_0_0" vbProcedure="false">'Sprint 1'!$A$1:$N$15</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">'Sprint 1'!$A$6:$E$16</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Sprint 1'!$A$6:$E$16</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Sprint 1'!$A$6:$E$16</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Sprint 1'!$A$6:$E$16</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">'Sprint 1'!$A$6:$E$16</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm.Print_Area" vbProcedure="false">'Sprint 2'!$A$1:$N$16</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm.Print_Area_0" vbProcedure="false">'Sprint 2'!$A$1:$N$16</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm.Print_Area_0_0" vbProcedure="false">'Sprint 2'!$A$1:$N$16</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm.Print_Area_0_0_0" vbProcedure="false">'Sprint 2'!$A$1:$N$16</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm.Print_Area_0_0_0_0" vbProcedure="false">'Sprint 2'!$A$1:$N$16</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">'Sprint 2'!$A$6:$E$17</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Sprint 2'!$A$6:$E$17</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Sprint 2'!$A$6:$E$17</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Sprint 2'!$A$6:$E$17</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">'Sprint 2'!$A$6:$E$17</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -48,42 +52,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <authors>
-    <author/>
-  </authors>
-  <commentList>
-    <comment ref="H3" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b val="true"/>
-            <sz val="8"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="0"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">513334:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="0"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Report to Estimate Scrum unit the computed amount of scrum units found in Sprint sheet</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -496,7 +464,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="93">
   <si>
     <t xml:space="preserve">Scrum Excel sheet</t>
   </si>
@@ -603,12 +571,6 @@
     <t xml:space="preserve">Based on a work at touilleur-express.fr.</t>
   </si>
   <si>
-    <t xml:space="preserve">Edited by:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Last edited:</t>
-  </si>
-  <si>
     <t xml:space="preserve">Titre</t>
   </si>
   <si>
@@ -675,7 +637,10 @@
     <t xml:space="preserve">Utilisateur</t>
   </si>
   <si>
-    <t xml:space="preserve">Gérer mon compte</t>
+    <t xml:space="preserve">Modifier mon compte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supprimer mon compte</t>
   </si>
   <si>
     <t xml:space="preserve">Définir mon ou mes véhicules</t>
@@ -687,10 +652,16 @@
     <t xml:space="preserve">Réserver un trajet</t>
   </si>
   <si>
+    <t xml:space="preserve">Annuler une réservation</t>
+  </si>
+  <si>
     <t xml:space="preserve">Valider un trajet</t>
   </si>
   <si>
-    <t xml:space="preserve">Payer mon trajet ?</t>
+    <t xml:space="preserve">Annuler un trajet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Payer mon trajet</t>
   </si>
   <si>
     <t xml:space="preserve">Voir les réservations passager sur mon trajet</t>
@@ -699,10 +670,13 @@
     <t xml:space="preserve">Accepter ou refuser les réservations sur mon trajet</t>
   </si>
   <si>
+    <t xml:space="preserve">Voir les trajets en cours</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liste trajets</t>
+  </si>
+  <si>
     <t xml:space="preserve">Voir les trajets effectués</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Historique</t>
   </si>
   <si>
     <t xml:space="preserve">Evaluer un utilisateur avec qui j’ai partagé un trajet</t>
@@ -939,21 +913,6 @@
     </font>
     <font>
       <b val="true"/>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
       <sz val="16"/>
       <color rgb="FF3366FF"/>
       <name val="Avenir LT Std 35 Light"/>
@@ -1049,6 +1008,21 @@
       <color rgb="FF800000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
@@ -1468,11 +1442,11 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1492,55 +1466,55 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="5" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="21" fillId="5" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="5" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="21" fillId="5" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="5" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="21" fillId="5" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="24" fillId="5" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="22" fillId="5" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="25" fillId="2" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="23" fillId="2" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="25" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="23" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="26" fillId="2" borderId="15" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="24" fillId="2" borderId="15" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="27" fillId="2" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="25" fillId="2" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="23" fillId="2" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="21" fillId="2" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="28" fillId="2" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="26" fillId="2" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1572,11 +1546,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="27" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="23" fillId="2" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="21" fillId="2" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1584,7 +1558,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="27" fillId="2" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="25" fillId="2" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1596,11 +1570,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="26" fillId="2" borderId="17" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="24" fillId="2" borderId="17" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="29" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="27" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1608,7 +1582,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="23" fillId="2" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="21" fillId="2" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1620,7 +1594,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1640,7 +1614,7 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="172" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="172" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1664,7 +1638,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1676,7 +1650,7 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1684,7 +1658,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="26" fillId="2" borderId="15" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="24" fillId="2" borderId="15" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1708,7 +1682,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="28" fillId="2" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="26" fillId="2" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1752,7 +1726,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1884,8 +1858,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.359130565583634"/>
-          <c:y val="0.0436419125127162"/>
+          <c:x val="0.35914407130232"/>
+          <c:y val="0.0436463526299725"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1897,10 +1871,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.102888086642599"/>
-          <c:y val="0.203763987792472"/>
-          <c:w val="0.721307160048135"/>
-          <c:h val="0.590233977619532"/>
+          <c:x val="0.102891955924937"/>
+          <c:y val="0.203784718689592"/>
+          <c:w val="0.721296679327592"/>
+          <c:h val="0.590192288126971"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -2082,11 +2056,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="70560511"/>
-        <c:axId val="28601959"/>
+        <c:axId val="41613606"/>
+        <c:axId val="82085665"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="70560511"/>
+        <c:axId val="41613606"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2134,8 +2108,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.435243682310469"/>
-              <c:y val="0.885656154628688"/>
+              <c:x val="0.43526005039299"/>
+              <c:y val="0.885644521314478"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -2171,14 +2145,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="28601959"/>
+        <c:crossAx val="82085665"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="28601959"/>
+        <c:axId val="82085665"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2226,8 +2200,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.0301594464500602"/>
-              <c:y val="0.361546286876907"/>
+              <c:x val="0.0301981873566244"/>
+              <c:y val="0.361481330755926"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -2263,7 +2237,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="70560511"/>
+        <c:crossAx val="41613606"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2374,8 +2348,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.359153543307087"/>
-          <c:y val="0.0436463526299725"/>
+          <c:x val="0.359171219056056"/>
+          <c:y val="0.0436507936507936"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2387,10 +2361,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.102903543307087"/>
-          <c:y val="0.203784718689592"/>
-          <c:w val="0.721259842519685"/>
-          <c:h val="0.590294027876691"/>
+          <c:x val="0.102908607707072"/>
+          <c:y val="0.203805453805454"/>
+          <c:w val="0.721246124317142"/>
+          <c:h val="0.59025234025234"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -2572,11 +2546,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="831738"/>
-        <c:axId val="78435184"/>
+        <c:axId val="54342524"/>
+        <c:axId val="34972693"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="831738"/>
+        <c:axId val="54342524"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2624,8 +2598,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.435285433070866"/>
-              <c:y val="0.885644521314478"/>
+              <c:x val="0.435306855652345"/>
+              <c:y val="0.885632885632886"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -2661,14 +2635,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="78435184"/>
+        <c:crossAx val="34972693"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="78435184"/>
+        <c:axId val="34972693"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2716,8 +2690,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.0302165354330709"/>
-              <c:y val="0.361481330755926"/>
+              <c:x val="0.0302672375609036"/>
+              <c:y val="0.361416361416361"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -2753,7 +2727,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="831738"/>
+        <c:crossAx val="54342524"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2828,9 +2802,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>615960</xdr:colOff>
+      <xdr:colOff>615600</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>158760</xdr:rowOff>
+      <xdr:rowOff>158400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2844,7 +2818,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="533520" y="6004440"/>
-          <a:ext cx="833400" cy="297720"/>
+          <a:ext cx="833040" cy="297360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2860,10 +2834,6 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2874,9 +2844,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>455760</xdr:colOff>
+      <xdr:colOff>455400</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>155880</xdr:rowOff>
+      <xdr:rowOff>155520</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2885,7 +2855,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="640080" y="4293720"/>
-        <a:ext cx="9572760" cy="3538440"/>
+        <a:ext cx="9572400" cy="3538080"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2898,7 +2868,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2909,9 +2879,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>455760</xdr:colOff>
+      <xdr:colOff>455400</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>136080</xdr:rowOff>
+      <xdr:rowOff>135720</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2920,7 +2890,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="640080" y="4255920"/>
-        <a:ext cx="7314840" cy="3538080"/>
+        <a:ext cx="7314480" cy="3537720"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3762,7 +3732,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C25" activeCellId="0" sqref="C25"/>
@@ -3807,51 +3777,47 @@
       <c r="A3" s="13"/>
       <c r="B3" s="15"/>
       <c r="C3" s="15"/>
-      <c r="E3" s="16" t="s">
-        <v>23</v>
-      </c>
+      <c r="E3" s="16"/>
       <c r="F3" s="17"/>
       <c r="G3" s="17"/>
-      <c r="H3" s="18" t="s">
-        <v>24</v>
-      </c>
+      <c r="H3" s="18"/>
       <c r="I3" s="19"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="20"/>
       <c r="B4" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="E4" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="F4" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="G4" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="23" t="s">
+      <c r="H4" s="25" t="s">
         <v>29</v>
-      </c>
-      <c r="G4" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" s="25" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="20"/>
       <c r="B5" s="26"/>
       <c r="C5" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="28" t="s">
         <v>32</v>
-      </c>
-      <c r="D5" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" s="28" t="s">
-        <v>34</v>
       </c>
       <c r="F5" s="26"/>
       <c r="G5" s="26"/>
@@ -3860,13 +3826,13 @@
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="29"/>
       <c r="C6" s="29" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D6" s="29" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E6" s="29" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F6" s="29"/>
       <c r="G6" s="29"/>
@@ -3875,13 +3841,13 @@
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="29"/>
       <c r="C7" s="29" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D7" s="29" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E7" s="29" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F7" s="29"/>
       <c r="G7" s="29"/>
@@ -3890,13 +3856,13 @@
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="29"/>
       <c r="C8" s="29" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D8" s="29" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E8" s="29" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F8" s="29"/>
       <c r="G8" s="29"/>
@@ -3905,13 +3871,13 @@
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="29"/>
       <c r="C9" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="29" t="s">
         <v>39</v>
-      </c>
-      <c r="D9" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="E9" s="29" t="s">
-        <v>41</v>
       </c>
       <c r="F9" s="29"/>
       <c r="G9" s="29"/>
@@ -3920,13 +3886,13 @@
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="29"/>
       <c r="C10" s="29" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D10" s="29" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E10" s="29" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F10" s="29"/>
       <c r="G10" s="29"/>
@@ -3935,13 +3901,13 @@
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="29"/>
       <c r="C11" s="29" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D11" s="29" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E11" s="29" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F11" s="29"/>
       <c r="G11" s="29"/>
@@ -3950,13 +3916,13 @@
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="29"/>
       <c r="C12" s="29" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D12" s="29" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E12" s="29" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F12" s="29"/>
       <c r="G12" s="29"/>
@@ -3965,13 +3931,13 @@
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="29"/>
       <c r="C13" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="D13" s="29" t="s">
-        <v>48</v>
-      </c>
       <c r="E13" s="29" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F13" s="29"/>
       <c r="G13" s="29"/>
@@ -3980,12 +3946,14 @@
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="29"/>
       <c r="C14" s="29" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D14" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="E14" s="29"/>
+        <v>47</v>
+      </c>
+      <c r="E14" s="29" t="s">
+        <v>34</v>
+      </c>
       <c r="F14" s="29"/>
       <c r="G14" s="29"/>
       <c r="H14" s="29"/>
@@ -3993,13 +3961,13 @@
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="29"/>
       <c r="C15" s="29" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D15" s="29" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E15" s="29" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F15" s="29"/>
       <c r="G15" s="29"/>
@@ -4008,13 +3976,13 @@
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="29"/>
       <c r="C16" s="29" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D16" s="29" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E16" s="29" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F16" s="29"/>
       <c r="G16" s="29"/>
@@ -4023,13 +3991,13 @@
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="29"/>
       <c r="C17" s="29" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D17" s="29" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E17" s="29" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F17" s="29"/>
       <c r="G17" s="29"/>
@@ -4038,13 +4006,13 @@
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="29"/>
       <c r="C18" s="29" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D18" s="29" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E18" s="29" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F18" s="29"/>
       <c r="G18" s="29"/>
@@ -4053,13 +4021,13 @@
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="29"/>
       <c r="C19" s="29" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D19" s="29" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E19" s="29" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F19" s="29"/>
       <c r="G19" s="29"/>
@@ -4068,13 +4036,13 @@
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="29"/>
       <c r="C20" s="29" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D20" s="29" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E20" s="29" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="F20" s="29"/>
       <c r="G20" s="29"/>
@@ -4083,13 +4051,13 @@
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="29"/>
       <c r="C21" s="29" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D21" s="29" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E21" s="29" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F21" s="29"/>
       <c r="G21" s="29"/>
@@ -4098,13 +4066,13 @@
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="29"/>
       <c r="C22" s="29" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="D22" s="29" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E22" s="29" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="F22" s="29"/>
       <c r="G22" s="29"/>
@@ -4113,13 +4081,13 @@
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="29"/>
       <c r="C23" s="29" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="D23" s="29" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E23" s="29" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F23" s="29"/>
       <c r="G23" s="29"/>
@@ -4128,13 +4096,13 @@
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="29"/>
       <c r="C24" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="29" t="s">
-        <v>62</v>
-      </c>
       <c r="E24" s="29" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F24" s="29"/>
       <c r="G24" s="29"/>
@@ -4142,51 +4110,110 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="29"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="29"/>
+      <c r="C25" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="E25" s="29" t="s">
+        <v>43</v>
+      </c>
       <c r="F25" s="29"/>
       <c r="G25" s="29"/>
       <c r="H25" s="29"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="29"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29"/>
+      <c r="C26" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="D26" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="E26" s="29" t="s">
+        <v>62</v>
+      </c>
       <c r="F26" s="29"/>
       <c r="G26" s="29"/>
       <c r="H26" s="29"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="29"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
+      <c r="C27" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="D27" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="E27" s="29" t="s">
+        <v>62</v>
+      </c>
       <c r="F27" s="29"/>
       <c r="G27" s="29"/>
       <c r="H27" s="29"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="29"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="29"/>
+      <c r="C28" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="D28" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="E28" s="29" t="s">
+        <v>62</v>
+      </c>
       <c r="F28" s="29"/>
       <c r="G28" s="29"/>
       <c r="H28" s="29"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="31"/>
-      <c r="C29" s="31"/>
-      <c r="D29" s="31"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="31"/>
-      <c r="G29" s="31"/>
-      <c r="H29" s="31"/>
+      <c r="B29" s="29"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="29"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="29"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="29"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="29"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="29"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="29"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="29"/>
+      <c r="H32" s="29"/>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="31"/>
+      <c r="C33" s="31"/>
+      <c r="D33" s="31"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="31"/>
+      <c r="H33" s="31"/>
     </row>
   </sheetData>
-  <autoFilter ref="B4:H114"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -4194,8 +4221,6 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -4227,10 +4252,10 @@
     <row r="1" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1"/>
       <c r="B1" s="32" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C1" s="33" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D1" s="34" t="n">
         <v>39742</v>
@@ -4254,7 +4279,7 @@
         <v>My Product</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D2" s="34" t="n">
         <f aca="false">WORKDAY(D1,10)</f>
@@ -4287,7 +4312,7 @@
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="33" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D3" s="38" t="n">
         <f aca="false">D16</f>
@@ -4320,10 +4345,10 @@
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="33" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D4" s="39" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E4" s="39"/>
       <c r="F4" s="39"/>
@@ -4378,16 +4403,16 @@
     </row>
     <row r="6" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="40" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B6" s="41" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C6" s="42" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D6" s="43" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E6" s="44" t="n">
         <v>39650</v>
@@ -4711,7 +4736,7 @@
         <v>0</v>
       </c>
       <c r="O16" s="73" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P16" s="37"/>
       <c r="Q16" s="37"/>
@@ -4796,7 +4821,7 @@
       <c r="B17" s="70"/>
       <c r="C17" s="37"/>
       <c r="D17" s="74" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E17" s="75" t="n">
         <f aca="false">'system sheet'!C10</f>
@@ -7389,10 +7414,10 @@
     <row r="1" customFormat="false" ht="53.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1"/>
       <c r="B1" s="32" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C1" s="33" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D1" s="34" t="n">
         <v>39742</v>
@@ -7415,7 +7440,7 @@
         <v>My Product</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D2" s="34" t="n">
         <f aca="false">WORKDAY(D1,10)</f>
@@ -7448,7 +7473,7 @@
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="33" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D3" s="38" t="n">
         <f aca="false">D17</f>
@@ -7481,10 +7506,10 @@
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="33" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D4" s="39" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E4" s="39"/>
       <c r="F4" s="39"/>
@@ -7539,16 +7564,16 @@
     </row>
     <row r="6" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="40" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B6" s="41" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C6" s="42" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D6" s="43" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E6" s="44" t="n">
         <v>39650</v>
@@ -7662,7 +7687,7 @@
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="86"/>
       <c r="B7" s="48" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C7" s="49"/>
       <c r="D7" s="50" t="n">
@@ -7886,7 +7911,7 @@
         <v>0</v>
       </c>
       <c r="O17" s="88" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P17" s="37"/>
       <c r="Q17" s="37"/>
@@ -7971,7 +7996,7 @@
       <c r="B18" s="70"/>
       <c r="C18" s="37"/>
       <c r="D18" s="74" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E18" s="75" t="n">
         <f aca="false">'system sheet'!C11</f>
@@ -8134,7 +8159,7 @@
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="2" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="90" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C2" s="90"/>
       <c r="D2" s="90"/>
@@ -8152,27 +8177,27 @@
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="92" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D5" s="92" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E5" s="92" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F5" s="92" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G5" s="92" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H5" s="92" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="93" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B6" s="93"/>
       <c r="C6" s="94" t="n">
@@ -8188,7 +8213,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="6" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C7" s="97" t="n">
         <v>0</v>
@@ -8214,10 +8239,10 @@
     </row>
     <row r="9" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="99" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B9" s="100" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C9" s="101" t="n">
         <v>0</v>
@@ -8250,13 +8275,13 @@
         <v>9</v>
       </c>
       <c r="N9" s="103" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="99"/>
       <c r="B10" s="104" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C10" s="105" t="n">
         <f aca="false">FORECAST(C$9, $C$6:$C$7,$N$10:$N$11)</f>
@@ -8305,7 +8330,7 @@
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="99"/>
       <c r="B11" s="104" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C11" s="105" t="n">
         <f aca="false">FORECAST(C$9, $D$6:$D$7,$N$10:$N$11)</f>
@@ -8354,7 +8379,7 @@
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="99"/>
       <c r="B12" s="104" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C12" s="105"/>
       <c r="D12" s="105"/>
@@ -8373,7 +8398,7 @@
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="99"/>
       <c r="B13" s="104" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C13" s="105"/>
       <c r="D13" s="105"/>
@@ -8389,7 +8414,7 @@
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="99"/>
       <c r="B14" s="104" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C14" s="105"/>
       <c r="D14" s="105"/>
@@ -8405,7 +8430,7 @@
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="99"/>
       <c r="B15" s="104" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C15" s="105"/>
       <c r="D15" s="105"/>
@@ -8532,12 +8557,12 @@
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="5" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="6" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/backlog-sprints.xlsx
+++ b/backlog-sprints.xlsx
@@ -19,31 +19,35 @@
     <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">'Sprint 1'!$A$6:$E$16</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm.Print_Area" vbProcedure="false">'Sprint 2'!$A$1:$N$16</definedName>
     <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">'Sprint 2'!$A$6:$E$17</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">'Product Backlog'!$B$4:$H$118</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Product Backlog'!$B$4:$H$118</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Product Backlog'!$B$4:$H$118</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Product Backlog'!$B$4:$H$118</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">'Product Backlog'!$B$4:$H$118</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">'Product Backlog'!$B$4:$H$119</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Product Backlog'!$B$4:$H$119</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Product Backlog'!$B$4:$H$119</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Product Backlog'!$B$4:$H$119</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">'Product Backlog'!$B$4:$H$119</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Area" vbProcedure="false">'Sprint 1'!$A$1:$N$15</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Area_0" vbProcedure="false">'Sprint 1'!$A$1:$N$15</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Area_0_0" vbProcedure="false">'Sprint 1'!$A$1:$N$15</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Area_0_0_0" vbProcedure="false">'Sprint 1'!$A$1:$N$15</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Area_0_0_0_0" vbProcedure="false">'Sprint 1'!$A$1:$N$15</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Area_0_0_0_0_0" vbProcedure="false">'Sprint 1'!$A$1:$N$15</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">'Sprint 1'!$A$6:$E$16</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Sprint 1'!$A$6:$E$16</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Sprint 1'!$A$6:$E$16</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Sprint 1'!$A$6:$E$16</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">'Sprint 1'!$A$6:$E$16</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">'Sprint 1'!$A$6:$E$16</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm.Print_Area" vbProcedure="false">'Sprint 2'!$A$1:$N$16</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm.Print_Area_0" vbProcedure="false">'Sprint 2'!$A$1:$N$16</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm.Print_Area_0_0" vbProcedure="false">'Sprint 2'!$A$1:$N$16</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm.Print_Area_0_0_0" vbProcedure="false">'Sprint 2'!$A$1:$N$16</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm.Print_Area_0_0_0_0" vbProcedure="false">'Sprint 2'!$A$1:$N$16</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm.Print_Area_0_0_0_0_0" vbProcedure="false">'Sprint 2'!$A$1:$N$16</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">'Sprint 2'!$A$6:$E$17</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Sprint 2'!$A$6:$E$17</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Sprint 2'!$A$6:$E$17</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Sprint 2'!$A$6:$E$17</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">'Sprint 2'!$A$6:$E$17</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">'Sprint 2'!$A$6:$E$17</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -464,7 +468,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="96">
   <si>
     <t xml:space="preserve">Scrum Excel sheet</t>
   </si>
@@ -658,12 +662,18 @@
     <t xml:space="preserve">Valider un trajet</t>
   </si>
   <si>
+    <t xml:space="preserve">Payer mon trajet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valider ma présence au point de rendez-vous</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trajet – passager et conducteur</t>
+  </si>
+  <si>
     <t xml:space="preserve">Annuler un trajet</t>
   </si>
   <si>
-    <t xml:space="preserve">Payer mon trajet</t>
-  </si>
-  <si>
     <t xml:space="preserve">Voir les réservations passager sur mon trajet</t>
   </si>
   <si>
@@ -685,16 +695,19 @@
     <t xml:space="preserve">Administrateur</t>
   </si>
   <si>
-    <t xml:space="preserve">me connecter au back-office</t>
+    <t xml:space="preserve">Me connecter au back-office</t>
   </si>
   <si>
     <t xml:space="preserve">Admin</t>
   </si>
   <si>
-    <t xml:space="preserve">gérer les utilisateurs</t>
+    <t xml:space="preserve">Gérer les utilisateurs</t>
   </si>
   <si>
     <t xml:space="preserve">Définir les prix de base par catégorie de véhicules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Définir le taux de comission du site</t>
   </si>
   <si>
     <t xml:space="preserve">Sprint 1</t>
@@ -1811,7 +1824,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1858,8 +1871,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.35914407130232"/>
-          <c:y val="0.0436463526299725"/>
+          <c:x val="0.359157578036856"/>
+          <c:y val="0.0436507936507936"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1871,10 +1884,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.102891955924937"/>
-          <c:y val="0.203784718689592"/>
-          <c:w val="0.721296679327592"/>
-          <c:h val="0.590192288126971"/>
+          <c:x val="0.102895825498308"/>
+          <c:y val="0.203805453805454"/>
+          <c:w val="0.721286197818729"/>
+          <c:h val="0.59015059015059"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -2056,11 +2069,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="41613606"/>
-        <c:axId val="82085665"/>
+        <c:axId val="45426305"/>
+        <c:axId val="66863910"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="41613606"/>
+        <c:axId val="45426305"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2108,8 +2121,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.43526005039299"/>
-              <c:y val="0.885644521314478"/>
+              <c:x val="0.435276419706657"/>
+              <c:y val="0.885632885632886"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -2145,14 +2158,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="82085665"/>
+        <c:crossAx val="66863910"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="82085665"/>
+        <c:axId val="66863910"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2200,8 +2213,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.0301981873566244"/>
-              <c:y val="0.361481330755926"/>
+              <c:x val="0.0302369311771343"/>
+              <c:y val="0.361416361416361"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -2237,7 +2250,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="41613606"/>
+        <c:crossAx val="45426305"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2301,7 +2314,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2348,8 +2361,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.359171219056056"/>
-          <c:y val="0.0436507936507936"/>
+          <c:x val="0.359188896544935"/>
+          <c:y val="0.0436552355754554"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2361,10 +2374,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.102908607707072"/>
-          <c:y val="0.203805453805454"/>
-          <c:w val="0.721246124317142"/>
-          <c:h val="0.59025234025234"/>
+          <c:x val="0.102913672605571"/>
+          <c:y val="0.203826193141345"/>
+          <c:w val="0.721232404764248"/>
+          <c:h val="0.590210644143686"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -2546,11 +2559,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="54342524"/>
-        <c:axId val="34972693"/>
+        <c:axId val="96612351"/>
+        <c:axId val="79736778"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="54342524"/>
+        <c:axId val="96612351"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2598,8 +2611,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.435306855652345"/>
-              <c:y val="0.885632885632886"/>
+              <c:x val="0.435328280342553"/>
+              <c:y val="0.885621247583189"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -2635,14 +2648,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="34972693"/>
+        <c:crossAx val="79736778"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="34972693"/>
+        <c:axId val="79736778"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2690,8 +2703,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.0302672375609036"/>
-              <c:y val="0.361416361416361"/>
+              <c:x val="0.0303179446795944"/>
+              <c:y val="0.361351378854177"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -2727,7 +2740,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="54342524"/>
+        <c:crossAx val="96612351"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2802,9 +2815,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>615600</xdr:colOff>
+      <xdr:colOff>615240</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>158400</xdr:rowOff>
+      <xdr:rowOff>158040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2818,7 +2831,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="533520" y="6004440"/>
-          <a:ext cx="833040" cy="297360"/>
+          <a:ext cx="832680" cy="297000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2844,9 +2857,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>455400</xdr:colOff>
+      <xdr:colOff>455040</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>155520</xdr:rowOff>
+      <xdr:rowOff>155160</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2855,7 +2868,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="640080" y="4293720"/>
-        <a:ext cx="9572400" cy="3538080"/>
+        <a:ext cx="9572040" cy="3537720"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2879,9 +2892,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>455400</xdr:colOff>
+      <xdr:colOff>455040</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>135720</xdr:rowOff>
+      <xdr:rowOff>135360</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2890,7 +2903,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="640080" y="4255920"/>
-        <a:ext cx="7314480" cy="3537720"/>
+        <a:ext cx="7314120" cy="3537360"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3732,10 +3745,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I33"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C25" activeCellId="0" sqref="C25"/>
+      <selection pane="topLeft" activeCell="E21" activeCellId="0" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4027,13 +4040,13 @@
         <v>52</v>
       </c>
       <c r="E19" s="29" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F19" s="29"/>
       <c r="G19" s="29"/>
       <c r="H19" s="29"/>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="29"/>
       <c r="C20" s="29" t="s">
         <v>44</v>
@@ -4042,7 +4055,7 @@
         <v>53</v>
       </c>
       <c r="E20" s="29" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="F20" s="29"/>
       <c r="G20" s="29"/>
@@ -4054,7 +4067,7 @@
         <v>44</v>
       </c>
       <c r="D21" s="29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E21" s="29" t="s">
         <v>41</v>
@@ -4069,7 +4082,7 @@
         <v>44</v>
       </c>
       <c r="D22" s="29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E22" s="29" t="s">
         <v>41</v>
@@ -4084,10 +4097,10 @@
         <v>44</v>
       </c>
       <c r="D23" s="29" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E23" s="29" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="F23" s="29"/>
       <c r="G23" s="29"/>
@@ -4102,7 +4115,7 @@
         <v>58</v>
       </c>
       <c r="E24" s="29" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F24" s="29"/>
       <c r="G24" s="29"/>
@@ -4114,10 +4127,10 @@
         <v>44</v>
       </c>
       <c r="D25" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="E25" s="29" t="s">
         <v>59</v>
-      </c>
-      <c r="E25" s="29" t="s">
-        <v>43</v>
       </c>
       <c r="F25" s="29"/>
       <c r="G25" s="29"/>
@@ -4126,13 +4139,13 @@
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="29"/>
       <c r="C26" s="29" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="D26" s="29" t="s">
         <v>61</v>
       </c>
       <c r="E26" s="29" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="F26" s="29"/>
       <c r="G26" s="29"/>
@@ -4141,13 +4154,13 @@
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="29"/>
       <c r="C27" s="29" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D27" s="29" t="s">
         <v>63</v>
       </c>
       <c r="E27" s="29" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F27" s="29"/>
       <c r="G27" s="29"/>
@@ -4156,13 +4169,13 @@
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="29"/>
       <c r="C28" s="29" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D28" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="E28" s="29" t="s">
         <v>64</v>
-      </c>
-      <c r="E28" s="29" t="s">
-        <v>62</v>
       </c>
       <c r="F28" s="29"/>
       <c r="G28" s="29"/>
@@ -4170,18 +4183,30 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="29"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="29"/>
+      <c r="C29" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="E29" s="29" t="s">
+        <v>64</v>
+      </c>
       <c r="F29" s="29"/>
       <c r="G29" s="29"/>
       <c r="H29" s="29"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="29"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="29"/>
-      <c r="E30" s="29"/>
+      <c r="C30" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="D30" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="E30" s="29" t="s">
+        <v>64</v>
+      </c>
       <c r="F30" s="29"/>
       <c r="G30" s="29"/>
       <c r="H30" s="29"/>
@@ -4205,13 +4230,22 @@
       <c r="H32" s="29"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
+      <c r="B33" s="29"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="29"/>
+      <c r="H33" s="29"/>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B34" s="31"/>
+      <c r="C34" s="31"/>
+      <c r="D34" s="31"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="31"/>
+      <c r="G34" s="31"/>
+      <c r="H34" s="31"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -4252,10 +4286,10 @@
     <row r="1" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1"/>
       <c r="B1" s="32" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C1" s="33" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D1" s="34" t="n">
         <v>39742</v>
@@ -4279,7 +4313,7 @@
         <v>My Product</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D2" s="34" t="n">
         <f aca="false">WORKDAY(D1,10)</f>
@@ -4312,7 +4346,7 @@
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="33" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D3" s="38" t="n">
         <f aca="false">D16</f>
@@ -4345,10 +4379,10 @@
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="33" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D4" s="39" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E4" s="39"/>
       <c r="F4" s="39"/>
@@ -4403,16 +4437,16 @@
     </row>
     <row r="6" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="40" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B6" s="41" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C6" s="42" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D6" s="43" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E6" s="44" t="n">
         <v>39650</v>
@@ -4736,7 +4770,7 @@
         <v>0</v>
       </c>
       <c r="O16" s="73" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="P16" s="37"/>
       <c r="Q16" s="37"/>
@@ -4821,7 +4855,7 @@
       <c r="B17" s="70"/>
       <c r="C17" s="37"/>
       <c r="D17" s="74" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E17" s="75" t="n">
         <f aca="false">'system sheet'!C10</f>
@@ -7414,10 +7448,10 @@
     <row r="1" customFormat="false" ht="53.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1"/>
       <c r="B1" s="32" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C1" s="33" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D1" s="34" t="n">
         <v>39742</v>
@@ -7440,7 +7474,7 @@
         <v>My Product</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D2" s="34" t="n">
         <f aca="false">WORKDAY(D1,10)</f>
@@ -7473,7 +7507,7 @@
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="33" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D3" s="38" t="n">
         <f aca="false">D17</f>
@@ -7506,10 +7540,10 @@
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="33" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D4" s="39" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E4" s="39"/>
       <c r="F4" s="39"/>
@@ -7564,16 +7598,16 @@
     </row>
     <row r="6" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="40" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B6" s="41" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C6" s="42" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D6" s="43" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E6" s="44" t="n">
         <v>39650</v>
@@ -7687,7 +7721,7 @@
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="86"/>
       <c r="B7" s="48" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C7" s="49"/>
       <c r="D7" s="50" t="n">
@@ -7911,7 +7945,7 @@
         <v>0</v>
       </c>
       <c r="O17" s="88" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="P17" s="37"/>
       <c r="Q17" s="37"/>
@@ -7996,7 +8030,7 @@
       <c r="B18" s="70"/>
       <c r="C18" s="37"/>
       <c r="D18" s="74" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E18" s="75" t="n">
         <f aca="false">'system sheet'!C11</f>
@@ -8159,7 +8193,7 @@
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="2" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="90" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C2" s="90"/>
       <c r="D2" s="90"/>
@@ -8177,27 +8211,27 @@
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="92" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D5" s="92" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E5" s="92" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F5" s="92" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G5" s="92" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="H5" s="92" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="93" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B6" s="93"/>
       <c r="C6" s="94" t="n">
@@ -8213,7 +8247,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="6" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C7" s="97" t="n">
         <v>0</v>
@@ -8239,10 +8273,10 @@
     </row>
     <row r="9" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="99" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B9" s="100" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C9" s="101" t="n">
         <v>0</v>
@@ -8275,13 +8309,13 @@
         <v>9</v>
       </c>
       <c r="N9" s="103" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="99"/>
       <c r="B10" s="104" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C10" s="105" t="n">
         <f aca="false">FORECAST(C$9, $C$6:$C$7,$N$10:$N$11)</f>
@@ -8330,7 +8364,7 @@
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="99"/>
       <c r="B11" s="104" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C11" s="105" t="n">
         <f aca="false">FORECAST(C$9, $D$6:$D$7,$N$10:$N$11)</f>
@@ -8379,7 +8413,7 @@
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="99"/>
       <c r="B12" s="104" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C12" s="105"/>
       <c r="D12" s="105"/>
@@ -8398,7 +8432,7 @@
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="99"/>
       <c r="B13" s="104" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C13" s="105"/>
       <c r="D13" s="105"/>
@@ -8414,7 +8448,7 @@
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="99"/>
       <c r="B14" s="104" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C14" s="105"/>
       <c r="D14" s="105"/>
@@ -8430,7 +8464,7 @@
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="99"/>
       <c r="B15" s="104" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C15" s="105"/>
       <c r="D15" s="105"/>
@@ -8557,12 +8591,12 @@
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="5" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="6" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
